--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="281">
   <si>
     <t>Feature</t>
   </si>
@@ -507,6 +507,360 @@
   </si>
   <si>
     <t>0.04.04</t>
+  </si>
+  <si>
+    <t>Built-in Objects</t>
+  </si>
+  <si>
+    <t>Built-in Functions</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>exists</t>
+  </si>
+  <si>
+    <t>freeSpace</t>
+  </si>
+  <si>
+    <t>isDirectory(file)</t>
+  </si>
+  <si>
+    <t>isFile(file)</t>
+  </si>
+  <si>
+    <t>isHidden(file)</t>
+  </si>
+  <si>
+    <t>lastModified(file)</t>
+  </si>
+  <si>
+    <t>ls([path],...)</t>
+  </si>
+  <si>
+    <t>pwd()</t>
+  </si>
+  <si>
+    <t>totalSpace</t>
+  </si>
+  <si>
+    <t>getTotalSpace(path)</t>
+  </si>
+  <si>
+    <t>getFreeSpace(path)</t>
+  </si>
+  <si>
+    <t>touch(file)</t>
+  </si>
+  <si>
+    <t>rename(spec,spec)</t>
+  </si>
+  <si>
+    <t>move(spec,dir)</t>
+  </si>
+  <si>
+    <t>mkdir(dir)</t>
+  </si>
+  <si>
+    <t>delete(spec)</t>
+  </si>
+  <si>
+    <t>sync(path,path)</t>
+  </si>
+  <si>
+    <t>copy(spec, spec)</t>
+  </si>
+  <si>
+    <t>chmod(path, mode)</t>
+  </si>
+  <si>
+    <t>cd(dir)</t>
+  </si>
+  <si>
+    <t>loadImage(file)</t>
+  </si>
+  <si>
+    <t>loadTable(file)</t>
+  </si>
+  <si>
+    <t>newWriter()</t>
+  </si>
+  <si>
+    <t>newReader()</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>compress</t>
+  </si>
+  <si>
+    <t>decompress</t>
+  </si>
+  <si>
+    <t>get(url)</t>
+  </si>
+  <si>
+    <t>inBrowser(url)</t>
+  </si>
+  <si>
+    <t>post(url, data)</t>
+  </si>
+  <si>
+    <t>email(address)</t>
+  </si>
+  <si>
+    <t>abort</t>
+  </si>
+  <si>
+    <t>getValue(key)</t>
+  </si>
+  <si>
+    <t>setValue(key, value)</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>clear results</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>cpuCount</t>
+  </si>
+  <si>
+    <t>freeMem</t>
+  </si>
+  <si>
+    <t>hostName</t>
+  </si>
+  <si>
+    <t>maxMem</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>totalMem</t>
+  </si>
+  <si>
+    <t>usedMem</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>exec</t>
+  </si>
+  <si>
+    <t>launch</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>JImage</t>
+  </si>
+  <si>
+    <t>DTable</t>
+  </si>
+  <si>
+    <t>sleep(ms)</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>parseBase64</t>
+  </si>
+  <si>
+    <t>encodeBase64</t>
+  </si>
+  <si>
+    <t>colorNames</t>
+  </si>
+  <si>
+    <t>digest</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>format printf</t>
+  </si>
+  <si>
+    <t>secureRandom</t>
+  </si>
+  <si>
+    <t>JImage(w, h)</t>
+  </si>
+  <si>
+    <t>JImage(w, h, alpha)</t>
+  </si>
+  <si>
+    <t>getWidth()</t>
+  </si>
+  <si>
+    <t>getHeight()</t>
+  </si>
+  <si>
+    <t>invert()</t>
+  </si>
+  <si>
+    <t>copy()</t>
+  </si>
+  <si>
+    <t>scale(factor)</t>
+  </si>
+  <si>
+    <t>setColor(r,g,b)</t>
+  </si>
+  <si>
+    <t>setColor(r,g,b,a)</t>
+  </si>
+  <si>
+    <t>setColor(name or #rgb or #rrggbb, or #rrggbbaa)</t>
+  </si>
+  <si>
+    <t>setStroke</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>lineTo(x,y)</t>
+  </si>
+  <si>
+    <t>setDirection</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>lineToMark</t>
+  </si>
+  <si>
+    <t>fillRect(x,y,w,h)</t>
+  </si>
+  <si>
+    <t>DTable(columns...)</t>
+  </si>
+  <si>
+    <t>addColumn(name)</t>
+  </si>
+  <si>
+    <t>getColumnCount</t>
+  </si>
+  <si>
+    <t>setColumns(columns)</t>
+  </si>
+  <si>
+    <t>getColumnName(ix)</t>
+  </si>
+  <si>
+    <t>getRowCount</t>
+  </si>
+  <si>
+    <t>addRow(objects ...)</t>
+  </si>
+  <si>
+    <t>getValue(r,c)</t>
+  </si>
+  <si>
+    <t>getDataRow(row)</t>
+  </si>
+  <si>
+    <t>setValue(r,c,v)</t>
+  </si>
+  <si>
+    <t>byte buffer</t>
+  </si>
+  <si>
+    <t>html builder</t>
+  </si>
+  <si>
+    <t>view outline</t>
+  </si>
+  <si>
+    <t>jump cursor to error line</t>
+  </si>
+  <si>
+    <t>confirm dialog</t>
+  </si>
+  <si>
+    <t>connectors</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>file name</t>
+  </si>
+  <si>
+    <t>modified status</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>color coded types</t>
+  </si>
+  <si>
+    <t>multiple cell selection</t>
+  </si>
+  <si>
+    <t>bulk cell operations</t>
+  </si>
+  <si>
+    <t>Run in Debugger</t>
+  </si>
+  <si>
+    <t>parseDate</t>
+  </si>
+  <si>
+    <t>hslColor</t>
   </si>
 </sst>
 </file>
@@ -625,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -714,53 +1068,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -799,7 +1114,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958311"/>
+          <c:w val="0.91978071330958333"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -846,13 +1161,13 @@
                   <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,16 +1185,16 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,13 +1241,13 @@
                   <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,16 +1265,16 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,13 +1321,13 @@
                   <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,13 +1401,13 @@
                   <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,11 +1446,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120463360"/>
-        <c:axId val="120464896"/>
+        <c:axId val="120463744"/>
+        <c:axId val="120465280"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120463360"/>
+        <c:axId val="120463744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120464896"/>
+        <c:crossAx val="120465280"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1184,7 +1499,7 @@
         <c:minorTimeUnit val="years"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120464896"/>
+        <c:axId val="120465280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +1541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120463360"/>
+        <c:crossAx val="120463744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,7 +1669,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628735"/>
+          <c:y val="0.11628512537628739"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1419,13 +1734,13 @@
                   <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,26 +1758,26 @@
                   <c:v>0.61202185792349728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61202185792349728</c:v>
+                  <c:v>0.60194174757281549</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61202185792349728</c:v>
+                  <c:v>0.60586319218241047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61202185792349728</c:v>
+                  <c:v>0.60586319218241047</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61202185792349728</c:v>
+                  <c:v>0.60586319218241047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120488704"/>
-        <c:axId val="120490240"/>
+        <c:axId val="120489088"/>
+        <c:axId val="120490624"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120488704"/>
+        <c:axId val="120489088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,13 +1785,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120490240"/>
+        <c:crossAx val="120490624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120490240"/>
+        <c:axId val="120490624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1519,7 +1834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120488704"/>
+        <c:crossAx val="120489088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,13 +1948,13 @@
                   <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,16 +1972,16 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,13 +2028,13 @@
                   <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42011</c:v>
+                  <c:v>42012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,11 +2067,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120507008"/>
-        <c:axId val="120537472"/>
+        <c:axId val="120511488"/>
+        <c:axId val="120517376"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120507008"/>
+        <c:axId val="120511488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,7 +2079,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yy/m" sourceLinked="0"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120537472"/>
+        <c:crossAx val="120517376"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1772,7 +2087,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120537472"/>
+        <c:axId val="120517376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +2129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120507008"/>
+        <c:crossAx val="120511488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2321,10 +2636,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D376"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2367,38 +2682,58 @@
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>69</v>
+      <c r="B11" s="23" t="s">
+        <v>270</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2407,14 +2742,18 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="28" t="s">
-        <v>79</v>
+      <c r="B13" s="23" t="s">
+        <v>277</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -2423,28 +2762,20 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="21" t="s">
-        <v>71</v>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
@@ -2453,18 +2784,14 @@
     </row>
     <row r="17" spans="1:4" s="6" customFormat="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="21" t="s">
-        <v>73</v>
+      <c r="B18" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
@@ -2473,14 +2800,18 @@
     </row>
     <row r="19" spans="1:4" s="6" customFormat="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" s="6" customFormat="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="28" t="s">
-        <v>80</v>
+      <c r="B20" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>13</v>
@@ -2490,7 +2821,7 @@
     <row r="21" spans="1:4" s="6" customFormat="1">
       <c r="A21" s="4"/>
       <c r="B21" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>13</v>
@@ -2499,8 +2830,8 @@
     </row>
     <row r="22" spans="1:4" s="6" customFormat="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="21" t="s">
-        <v>75</v>
+      <c r="B22" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>13</v>
@@ -2510,7 +2841,7 @@
     <row r="23" spans="1:4" s="6" customFormat="1">
       <c r="A23" s="4"/>
       <c r="B23" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
@@ -2519,18 +2850,14 @@
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" s="6" customFormat="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="21" t="s">
-        <v>78</v>
+      <c r="B25" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>13</v>
@@ -2539,14 +2866,18 @@
     </row>
     <row r="26" spans="1:4" s="6" customFormat="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" s="6" customFormat="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="28" t="s">
-        <v>69</v>
+      <c r="B27" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>13</v>
@@ -2556,7 +2887,7 @@
     <row r="28" spans="1:4" s="6" customFormat="1">
       <c r="A28" s="4"/>
       <c r="B28" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
@@ -2566,7 +2897,7 @@
     <row r="29" spans="1:4" s="6" customFormat="1">
       <c r="A29" s="4"/>
       <c r="B29" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
@@ -2576,7 +2907,7 @@
     <row r="30" spans="1:4" s="6" customFormat="1">
       <c r="A30" s="4"/>
       <c r="B30" s="21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>13</v>
@@ -2585,177 +2916,174 @@
     </row>
     <row r="31" spans="1:4" s="6" customFormat="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="7"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" s="6" customFormat="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:4" s="6" customFormat="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" s="6" customFormat="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" s="6" customFormat="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" s="6" customFormat="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="6" customFormat="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" s="6" customFormat="1">
+      <c r="B38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="23"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" s="6" customFormat="1">
-      <c r="B35" s="9" t="s">
+      <c r="C38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" s="6" customFormat="1">
+      <c r="B39" s="23"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" s="6" customFormat="1">
+      <c r="B40" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" s="6" customFormat="1">
+      <c r="B41" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" s="6" customFormat="1">
+      <c r="B42" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" s="6" customFormat="1">
+      <c r="B43" s="21"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" s="6" customFormat="1">
+      <c r="B44" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="21" t="s">
+      <c r="C44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" s="6" customFormat="1">
+      <c r="B45" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="24" t="s">
+      <c r="C45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" s="6" customFormat="1">
+      <c r="B46" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="24" t="s">
+      <c r="C46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" s="6" customFormat="1">
+      <c r="B47" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="24" t="s">
+      <c r="C47" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" s="6" customFormat="1">
+      <c r="B48" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="24" t="s">
-        <v>92</v>
-      </c>
       <c r="C48" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
@@ -2764,16 +3092,16 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="24" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="24" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>1</v>
@@ -2782,7 +3110,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="24" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>1</v>
@@ -2791,7 +3119,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="24" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>1</v>
@@ -2799,8 +3127,8 @@
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="24" t="s">
-        <v>99</v>
+      <c r="B56" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>1</v>
@@ -2809,61 +3137,61 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="21" t="s">
-        <v>51</v>
+      <c r="B60" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="24" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="21" t="s">
-        <v>104</v>
+      <c r="B63" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>1</v>
@@ -2872,7 +3200,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>1</v>
@@ -2881,7 +3209,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>1</v>
@@ -2889,8 +3217,8 @@
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="21" t="s">
-        <v>107</v>
+      <c r="B66" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>1</v>
@@ -2899,7 +3227,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="24" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>1</v>
@@ -2908,7 +3236,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>1</v>
@@ -2916,35 +3244,35 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="24" t="s">
-        <v>110</v>
+      <c r="B69" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="24" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="24" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="24" t="s">
-        <v>114</v>
+      <c r="B72" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>1</v>
@@ -2953,7 +3281,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="24" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>1</v>
@@ -2962,7 +3290,7 @@
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="24" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>1</v>
@@ -2971,7 +3299,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="21" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>1</v>
@@ -2980,7 +3308,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="24" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>1</v>
@@ -2989,7 +3317,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="24" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>1</v>
@@ -2997,17 +3325,17 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="21" t="s">
-        <v>15</v>
+      <c r="B78" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="24" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
@@ -3016,7 +3344,7 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="24" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>1</v>
@@ -3025,7 +3353,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="24" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>1</v>
@@ -3034,7 +3362,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="24" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>1</v>
@@ -3043,7 +3371,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="24" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>1</v>
@@ -3052,7 +3380,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="24" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>1</v>
@@ -3060,13 +3388,17 @@
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="24"/>
-      <c r="C85" s="7"/>
+      <c r="B85" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="23" t="s">
-        <v>121</v>
+      <c r="B86" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>1</v>
@@ -3074,8 +3406,8 @@
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="21" t="s">
-        <v>88</v>
+      <c r="B87" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>1</v>
@@ -3083,26 +3415,26 @@
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="21" t="s">
-        <v>122</v>
+      <c r="B88" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="21" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="21" t="s">
-        <v>124</v>
+      <c r="B90" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
@@ -3110,8 +3442,8 @@
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="21" t="s">
-        <v>99</v>
+      <c r="B91" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>1</v>
@@ -3119,8 +3451,8 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="21" t="s">
-        <v>100</v>
+      <c r="B92" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>1</v>
@@ -3128,8 +3460,8 @@
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="21" t="s">
-        <v>125</v>
+      <c r="B93" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>1</v>
@@ -3137,8 +3469,8 @@
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="21" t="s">
-        <v>126</v>
+      <c r="B94" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>1</v>
@@ -3146,8 +3478,8 @@
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="21" t="s">
-        <v>127</v>
+      <c r="B95" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>1</v>
@@ -3155,17 +3487,13 @@
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B96" s="24"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="21" t="s">
-        <v>128</v>
+      <c r="B97" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>1</v>
@@ -3173,36 +3501,44 @@
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="B98" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
-      <c r="B99" s="45" t="s">
-        <v>129</v>
+      <c r="B99" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="21" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="21"/>
-      <c r="C101" s="7"/>
+      <c r="B101" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="23" t="s">
-        <v>56</v>
+      <c r="B102" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>1</v>
@@ -3211,7 +3547,7 @@
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="21" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>1</v>
@@ -3220,161 +3556,153 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="2:4" s="6" customFormat="1">
+      <c r="B105" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="2:4" s="6" customFormat="1">
+      <c r="B106" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="2:4" s="6" customFormat="1">
+      <c r="B107" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" s="6" customFormat="1">
+      <c r="B108" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="2:4" s="6" customFormat="1">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:4" s="6" customFormat="1">
+      <c r="B110" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="2:4" s="6" customFormat="1">
+      <c r="B111" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="2:4" s="6" customFormat="1">
+      <c r="B112" s="21"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="2:4" s="6" customFormat="1">
+      <c r="B113" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="2:4" s="6" customFormat="1">
+      <c r="B114" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="2:4" s="6" customFormat="1">
+      <c r="B115" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="21"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="23" t="s">
+      <c r="C115" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="2:4" s="6" customFormat="1">
+      <c r="B116" s="21"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="2:4" s="6" customFormat="1">
+      <c r="B117" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C117" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="23" t="s">
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="2:4" s="6" customFormat="1">
+      <c r="B118" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C118" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="21"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="28" t="s">
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="2:4" s="6" customFormat="1">
+      <c r="B119" s="21"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="2:4" s="6" customFormat="1">
+      <c r="B120" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="21" t="s">
+      <c r="C120" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="2:4" s="6" customFormat="1">
+      <c r="B121" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="24" t="s">
+      <c r="C121" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:4" s="6" customFormat="1">
+      <c r="B122" s="24" t="s">
         <v>135</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="21" t="s">
-        <v>138</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>1</v>
@@ -3383,7 +3711,7 @@
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="24" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>1</v>
@@ -3391,8 +3719,8 @@
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="21" t="s">
-        <v>136</v>
+      <c r="B124" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>1</v>
@@ -3400,17 +3728,17 @@
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="24" t="s">
-        <v>137</v>
+      <c r="B125" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="25" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>1</v>
@@ -3419,7 +3747,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="25" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1</v>
@@ -3427,8 +3755,8 @@
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="44" t="s">
-        <v>144</v>
+      <c r="B128" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>1</v>
@@ -3437,7 +3765,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="25" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>1</v>
@@ -3446,188 +3774,190 @@
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="2:4" s="6" customFormat="1">
+      <c r="B131" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="2:4" s="6" customFormat="1">
+      <c r="B132" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="2:4" s="6" customFormat="1">
+      <c r="B133" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="2:4" s="6" customFormat="1">
+      <c r="B134" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="2:4" s="6" customFormat="1">
+      <c r="B135" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="2:4" s="6" customFormat="1">
+      <c r="B136" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="2:4" s="6" customFormat="1">
+      <c r="B137" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" s="6" customFormat="1">
+      <c r="B138" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" s="6" customFormat="1">
+      <c r="B139" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" s="6" customFormat="1">
+      <c r="B140" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="2:4" s="6" customFormat="1">
+      <c r="B141" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="2:4" s="6" customFormat="1">
+      <c r="B142" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="2:4" s="6" customFormat="1">
+      <c r="B143" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="2:4" s="6" customFormat="1">
+      <c r="B144" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="2:4" s="6" customFormat="1">
+      <c r="B145" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="21"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="28" t="s">
+      <c r="C145" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="2:4" s="6" customFormat="1">
+      <c r="B146" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" s="6" customFormat="1">
+      <c r="B147" s="21"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="2:4" s="6" customFormat="1">
+      <c r="B148" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="21" t="s">
+      <c r="C148" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="2:4" s="6" customFormat="1">
+      <c r="B149" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="24" t="s">
+      <c r="C149" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="2:4" s="6" customFormat="1">
+      <c r="B150" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="24" t="s">
+      <c r="C150" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="2:4" s="6" customFormat="1">
+      <c r="B151" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="21"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>1</v>
@@ -3636,7 +3966,7 @@
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
       <c r="B152" s="25" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>1</v>
@@ -3645,7 +3975,7 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>1</v>
@@ -3654,7 +3984,7 @@
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
       <c r="B154" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>1</v>
@@ -3663,62 +3993,66 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="25" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="25" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="2:4" s="6" customFormat="1">
+      <c r="B158" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="2:4" s="6" customFormat="1">
+      <c r="B159" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="2:4" s="6" customFormat="1">
+      <c r="B160" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="23"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="21"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B161" s="21"/>
+      <c r="C161" s="7"/>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="21" t="s">
-        <v>149</v>
+      <c r="B162" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>1</v>
@@ -3727,7 +4061,7 @@
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
       <c r="B163" s="21" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>1</v>
@@ -3736,7 +4070,7 @@
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="24" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>1</v>
@@ -3745,7 +4079,7 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="24" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>1</v>
@@ -3754,7 +4088,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>1</v>
@@ -3762,8 +4096,8 @@
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="24" t="s">
-        <v>43</v>
+      <c r="B167" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>1</v>
@@ -3771,53 +4105,53 @@
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="21" t="s">
-        <v>150</v>
+      <c r="B168" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="24" t="s">
-        <v>32</v>
+      <c r="B169" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="25" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="25" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="24" t="s">
-        <v>134</v>
+      <c r="B172" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
       <c r="B173" s="25" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>13</v>
@@ -3825,8 +4159,8 @@
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="44" t="s">
-        <v>67</v>
+      <c r="B174" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>13</v>
@@ -3834,8 +4168,8 @@
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="44" t="s">
-        <v>153</v>
+      <c r="B175" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>13</v>
@@ -3843,134 +4177,118 @@
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B176" s="23"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B177" s="23"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="21" t="s">
-        <v>156</v>
+      <c r="B178" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="24" t="s">
-        <v>32</v>
+      <c r="B179" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="25" t="s">
-        <v>66</v>
+      <c r="B180" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="25" t="s">
-        <v>157</v>
+      <c r="B181" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="24" t="s">
-        <v>134</v>
+      <c r="B182" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="25" t="s">
-        <v>65</v>
+      <c r="B183" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="44" t="s">
-        <v>67</v>
+      <c r="B184" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="44" t="s">
-        <v>153</v>
+      <c r="B185" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="25" t="s">
-        <v>158</v>
+      <c r="B186" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="25" t="s">
-        <v>159</v>
+      <c r="B187" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B188" s="23"/>
+      <c r="C188" s="7"/>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B189" s="23"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="24" t="s">
-        <v>35</v>
+      <c r="B190" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>1</v>
@@ -3978,8 +4296,8 @@
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="24" t="s">
-        <v>36</v>
+      <c r="B191" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>1</v>
@@ -3987,22 +4305,18 @@
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20"/>
+      <c r="B192" s="23"/>
       <c r="C192" s="7"/>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B193" s="23"/>
+      <c r="C193" s="7"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="22" t="s">
-        <v>30</v>
+      <c r="B194" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>1</v>
@@ -4010,18 +4324,26 @@
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="21"/>
-      <c r="C195" s="7"/>
+      <c r="B195" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="21"/>
-      <c r="C196" s="7"/>
+      <c r="B196" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="3" t="s">
-        <v>58</v>
+      <c r="B197" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>13</v>
@@ -4030,7 +4352,7 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="23" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>13</v>
@@ -4039,44 +4361,52 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="23" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="23" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="23" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="23"/>
-      <c r="C202" s="7"/>
+      <c r="B202" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="23"/>
-      <c r="C203" s="7"/>
+      <c r="B203" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="3" t="s">
-        <v>62</v>
+      <c r="B204" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>1</v>
@@ -4085,7 +4415,7 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>1</v>
@@ -4094,165 +4424,1424 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="2:4" s="6" customFormat="1">
+      <c r="B207" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="2:4" s="6" customFormat="1">
+      <c r="B208" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="2:4" s="6" customFormat="1">
+      <c r="B209" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="2:4" s="6" customFormat="1">
+      <c r="B210" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="2:4" s="6" customFormat="1">
+      <c r="B211" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="2:4" s="6" customFormat="1">
+      <c r="B212" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="2:4" s="6" customFormat="1">
+      <c r="B213" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="2:4" s="6" customFormat="1">
+      <c r="B214" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="2:4" s="6" customFormat="1">
+      <c r="B215" s="23"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="2:4" s="6" customFormat="1">
+      <c r="B216" s="23"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="2:4" s="6" customFormat="1">
+      <c r="B217" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="2:4" s="6" customFormat="1">
+      <c r="B218" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="2:4" s="6" customFormat="1">
+      <c r="B219" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C219" s="7"/>
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="2:4" s="6" customFormat="1">
+      <c r="B220" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="2:4" s="6" customFormat="1">
+      <c r="B221" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" s="6" customFormat="1">
+      <c r="B222" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="2:4" s="6" customFormat="1">
+      <c r="B223" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="2:4" s="6" customFormat="1">
+      <c r="B224" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C224" s="7"/>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="2:4" s="6" customFormat="1">
+      <c r="B225" s="23"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="2:4" s="6" customFormat="1">
+      <c r="B226" s="23"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="2:4" s="6" customFormat="1">
+      <c r="B227" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="2:4" s="6" customFormat="1">
+      <c r="B228" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="2:4" s="6" customFormat="1">
+      <c r="B229" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="2:4" s="6" customFormat="1">
+      <c r="B230" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="2:4" s="6" customFormat="1">
+      <c r="B231" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="2:4" s="6" customFormat="1">
+      <c r="B232" s="23"/>
+      <c r="C232" s="7"/>
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="2:4" s="6" customFormat="1">
+      <c r="B233" s="23"/>
+      <c r="C233" s="7"/>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="2:4" s="6" customFormat="1">
+      <c r="B234" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="2:4" s="6" customFormat="1">
+      <c r="B235" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="2:4" s="6" customFormat="1">
+      <c r="B236" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" s="4"/>
+    </row>
+    <row r="237" spans="2:4" s="6" customFormat="1">
+      <c r="B237" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="2:4" s="6" customFormat="1">
+      <c r="B238" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="2:4" s="6" customFormat="1">
+      <c r="B239" s="23"/>
+      <c r="C239" s="7"/>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="2:4" s="6" customFormat="1">
+      <c r="B240" s="23"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="2:4" s="6" customFormat="1">
+      <c r="B241" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="2:4" s="6" customFormat="1">
+      <c r="B242" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="2:4" s="6" customFormat="1">
+      <c r="B243" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="2:4" s="6" customFormat="1">
+      <c r="B244" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" s="4"/>
+    </row>
+    <row r="245" spans="2:4" s="6" customFormat="1">
+      <c r="B245" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="2:4" s="6" customFormat="1">
+      <c r="B246" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="2:4" s="6" customFormat="1">
+      <c r="B247" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="2:4" s="6" customFormat="1">
+      <c r="B248" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="2:4" s="6" customFormat="1">
+      <c r="B249" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="2:4" s="6" customFormat="1">
+      <c r="B250" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="2:4" s="6" customFormat="1">
+      <c r="B251" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="2:4" s="6" customFormat="1">
+      <c r="B252" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="2:4" s="6" customFormat="1">
+      <c r="B253" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="2:4" s="6" customFormat="1">
+      <c r="B254" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254" s="4"/>
+    </row>
+    <row r="255" spans="2:4" s="6" customFormat="1">
+      <c r="B255" s="23"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="2:4" s="6" customFormat="1">
+      <c r="B256" s="23"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="2:4" s="6" customFormat="1">
+      <c r="B257" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="2:4" s="6" customFormat="1">
+      <c r="B258" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="2:4" s="6" customFormat="1">
+      <c r="B259" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="2:4" s="6" customFormat="1">
+      <c r="B260" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="2:4" s="6" customFormat="1">
+      <c r="B261" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D261" s="4"/>
+    </row>
+    <row r="262" spans="2:4" s="6" customFormat="1">
+      <c r="B262" s="23"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="4"/>
+    </row>
+    <row r="263" spans="2:4" s="6" customFormat="1">
+      <c r="B263" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="2:4" s="6" customFormat="1">
+      <c r="B264" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D264" s="4"/>
+    </row>
+    <row r="265" spans="2:4" s="6" customFormat="1">
+      <c r="B265" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="2:4" s="6" customFormat="1">
+      <c r="B266" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266" s="4"/>
+    </row>
+    <row r="267" spans="2:4" s="6" customFormat="1">
+      <c r="B267" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267" s="4"/>
+    </row>
+    <row r="268" spans="2:4" s="6" customFormat="1">
+      <c r="B268" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="2:4" s="6" customFormat="1">
+      <c r="B269" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="2:4" s="6" customFormat="1">
+      <c r="B270" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="2:4" s="6" customFormat="1">
+      <c r="B271" s="23"/>
+      <c r="C271" s="7"/>
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="2:4" s="6" customFormat="1">
+      <c r="B272" s="23"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="4"/>
+    </row>
+    <row r="273" spans="2:4" s="6" customFormat="1">
+      <c r="B273" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="2:4" s="6" customFormat="1">
+      <c r="B274" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D274" s="4"/>
+    </row>
+    <row r="275" spans="2:4" s="6" customFormat="1">
+      <c r="B275" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D275" s="4"/>
+    </row>
+    <row r="276" spans="2:4" s="6" customFormat="1">
+      <c r="B276" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="2:4" s="6" customFormat="1">
+      <c r="B277" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="2:4" s="6" customFormat="1">
+      <c r="B278" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="2:4" s="6" customFormat="1">
+      <c r="B279" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D279" s="4"/>
+    </row>
+    <row r="280" spans="2:4" s="6" customFormat="1">
+      <c r="B280" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="2:4" s="6" customFormat="1">
+      <c r="B281" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="2:4" s="6" customFormat="1">
+      <c r="B282" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="2:4" s="6" customFormat="1">
+      <c r="B283" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="2:4" s="6" customFormat="1">
+      <c r="B284" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="2:4" s="6" customFormat="1">
+      <c r="B285" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="2:4" s="6" customFormat="1">
+      <c r="B286" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="2:4" s="6" customFormat="1">
+      <c r="B287" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D287" s="4"/>
+    </row>
+    <row r="288" spans="2:4" s="6" customFormat="1">
+      <c r="B288" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="2:4" s="6" customFormat="1">
+      <c r="B289" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D289" s="4"/>
+    </row>
+    <row r="290" spans="2:4" s="6" customFormat="1">
+      <c r="B290" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290" s="4"/>
+    </row>
+    <row r="291" spans="2:4" s="6" customFormat="1">
+      <c r="B291" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291" s="4"/>
+    </row>
+    <row r="292" spans="2:4" s="6" customFormat="1">
+      <c r="B292" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D292" s="4"/>
+    </row>
+    <row r="293" spans="2:4" s="6" customFormat="1">
+      <c r="B293" s="23"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="2:4" s="6" customFormat="1">
+      <c r="B294" s="23"/>
+      <c r="C294" s="7"/>
+      <c r="D294" s="4"/>
+    </row>
+    <row r="295" spans="2:4" s="6" customFormat="1">
+      <c r="B295" s="23"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="2:4" s="6" customFormat="1">
+      <c r="B296" s="23"/>
+      <c r="C296" s="7"/>
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="2:4" s="6" customFormat="1">
+      <c r="B297" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D297" s="4"/>
+    </row>
+    <row r="298" spans="2:4" s="6" customFormat="1">
+      <c r="B298" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D298" s="4"/>
+    </row>
+    <row r="299" spans="2:4" s="6" customFormat="1">
+      <c r="B299" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D299" s="4"/>
+    </row>
+    <row r="300" spans="2:4" s="6" customFormat="1">
+      <c r="B300" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D300" s="4"/>
+    </row>
+    <row r="301" spans="2:4" s="6" customFormat="1">
+      <c r="B301" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D301" s="4"/>
+    </row>
+    <row r="302" spans="2:4" s="6" customFormat="1">
+      <c r="B302" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D302" s="4"/>
+    </row>
+    <row r="303" spans="2:4" s="6" customFormat="1">
+      <c r="B303" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303" s="4"/>
+    </row>
+    <row r="304" spans="2:4" s="6" customFormat="1">
+      <c r="B304" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D304" s="4"/>
+    </row>
+    <row r="305" spans="2:4" s="6" customFormat="1">
+      <c r="B305" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D305" s="4"/>
+    </row>
+    <row r="306" spans="2:4" s="6" customFormat="1">
+      <c r="B306" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D306" s="4"/>
+    </row>
+    <row r="307" spans="2:4" s="6" customFormat="1">
+      <c r="B307" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D307" s="4"/>
+    </row>
+    <row r="308" spans="2:4" s="6" customFormat="1">
+      <c r="B308" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D308" s="4"/>
+    </row>
+    <row r="309" spans="2:4" s="6" customFormat="1">
+      <c r="B309" s="23"/>
+      <c r="C309" s="7"/>
+      <c r="D309" s="4"/>
+    </row>
+    <row r="310" spans="2:4" s="6" customFormat="1">
+      <c r="B310" s="21"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="2:4" s="6" customFormat="1">
+      <c r="B311" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D311" s="4"/>
+    </row>
+    <row r="312" spans="2:4" s="6" customFormat="1">
+      <c r="B312" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D312" s="4"/>
+    </row>
+    <row r="313" spans="2:4" s="6" customFormat="1">
+      <c r="B313" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313" s="4"/>
+    </row>
+    <row r="314" spans="2:4" s="6" customFormat="1">
+      <c r="B314" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D314" s="4"/>
+    </row>
+    <row r="315" spans="2:4" s="6" customFormat="1">
+      <c r="B315" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D315" s="4"/>
+    </row>
+    <row r="316" spans="2:4" s="6" customFormat="1">
+      <c r="B316" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D316" s="4"/>
+    </row>
+    <row r="317" spans="2:4" s="6" customFormat="1">
+      <c r="B317" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D317" s="4"/>
+    </row>
+    <row r="318" spans="2:4" s="6" customFormat="1">
+      <c r="B318" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D318" s="4"/>
+    </row>
+    <row r="319" spans="2:4" s="6" customFormat="1">
+      <c r="B319" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D319" s="4"/>
+    </row>
+    <row r="320" spans="2:4" s="6" customFormat="1">
+      <c r="B320" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D320" s="4"/>
+    </row>
+    <row r="321" spans="2:4" s="6" customFormat="1">
+      <c r="B321" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D321" s="4"/>
+    </row>
+    <row r="322" spans="2:4" s="6" customFormat="1">
+      <c r="B322" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" s="4"/>
+    </row>
+    <row r="323" spans="2:4" s="6" customFormat="1">
+      <c r="B323" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D323" s="4"/>
+    </row>
+    <row r="324" spans="2:4" s="6" customFormat="1">
+      <c r="B324" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" s="4"/>
+    </row>
+    <row r="325" spans="2:4" s="6" customFormat="1">
+      <c r="B325" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325" s="4"/>
+    </row>
+    <row r="326" spans="2:4" s="6" customFormat="1">
+      <c r="B326" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326" s="4"/>
+    </row>
+    <row r="327" spans="2:4" s="6" customFormat="1">
+      <c r="B327" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D327" s="4"/>
+    </row>
+    <row r="328" spans="2:4" s="6" customFormat="1">
+      <c r="B328" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" s="4"/>
+    </row>
+    <row r="329" spans="2:4" s="6" customFormat="1">
+      <c r="B329" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329" s="4"/>
+    </row>
+    <row r="330" spans="2:4" s="6" customFormat="1">
+      <c r="B330" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" s="4"/>
+    </row>
+    <row r="331" spans="2:4" s="6" customFormat="1">
+      <c r="B331" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D331" s="4"/>
+    </row>
+    <row r="332" spans="2:4" s="6" customFormat="1">
+      <c r="B332" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D332" s="4"/>
+    </row>
+    <row r="333" spans="2:4" s="6" customFormat="1">
+      <c r="B333" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="2:4" s="6" customFormat="1">
+      <c r="B334" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" s="4"/>
+    </row>
+    <row r="335" spans="2:4" s="6" customFormat="1">
+      <c r="B335" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D335" s="4"/>
+    </row>
+    <row r="336" spans="2:4" s="6" customFormat="1">
+      <c r="B336" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D336" s="4"/>
+    </row>
+    <row r="337" spans="2:4" s="6" customFormat="1">
+      <c r="B337" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="2:4" s="6" customFormat="1">
+      <c r="B338" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="2:4" s="6" customFormat="1">
+      <c r="B339" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D339" s="4"/>
+    </row>
+    <row r="340" spans="2:4" s="6" customFormat="1">
+      <c r="B340" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D340" s="4"/>
+    </row>
+    <row r="341" spans="2:4" s="6" customFormat="1">
+      <c r="B341" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D341" s="4"/>
+    </row>
+    <row r="342" spans="2:4" s="6" customFormat="1">
+      <c r="B342" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D342" s="4"/>
+    </row>
+    <row r="343" spans="2:4" s="6" customFormat="1">
+      <c r="B343" s="20"/>
+      <c r="C343" s="7"/>
+      <c r="D343" s="4"/>
+    </row>
+    <row r="344" spans="2:4" s="6" customFormat="1">
+      <c r="B344" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="2:4" s="6" customFormat="1">
+      <c r="B345" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="21"/>
+      <c r="C346" s="7"/>
+      <c r="D346" s="4"/>
+    </row>
+    <row r="347" spans="2:4" s="6" customFormat="1">
+      <c r="B347" s="21"/>
+      <c r="C347" s="7"/>
+      <c r="D347" s="4"/>
+    </row>
+    <row r="348" spans="2:4" s="6" customFormat="1">
+      <c r="B348" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348" s="4"/>
+    </row>
+    <row r="349" spans="2:4" s="6" customFormat="1">
+      <c r="B349" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:4" s="6" customFormat="1">
+      <c r="B350" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="2:4" s="6" customFormat="1">
+      <c r="B351" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="2:4" s="6" customFormat="1">
+      <c r="B352" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="2:4" s="6" customFormat="1">
+      <c r="B353" s="23"/>
+      <c r="C353" s="7"/>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="23"/>
+      <c r="C354" s="7"/>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="2:4" s="6" customFormat="1">
+      <c r="B355" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="2:4" s="6" customFormat="1">
+      <c r="B357" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C206" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D206" s="4"/>
-    </row>
-    <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="22"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-    </row>
-    <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="20"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
-    </row>
-    <row r="209" spans="1:4" s="6" customFormat="1">
-      <c r="B209" s="3" t="s">
+      <c r="C357" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="2:4" s="6" customFormat="1">
+      <c r="B358" s="22"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="20"/>
+      <c r="C359" s="4"/>
+      <c r="D359" s="4"/>
+    </row>
+    <row r="360" spans="2:4" s="6" customFormat="1">
+      <c r="B360" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C209" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D209" s="4"/>
-    </row>
-    <row r="210" spans="1:4" s="6" customFormat="1">
-      <c r="B210" s="22" t="s">
+      <c r="C360" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D360" s="4"/>
+    </row>
+    <row r="361" spans="2:4" s="6" customFormat="1">
+      <c r="B361" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C210" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D210" s="4"/>
-    </row>
-    <row r="211" spans="1:4" s="6" customFormat="1">
-      <c r="B211" s="23" t="s">
+      <c r="C361" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="2:4" s="6" customFormat="1">
+      <c r="B362" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C211" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D211" s="4"/>
-    </row>
-    <row r="212" spans="1:4" s="6" customFormat="1">
-      <c r="B212" s="23"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="1:4" s="6" customFormat="1">
-      <c r="B213" s="20"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-    </row>
-    <row r="214" spans="1:4" s="6" customFormat="1">
-      <c r="B214" s="3" t="s">
+      <c r="C362" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D362" s="4"/>
+    </row>
+    <row r="363" spans="2:4" s="6" customFormat="1">
+      <c r="B363" s="23"/>
+      <c r="C363" s="9"/>
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="2:4" s="6" customFormat="1">
+      <c r="B364" s="20"/>
+      <c r="C364" s="4"/>
+      <c r="D364" s="4"/>
+    </row>
+    <row r="365" spans="2:4" s="6" customFormat="1">
+      <c r="B365" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C365" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D214" s="4"/>
-    </row>
-    <row r="215" spans="1:4" s="6" customFormat="1">
-      <c r="B215" s="22" t="s">
+      <c r="D365" s="4"/>
+    </row>
+    <row r="366" spans="2:4" s="6" customFormat="1">
+      <c r="B366" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C366" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D215" s="4"/>
-    </row>
-    <row r="216" spans="1:4" s="6" customFormat="1">
-      <c r="B216" s="22" t="s">
+      <c r="D366" s="4"/>
+    </row>
+    <row r="367" spans="2:4" s="6" customFormat="1">
+      <c r="B367" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C367" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D216" s="4"/>
-    </row>
-    <row r="217" spans="1:4" s="6" customFormat="1">
-      <c r="B217" s="22" t="s">
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="2:4" s="6" customFormat="1">
+      <c r="B368" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C368" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D217" s="4"/>
-    </row>
-    <row r="218" spans="1:4" s="6" customFormat="1">
-      <c r="B218" s="22"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-    </row>
-    <row r="219" spans="1:4" s="6" customFormat="1">
-      <c r="B219" s="22"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="2"/>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="B221" s="8" t="s">
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="1:4" s="6" customFormat="1">
+      <c r="B369" s="22"/>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="1:4" s="6" customFormat="1">
+      <c r="B370" s="22"/>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="11"/>
+      <c r="B371" s="11"/>
+      <c r="C371" s="11"/>
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="B372" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C221" s="6">
-        <f>COUNTIF(C5:C220,"y")</f>
-        <v>112</v>
-      </c>
-      <c r="D221" s="2"/>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="B222" s="8" t="s">
+      <c r="C372" s="6">
+        <f>COUNTIF(C5:C371,"y")</f>
+        <v>187</v>
+      </c>
+      <c r="D372" s="2"/>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="B373" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C222" s="6">
-        <f>COUNTIF(C5:C220,"n")</f>
-        <v>71</v>
-      </c>
-      <c r="D222" s="2"/>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="B223" s="8" t="s">
+      <c r="C373" s="6">
+        <f>COUNTIF(C5:C371,"n")</f>
+        <v>123</v>
+      </c>
+      <c r="D373" s="2"/>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="B374" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C223" s="7">
-        <f>COUNTIF(C5:C220,"TBD")</f>
+      <c r="C374" s="7">
+        <f>COUNTIF(C5:C371,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D223" s="2"/>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="B224" s="8" t="s">
+      <c r="D374" s="2"/>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="B375" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C224">
-        <f>SUM(C221:C223)</f>
-        <v>183</v>
-      </c>
-      <c r="D224" s="2"/>
-    </row>
-    <row r="225" spans="2:4" ht="18">
-      <c r="B225" s="10"/>
-      <c r="C225" s="10" t="s">
+      <c r="C375">
+        <f>SUM(C372:C374)</f>
+        <v>310</v>
+      </c>
+      <c r="D375" s="2"/>
+    </row>
+    <row r="376" spans="1:4" ht="18">
+      <c r="B376" s="10"/>
+      <c r="C376" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D225" s="42">
-        <f>C221/(C222+C221 + C223)</f>
-        <v>0.61202185792349728</v>
+      <c r="D376" s="42">
+        <f>C372/(C373+C372 + C374)</f>
+        <v>0.60322580645161294</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C65181">
+  <conditionalFormatting sqref="C1:C3 C6:C65332">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -4276,10 +5865,10 @@
   </sheetPr>
   <dimension ref="A1:IT867"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4568,10 +6157,10 @@
         <v>42012</v>
       </c>
       <c r="B50" s="4">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="C50" s="4">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -4584,19 +6173,19 @@
       </c>
       <c r="G50" s="31">
         <f t="shared" ref="G50:G53" si="1">B50/SUM(B50:E50)</f>
-        <v>0.61202185792349728</v>
+        <v>0.60194174757281549</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="12">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="B51" s="4">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="C51" s="4">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -4605,23 +6194,23 @@
         <v>0</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G51" s="31">
         <f t="shared" ref="G51:G52" si="2">B51/SUM(B51:E51)</f>
-        <v>0.61202185792349728</v>
+        <v>0.60586319218241047</v>
       </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="12">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="B52" s="4">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="C52" s="4">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -4630,23 +6219,23 @@
         <v>0</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G52" s="31">
         <f t="shared" si="2"/>
-        <v>0.61202185792349728</v>
+        <v>0.60586319218241047</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="12">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="B53" s="4">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="C53" s="4">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -4655,11 +6244,11 @@
         <v>0</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G53" s="31">
         <f t="shared" si="1"/>
-        <v>0.61202185792349728</v>
+        <v>0.60586319218241047</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -4704,25 +6293,25 @@
       </c>
       <c r="G56" s="39">
         <f>MIN(G53)</f>
-        <v>0.61202185792349728</v>
+        <v>0.60586319218241047</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="40">
         <f>SUM(B57:D57)</f>
-        <v>183</v>
+        <v>310</v>
       </c>
       <c r="B57" s="16">
-        <f>Features!C221</f>
-        <v>112</v>
+        <f>Features!C372</f>
+        <v>187</v>
       </c>
       <c r="C57" s="17">
-        <f>Features!C222</f>
-        <v>71</v>
+        <f>Features!C373</f>
+        <v>123</v>
       </c>
       <c r="D57" s="18">
-        <f>Features!C223</f>
+        <f>Features!C374</f>
         <v>0</v>
       </c>
       <c r="E57" s="19">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="281">
   <si>
     <t>Feature</t>
   </si>
@@ -1185,16 +1185,16 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>186</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>186</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>186</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,16 +1265,16 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,16 +1758,16 @@
                   <c:v>0.61202185792349728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60194174757281549</c:v>
+                  <c:v>0.60256410256410253</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60586319218241047</c:v>
+                  <c:v>0.60256410256410253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60586319218241047</c:v>
+                  <c:v>0.60256410256410253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60586319218241047</c:v>
+                  <c:v>0.60256410256410253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,16 +1972,16 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,10 +2636,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D376"/>
+  <dimension ref="A1:D374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C259" sqref="C259"/>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="A293" sqref="A293:XFD294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -4535,7 +4535,9 @@
       <c r="B219" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C219" s="7"/>
+      <c r="C219" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
@@ -4578,7 +4580,9 @@
       <c r="B224" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C224" s="7"/>
+      <c r="C224" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
@@ -4814,7 +4818,7 @@
         <v>222</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D253" s="4"/>
     </row>
@@ -5160,54 +5164,62 @@
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="23"/>
-      <c r="C295" s="7"/>
+      <c r="B295" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="23"/>
-      <c r="C296" s="7"/>
+      <c r="B296" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="3" t="s">
-        <v>224</v>
+      <c r="B297" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="23" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
       <c r="B299" s="23" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
       <c r="B300" s="23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
       <c r="B301" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>1</v>
@@ -5216,7 +5228,7 @@
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
       <c r="B302" s="23" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>1</v>
@@ -5225,7 +5237,7 @@
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
       <c r="B303" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>1</v>
@@ -5234,7 +5246,7 @@
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
       <c r="B304" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>1</v>
@@ -5243,7 +5255,7 @@
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>1</v>
@@ -5252,7 +5264,7 @@
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="23" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>1</v>
@@ -5260,36 +5272,36 @@
       <c r="D306" s="4"/>
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
-      <c r="B307" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B307" s="23"/>
+      <c r="C307" s="7"/>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B308" s="21"/>
+      <c r="C308" s="7"/>
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="23"/>
-      <c r="C309" s="7"/>
+      <c r="B309" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
-      <c r="B310" s="21"/>
-      <c r="C310" s="7"/>
+      <c r="B310" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="3" t="s">
-        <v>34</v>
+      <c r="B311" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>1</v>
@@ -5297,8 +5309,8 @@
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="23" t="s">
-        <v>148</v>
+      <c r="B312" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>1</v>
@@ -5306,8 +5318,8 @@
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="21" t="s">
-        <v>149</v>
+      <c r="B313" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>1</v>
@@ -5315,8 +5327,8 @@
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
-      <c r="B314" s="21" t="s">
-        <v>27</v>
+      <c r="B314" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>1</v>
@@ -5325,7 +5337,7 @@
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
       <c r="B315" s="24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>1</v>
@@ -5334,7 +5346,7 @@
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
       <c r="B316" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>1</v>
@@ -5342,26 +5354,26 @@
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="24" t="s">
-        <v>45</v>
+      <c r="B317" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="24" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="21" t="s">
-        <v>150</v>
+      <c r="B319" s="25" t="s">
+        <v>151</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>13</v>
@@ -5369,8 +5381,8 @@
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
-      <c r="B320" s="24" t="s">
-        <v>32</v>
+      <c r="B320" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>13</v>
@@ -5378,8 +5390,8 @@
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="25" t="s">
-        <v>151</v>
+      <c r="B321" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>13</v>
@@ -5388,7 +5400,7 @@
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
       <c r="B322" s="25" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>13</v>
@@ -5396,8 +5408,8 @@
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="24" t="s">
-        <v>134</v>
+      <c r="B323" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>13</v>
@@ -5405,8 +5417,8 @@
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="25" t="s">
-        <v>65</v>
+      <c r="B324" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>13</v>
@@ -5414,8 +5426,8 @@
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="44" t="s">
-        <v>67</v>
+      <c r="B325" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>13</v>
@@ -5423,8 +5435,8 @@
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="44" t="s">
-        <v>153</v>
+      <c r="B326" s="25" t="s">
+        <v>154</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>13</v>
@@ -5432,8 +5444,8 @@
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="25" t="s">
-        <v>155</v>
+      <c r="B327" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>13</v>
@@ -5441,8 +5453,8 @@
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="25" t="s">
-        <v>154</v>
+      <c r="B328" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>13</v>
@@ -5450,8 +5462,8 @@
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="21" t="s">
-        <v>156</v>
+      <c r="B329" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>13</v>
@@ -5459,8 +5471,8 @@
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="24" t="s">
-        <v>32</v>
+      <c r="B330" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>13</v>
@@ -5468,8 +5480,8 @@
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="25" t="s">
-        <v>66</v>
+      <c r="B331" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>13</v>
@@ -5478,7 +5490,7 @@
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
       <c r="B332" s="25" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>13</v>
@@ -5486,8 +5498,8 @@
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="24" t="s">
-        <v>134</v>
+      <c r="B333" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>13</v>
@@ -5495,8 +5507,8 @@
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="25" t="s">
-        <v>65</v>
+      <c r="B334" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>13</v>
@@ -5504,8 +5516,8 @@
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="44" t="s">
-        <v>67</v>
+      <c r="B335" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>13</v>
@@ -5513,8 +5525,8 @@
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="44" t="s">
-        <v>153</v>
+      <c r="B336" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>13</v>
@@ -5523,7 +5535,7 @@
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
       <c r="B337" s="25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>13</v>
@@ -5531,86 +5543,86 @@
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="25" t="s">
-        <v>159</v>
+      <c r="B338" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="C338" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="2:4" s="6" customFormat="1">
+      <c r="B339" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D339" s="4"/>
+    </row>
+    <row r="340" spans="2:4" s="6" customFormat="1">
+      <c r="B340" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D340" s="4"/>
+    </row>
+    <row r="341" spans="2:4" s="6" customFormat="1">
+      <c r="B341" s="20"/>
+      <c r="C341" s="7"/>
+      <c r="D341" s="4"/>
+    </row>
+    <row r="342" spans="2:4" s="6" customFormat="1">
+      <c r="B342" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D342" s="4"/>
+    </row>
+    <row r="343" spans="2:4" s="6" customFormat="1">
+      <c r="B343" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D343" s="4"/>
+    </row>
+    <row r="344" spans="2:4" s="6" customFormat="1">
+      <c r="B344" s="21"/>
+      <c r="C344" s="7"/>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="2:4" s="6" customFormat="1">
+      <c r="B345" s="21"/>
+      <c r="C345" s="7"/>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C346" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D338" s="4"/>
-    </row>
-    <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C339" s="7" t="s">
+      <c r="D346" s="4"/>
+    </row>
+    <row r="347" spans="2:4" s="6" customFormat="1">
+      <c r="B347" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C347" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D339" s="4"/>
-    </row>
-    <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D340" s="4"/>
-    </row>
-    <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D341" s="4"/>
-    </row>
-    <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D342" s="4"/>
-    </row>
-    <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="20"/>
-      <c r="C343" s="7"/>
-      <c r="D343" s="4"/>
-    </row>
-    <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C344" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D344" s="4"/>
-    </row>
-    <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="21"/>
-      <c r="C346" s="7"/>
-      <c r="D346" s="4"/>
-    </row>
-    <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="21"/>
-      <c r="C347" s="7"/>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="3" t="s">
-        <v>58</v>
+      <c r="B348" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>13</v>
@@ -5619,7 +5631,7 @@
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
       <c r="B349" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>13</v>
@@ -5628,7 +5640,7 @@
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
       <c r="B350" s="23" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>13</v>
@@ -5636,110 +5648,110 @@
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C351" s="7" t="s">
+      <c r="B351" s="23"/>
+      <c r="C351" s="7"/>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="2:4" s="6" customFormat="1">
+      <c r="B352" s="23"/>
+      <c r="C352" s="7"/>
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="2:4" s="6" customFormat="1">
+      <c r="B353" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="2:4" s="6" customFormat="1">
+      <c r="B355" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="22"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="2:4" s="6" customFormat="1">
+      <c r="B357" s="20"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="2:4" s="6" customFormat="1">
+      <c r="B358" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D359" s="4"/>
+    </row>
+    <row r="360" spans="2:4" s="6" customFormat="1">
+      <c r="B360" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D360" s="4"/>
+    </row>
+    <row r="361" spans="2:4" s="6" customFormat="1">
+      <c r="B361" s="23"/>
+      <c r="C361" s="9"/>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="2:4" s="6" customFormat="1">
+      <c r="B362" s="20"/>
+      <c r="C362" s="4"/>
+      <c r="D362" s="4"/>
+    </row>
+    <row r="363" spans="2:4" s="6" customFormat="1">
+      <c r="B363" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C363" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D351" s="4"/>
-    </row>
-    <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C352" s="7" t="s">
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="2:4" s="6" customFormat="1">
+      <c r="B364" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C364" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D352" s="4"/>
-    </row>
-    <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="23"/>
-      <c r="C353" s="7"/>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="23"/>
-      <c r="C354" s="7"/>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D356" s="4"/>
-    </row>
-    <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22"/>
-      <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="20"/>
-      <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D360" s="4"/>
-    </row>
-    <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D362" s="4"/>
-    </row>
-    <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="23"/>
-      <c r="C363" s="9"/>
-      <c r="D363" s="4"/>
-    </row>
-    <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="20"/>
-      <c r="C364" s="4"/>
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="3" t="s">
-        <v>33</v>
+      <c r="B365" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>13</v>
@@ -5748,7 +5760,7 @@
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
       <c r="B366" s="22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>13</v>
@@ -5756,92 +5768,74 @@
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B367" s="22"/>
+      <c r="C367" s="4"/>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C368" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B368" s="22"/>
+      <c r="C368" s="4"/>
       <c r="D368" s="4"/>
     </row>
-    <row r="369" spans="1:4" s="6" customFormat="1">
-      <c r="B369" s="22"/>
-      <c r="C369" s="4"/>
-      <c r="D369" s="4"/>
-    </row>
-    <row r="370" spans="1:4" s="6" customFormat="1">
-      <c r="B370" s="22"/>
-      <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
+    <row r="369" spans="1:4">
+      <c r="A369" s="11"/>
+      <c r="B369" s="11"/>
+      <c r="C369" s="11"/>
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="B370" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" s="6">
+        <f>COUNTIF(C5:C369,"y")</f>
+        <v>188</v>
+      </c>
+      <c r="D370" s="2"/>
     </row>
     <row r="371" spans="1:4">
-      <c r="A371" s="11"/>
-      <c r="B371" s="11"/>
-      <c r="C371" s="11"/>
+      <c r="B371" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371" s="6">
+        <f>COUNTIF(C5:C369,"n")</f>
+        <v>124</v>
+      </c>
       <c r="D371" s="2"/>
     </row>
     <row r="372" spans="1:4">
       <c r="B372" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C372" s="6">
-        <f>COUNTIF(C5:C371,"y")</f>
-        <v>187</v>
+        <v>2</v>
+      </c>
+      <c r="C372" s="7">
+        <f>COUNTIF(C5:C369,"TBD")</f>
+        <v>0</v>
       </c>
       <c r="D372" s="2"/>
     </row>
     <row r="373" spans="1:4">
       <c r="B373" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C373" s="6">
-        <f>COUNTIF(C5:C371,"n")</f>
-        <v>123</v>
+        <v>3</v>
+      </c>
+      <c r="C373">
+        <f>SUM(C370:C372)</f>
+        <v>312</v>
       </c>
       <c r="D373" s="2"/>
     </row>
-    <row r="374" spans="1:4">
-      <c r="B374" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C374" s="7">
-        <f>COUNTIF(C5:C371,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D374" s="2"/>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="B375" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C375">
-        <f>SUM(C372:C374)</f>
-        <v>310</v>
-      </c>
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376" spans="1:4" ht="18">
-      <c r="B376" s="10"/>
-      <c r="C376" s="10" t="s">
+    <row r="374" spans="1:4" ht="18">
+      <c r="B374" s="10"/>
+      <c r="C374" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D376" s="42">
-        <f>C372/(C373+C372 + C374)</f>
-        <v>0.60322580645161294</v>
+      <c r="D374" s="42">
+        <f>C370/(C371+C370 + C372)</f>
+        <v>0.60256410256410253</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C65332">
+  <conditionalFormatting sqref="C1:C3 C6:C65330">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5865,10 +5859,10 @@
   </sheetPr>
   <dimension ref="A1:IT867"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C51:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6157,10 +6151,10 @@
         <v>42012</v>
       </c>
       <c r="B50" s="4">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C50" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -6173,7 +6167,7 @@
       </c>
       <c r="G50" s="31">
         <f t="shared" ref="G50:G53" si="1">B50/SUM(B50:E50)</f>
-        <v>0.60194174757281549</v>
+        <v>0.60256410256410253</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -6182,10 +6176,10 @@
         <v>42012</v>
       </c>
       <c r="B51" s="4">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C51" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -6198,7 +6192,7 @@
       </c>
       <c r="G51" s="31">
         <f t="shared" ref="G51:G52" si="2">B51/SUM(B51:E51)</f>
-        <v>0.60586319218241047</v>
+        <v>0.60256410256410253</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -6207,10 +6201,10 @@
         <v>42012</v>
       </c>
       <c r="B52" s="4">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C52" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -6223,7 +6217,7 @@
       </c>
       <c r="G52" s="31">
         <f t="shared" si="2"/>
-        <v>0.60586319218241047</v>
+        <v>0.60256410256410253</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -6232,10 +6226,10 @@
         <v>42012</v>
       </c>
       <c r="B53" s="4">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C53" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -6248,7 +6242,7 @@
       </c>
       <c r="G53" s="31">
         <f t="shared" si="1"/>
-        <v>0.60586319218241047</v>
+        <v>0.60256410256410253</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -6293,25 +6287,25 @@
       </c>
       <c r="G56" s="39">
         <f>MIN(G53)</f>
-        <v>0.60586319218241047</v>
+        <v>0.60256410256410253</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="40">
         <f>SUM(B57:D57)</f>
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B57" s="16">
+        <f>Features!C370</f>
+        <v>188</v>
+      </c>
+      <c r="C57" s="17">
+        <f>Features!C371</f>
+        <v>124</v>
+      </c>
+      <c r="D57" s="18">
         <f>Features!C372</f>
-        <v>187</v>
-      </c>
-      <c r="C57" s="17">
-        <f>Features!C373</f>
-        <v>123</v>
-      </c>
-      <c r="D57" s="18">
-        <f>Features!C374</f>
         <v>0</v>
       </c>
       <c r="E57" s="19">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -266,9 +266,6 @@
     <t>Backup Key button</t>
   </si>
   <si>
-    <t>Research Notebook</t>
-  </si>
-  <si>
     <t>Research Notebook Feature Matrix</t>
   </si>
   <si>
@@ -861,6 +858,9 @@
   </si>
   <si>
     <t>hslColor</t>
+  </si>
+  <si>
+    <t>RNotebook</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958333"/>
+          <c:w val="0.91978071330958355"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1158,16 +1158,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,16 +1238,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,16 +1318,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,16 +1398,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,11 +1446,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120463744"/>
-        <c:axId val="120465280"/>
+        <c:axId val="120463360"/>
+        <c:axId val="120464896"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120463744"/>
+        <c:axId val="120463360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,7 +1489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120465280"/>
+        <c:crossAx val="120464896"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1499,7 +1499,7 @@
         <c:minorTimeUnit val="years"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120465280"/>
+        <c:axId val="120464896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120463744"/>
+        <c:crossAx val="120463360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,7 +1669,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628739"/>
+          <c:y val="0.11628512537628742"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1731,16 +1731,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,11 +1773,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120489088"/>
-        <c:axId val="120490624"/>
+        <c:axId val="120488704"/>
+        <c:axId val="120490240"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120489088"/>
+        <c:axId val="120488704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,13 +1785,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120490624"/>
+        <c:crossAx val="120490240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120490624"/>
+        <c:axId val="120490240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1834,7 +1834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120489088"/>
+        <c:crossAx val="120488704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1945,16 +1945,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,16 +2025,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42012</c:v>
+                  <c:v>42013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,11 +2067,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120511488"/>
-        <c:axId val="120517376"/>
+        <c:axId val="120511104"/>
+        <c:axId val="120537472"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120511488"/>
+        <c:axId val="120511104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2079,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yy/m" sourceLinked="0"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120517376"/>
+        <c:crossAx val="120537472"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -2087,7 +2087,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120517376"/>
+        <c:axId val="120537472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120511488"/>
+        <c:crossAx val="120511104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2652,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="41"/>
     </row>
@@ -2683,7 +2683,7 @@
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="4"/>
       <c r="B6" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>13</v>
@@ -2693,7 +2693,7 @@
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="4"/>
       <c r="B7" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -2703,7 +2703,7 @@
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="4"/>
       <c r="B8" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -2713,7 +2713,7 @@
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="4"/>
       <c r="B9" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -2723,7 +2723,7 @@
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="4"/>
       <c r="B10" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -2733,7 +2733,7 @@
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2743,7 +2743,7 @@
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="A12" s="4"/>
       <c r="B12" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -2753,7 +2753,7 @@
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -2953,7 +2953,7 @@
     <row r="35" spans="1:4" s="6" customFormat="1">
       <c r="A35" s="4"/>
       <c r="B35" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>13</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>1</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1">
       <c r="B41" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1">
       <c r="B42" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>1</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="45" spans="1:4" s="6" customFormat="1">
       <c r="B45" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>1</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="47" spans="1:4" s="6" customFormat="1">
       <c r="B47" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>1</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="48" spans="1:4" s="6" customFormat="1">
       <c r="B48" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>1</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>1</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>13</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>13</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>13</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>13</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>1</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>1</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>1</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>1</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>1</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>1</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>1</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>13</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>13</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>1</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>1</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>1</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>1</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>1</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>1</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>13</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>1</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>1</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>1</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>1</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>1</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>1</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>1</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>1</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>1</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>1</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>13</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>13</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
       <c r="B101" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>13</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
       <c r="B102" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>1</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>1</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>1</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>1</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>1</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
       <c r="B107" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>1</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
       <c r="B108" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>1</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
       <c r="B110" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>1</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>1</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>13</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>1</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>1</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>1</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
       <c r="B124" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>1</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
       <c r="B125" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>13</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>1</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>1</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>1</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>1</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
       <c r="B132" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>13</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>13</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>13</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
       <c r="B135" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>1</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
       <c r="B136" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>1</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
       <c r="B137" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>1</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
       <c r="B138" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>1</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
       <c r="B139" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>1</v>
@@ -3864,14 +3864,14 @@
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
       <c r="B140" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>1</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>1</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
       <c r="B143" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>1</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>13</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>1</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>13</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>1</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
       <c r="B149" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>1</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
       <c r="B150" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>1</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
       <c r="B154" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>1</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>1</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>1</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>1</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>13</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>13</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>13</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>1</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
       <c r="B163" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>1</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>1</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
       <c r="B168" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>1</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>1</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>1</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>1</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
       <c r="B172" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
       <c r="B173" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>13</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
       <c r="B174" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>13</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
       <c r="B175" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>13</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
       <c r="B178" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>1</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
       <c r="B179" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>1</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
       <c r="B180" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
       <c r="B181" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>1</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
       <c r="B182" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>1</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
       <c r="B183" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>1</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>1</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>1</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
       <c r="B186" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>1</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
       <c r="B187" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>1</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
       <c r="B190" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>1</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>1</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>1</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
       <c r="B195" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>13</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
       <c r="B196" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>13</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
       <c r="B197" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>13</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>13</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>1</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>1</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>1</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>1</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>1</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
       <c r="B204" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>1</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>1</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>1</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
       <c r="B208" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>13</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>13</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
       <c r="B210" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>1</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
       <c r="B211" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>13</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>13</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
       <c r="B213" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>1</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>1</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>1</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
       <c r="B218" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>13</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
       <c r="B219" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>13</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
       <c r="B221" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>1</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
       <c r="B222" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>13</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
       <c r="B223" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>13</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
       <c r="B224" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>13</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
       <c r="B227" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>1</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
       <c r="B228" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>13</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
       <c r="B229" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>1</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
       <c r="B230" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>1</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
       <c r="B231" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>13</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
       <c r="B234" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>1</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
       <c r="B235" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>13</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
       <c r="B236" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>13</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
       <c r="B237" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>13</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
       <c r="B238" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>13</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
       <c r="B241" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>1</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
       <c r="B242" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>1</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
       <c r="B243" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>1</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
       <c r="B244" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>13</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
       <c r="B245" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>1</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
       <c r="B246" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>1</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
       <c r="B247" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>13</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
       <c r="B248" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>1</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
       <c r="B250" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>1</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
       <c r="B251" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>1</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
       <c r="B252" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
       <c r="B253" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>1</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
       <c r="B254" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>1</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
       <c r="B257" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>1</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
       <c r="B258" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>1</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
       <c r="B259" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>13</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
       <c r="B260" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>1</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
       <c r="B261" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>13</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
       <c r="B263" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>13</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>13</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
       <c r="B265" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>13</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
       <c r="B266" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>13</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>13</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>13</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
       <c r="B269" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>13</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
       <c r="B270" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>13</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
       <c r="B273" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>1</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
       <c r="B274" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>1</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
       <c r="B275" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>1</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
       <c r="B276" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>1</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="277" spans="2:4" s="6" customFormat="1">
       <c r="B277" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>1</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
       <c r="B278" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>1</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
       <c r="B279" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>1</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
       <c r="B280" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>1</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
       <c r="B281" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>13</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
       <c r="B282" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>13</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
       <c r="B283" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>13</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
       <c r="B284" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>13</v>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
       <c r="B285" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>13</v>
@@ -5092,7 +5092,7 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>1</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
       <c r="B287" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>1</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>1</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
       <c r="B289" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>1</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>13</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>13</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>13</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>1</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
       <c r="B296" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
       <c r="B297" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>13</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>13</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
       <c r="B299" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>1</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
       <c r="B300" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>1</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
       <c r="B301" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>1</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
       <c r="B302" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>1</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
       <c r="B303" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>1</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
       <c r="B304" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>1</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>1</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>1</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>1</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
       <c r="B311" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>1</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>13</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
       <c r="B319" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>13</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>13</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
       <c r="B321" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>13</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
       <c r="B324" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>13</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
       <c r="B325" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>13</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
       <c r="B326" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>13</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
       <c r="B327" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>13</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
       <c r="B330" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>13</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
       <c r="B331" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>13</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
       <c r="B334" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>13</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
       <c r="B335" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>13</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
       <c r="B336" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>13</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
       <c r="B337" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>13</v>
@@ -5862,7 +5862,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C51:C53"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5883,7 +5883,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="38" t="s">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G49" s="31">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="12">
-        <v>42012</v>
+        <v>42013</v>
       </c>
       <c r="B50" s="4">
         <v>188</v>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G50" s="31">
         <f t="shared" ref="G50:G53" si="1">B50/SUM(B50:E50)</f>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="12">
-        <v>42012</v>
+        <v>42013</v>
       </c>
       <c r="B51" s="4">
         <v>188</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G51" s="31">
         <f t="shared" ref="G51:G52" si="2">B51/SUM(B51:E51)</f>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="12">
-        <v>42012</v>
+        <v>42013</v>
       </c>
       <c r="B52" s="4">
         <v>188</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G52" s="31">
         <f t="shared" si="2"/>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="12">
-        <v>42012</v>
+        <v>42013</v>
       </c>
       <c r="B53" s="4">
         <v>188</v>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G53" s="31">
         <f t="shared" si="1"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="295">
   <si>
     <t>Feature</t>
   </si>
@@ -377,9 +377,6 @@
     <t>warn about interruption when closing window</t>
   </si>
   <si>
-    <t>warn about modified file when closing window</t>
-  </si>
-  <si>
     <t>Tool bar</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
     <t>0.04.03</t>
   </si>
   <si>
-    <t>0.04.04</t>
-  </si>
-  <si>
     <t>Built-in Objects</t>
   </si>
   <si>
@@ -611,12 +605,6 @@
     <t>newWriter()</t>
   </si>
   <si>
-    <t>newReader()</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>compress</t>
   </si>
   <si>
@@ -861,6 +849,60 @@
   </si>
   <si>
     <t>RNotebook</t>
+  </si>
+  <si>
+    <t>Clear Result</t>
+  </si>
+  <si>
+    <t>newSync()</t>
+  </si>
+  <si>
+    <t>write(text, file)</t>
+  </si>
+  <si>
+    <t>newTableReader()</t>
+  </si>
+  <si>
+    <t>ask to save if modified when opening</t>
+  </si>
+  <si>
+    <t>ask to save if modified when closing window</t>
+  </si>
+  <si>
+    <t>parseHtml</t>
+  </si>
+  <si>
+    <t>FileSyncTool</t>
+  </si>
+  <si>
+    <t>getReport</t>
+  </si>
+  <si>
+    <t>setFilter</t>
+  </si>
+  <si>
+    <t>setGranularity</t>
+  </si>
+  <si>
+    <t>setIgnoreFailures</t>
+  </si>
+  <si>
+    <t>setTarget</t>
+  </si>
+  <si>
+    <t>addSource(...)</t>
+  </si>
+  <si>
+    <t>addSourceTarget(source, target)</t>
+  </si>
+  <si>
+    <t>addSourceTarget(source, target, filter)</t>
+  </si>
+  <si>
+    <t>sync()</t>
+  </si>
+  <si>
+    <t>0.04.07</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1156,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958355"/>
+          <c:w val="0.91978071330958378"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1158,16 +1200,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,16 +1227,7 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>188</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,16 +1271,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,16 +1298,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>124</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,16 +1342,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,16 +1422,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,11 +1470,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120463360"/>
-        <c:axId val="120464896"/>
+        <c:axId val="120201216"/>
+        <c:axId val="120202752"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120463360"/>
+        <c:axId val="120201216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,7 +1513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120464896"/>
+        <c:crossAx val="120202752"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1499,7 +1523,7 @@
         <c:minorTimeUnit val="years"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120464896"/>
+        <c:axId val="120202752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120463360"/>
+        <c:crossAx val="120201216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,7 +1693,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628742"/>
+          <c:y val="0.11628512537628745"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1731,16 +1755,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,26 +1782,26 @@
                   <c:v>0.61202185792349728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60256410256410253</c:v>
+                  <c:v>0.6165644171779141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60256410256410253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60256410256410253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60256410256410253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120488704"/>
-        <c:axId val="120490240"/>
+        <c:axId val="120226560"/>
+        <c:axId val="120228096"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120488704"/>
+        <c:axId val="120226560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,13 +1809,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120490240"/>
+        <c:crossAx val="120228096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120490240"/>
+        <c:axId val="120228096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1834,7 +1858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120488704"/>
+        <c:crossAx val="120226560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1945,16 +1969,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,16 +1996,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>124</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,16 +2040,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42013</c:v>
+                  <c:v>42021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,11 +2082,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120511104"/>
-        <c:axId val="120537472"/>
+        <c:axId val="120244864"/>
+        <c:axId val="120275328"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120511104"/>
+        <c:axId val="120244864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2094,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yy/m" sourceLinked="0"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120537472"/>
+        <c:crossAx val="120275328"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -2087,7 +2102,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120537472"/>
+        <c:axId val="120275328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120511104"/>
+        <c:crossAx val="120244864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2636,10 +2651,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D374"/>
+  <dimension ref="A1:D390"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A293" sqref="A293:XFD294"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="A323" sqref="A323:XFD326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2683,7 +2698,7 @@
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="4"/>
       <c r="B6" s="23" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>13</v>
@@ -2693,7 +2708,7 @@
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="4"/>
       <c r="B7" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -2703,7 +2718,7 @@
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="4"/>
       <c r="B8" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -2713,7 +2728,7 @@
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="4"/>
       <c r="B9" s="23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -2723,7 +2738,7 @@
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="4"/>
       <c r="B10" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -2733,7 +2748,7 @@
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2743,7 +2758,7 @@
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="A12" s="4"/>
       <c r="B12" s="23" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -2753,7 +2768,7 @@
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -2988,7 +3003,7 @@
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>1</v>
@@ -2997,7 +3012,7 @@
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1">
       <c r="B41" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -3006,7 +3021,7 @@
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1">
       <c r="B42" s="21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>1</v>
@@ -3335,7 +3350,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="24" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
@@ -3416,7 +3431,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>1</v>
@@ -3493,7 +3508,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>1</v>
@@ -3511,7 +3526,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>13</v>
@@ -3520,7 +3535,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>13</v>
@@ -3529,7 +3544,7 @@
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
       <c r="B101" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>13</v>
@@ -3556,7 +3571,7 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>1</v>
@@ -3565,7 +3580,7 @@
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>1</v>
@@ -3574,7 +3589,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>1</v>
@@ -3592,7 +3607,7 @@
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
       <c r="B108" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>1</v>
@@ -3606,7 +3621,7 @@
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
       <c r="B110" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>1</v>
@@ -3615,7 +3630,7 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>1</v>
@@ -3664,36 +3679,36 @@
         <v>118</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="23" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="21"/>
-      <c r="C119" s="7"/>
+      <c r="B119" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B120" s="21"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="21" t="s">
-        <v>133</v>
+      <c r="B121" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>1</v>
@@ -3701,8 +3716,8 @@
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="24" t="s">
-        <v>134</v>
+      <c r="B122" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>1</v>
@@ -3711,16 +3726,16 @@
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="2:4" s="6" customFormat="1">
+      <c r="B124" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="25" t="s">
-        <v>108</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>1</v>
@@ -3729,25 +3744,25 @@
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
       <c r="B125" s="25" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="25" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="25" t="s">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1</v>
@@ -3756,7 +3771,7 @@
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="25" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>1</v>
@@ -3765,7 +3780,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>1</v>
@@ -3774,7 +3789,7 @@
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>1</v>
@@ -3783,7 +3798,7 @@
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>1</v>
@@ -3792,25 +3807,25 @@
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
       <c r="B132" s="25" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="25" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>13</v>
@@ -3818,26 +3833,26 @@
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="21" t="s">
-        <v>137</v>
+      <c r="B135" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="24" t="s">
-        <v>138</v>
+      <c r="B136" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
       <c r="B137" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>1</v>
@@ -3846,7 +3861,7 @@
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
       <c r="B138" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>1</v>
@@ -3854,8 +3869,8 @@
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="46" t="s">
-        <v>139</v>
+      <c r="B139" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>1</v>
@@ -3863,15 +3878,17 @@
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="C140" s="7"/>
+      <c r="B140" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>1</v>
@@ -3880,16 +3897,14 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>1</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C142" s="7"/>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
       <c r="B143" s="46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>1</v>
@@ -3898,16 +3913,16 @@
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="44" t="s">
-        <v>274</v>
+        <v>142</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>1</v>
@@ -3916,7 +3931,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="44" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>13</v>
@@ -3924,31 +3939,31 @@
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="21"/>
-      <c r="C147" s="7"/>
+      <c r="B147" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="28" t="s">
-        <v>131</v>
+      <c r="B148" s="44" t="s">
+        <v>262</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B149" s="21"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="24" t="s">
-        <v>144</v>
+      <c r="B150" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>1</v>
@@ -3956,26 +3971,26 @@
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="24" t="s">
+      <c r="B151" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="2:4" s="6" customFormat="1">
+      <c r="B152" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="2:4" s="6" customFormat="1">
+      <c r="B153" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="25" t="s">
-        <v>95</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>1</v>
@@ -3984,7 +3999,7 @@
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
       <c r="B154" s="25" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>1</v>
@@ -3993,7 +4008,7 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>1</v>
@@ -4002,7 +4017,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>1</v>
@@ -4011,7 +4026,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>1</v>
@@ -4020,25 +4035,25 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="25" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="25" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>13</v>
@@ -4046,40 +4061,40 @@
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="21"/>
-      <c r="C161" s="7"/>
+      <c r="B161" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="28" t="s">
+      <c r="B162" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="2:4" s="6" customFormat="1">
+      <c r="B163" s="21"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="2:4" s="6" customFormat="1">
+      <c r="B164" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="2:4" s="6" customFormat="1">
+      <c r="B165" s="21" t="s">
         <v>132</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="24" t="s">
-        <v>146</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>1</v>
@@ -4088,25 +4103,25 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="2:4" s="6" customFormat="1">
+      <c r="B167" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="2:4" s="6" customFormat="1">
+      <c r="B168" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="25" t="s">
-        <v>95</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>1</v>
@@ -4115,7 +4130,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="25" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>1</v>
@@ -4124,7 +4139,7 @@
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>1</v>
@@ -4133,7 +4148,7 @@
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>1</v>
@@ -4142,7 +4157,7 @@
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
       <c r="B172" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>1</v>
@@ -4151,25 +4166,25 @@
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
       <c r="B173" s="25" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
       <c r="B174" s="25" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
       <c r="B175" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>13</v>
@@ -4177,36 +4192,36 @@
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="23"/>
-      <c r="C176" s="7"/>
+      <c r="B176" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="23"/>
-      <c r="C177" s="7"/>
+      <c r="B177" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B178" s="23"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B179" s="23"/>
+      <c r="C179" s="7"/>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="21" t="s">
-        <v>164</v>
+      <c r="B180" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>1</v>
@@ -4214,8 +4229,8 @@
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="21" t="s">
-        <v>165</v>
+      <c r="B181" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>1</v>
@@ -4224,7 +4239,7 @@
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
       <c r="B182" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>1</v>
@@ -4233,7 +4248,7 @@
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
       <c r="B183" s="21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>1</v>
@@ -4242,7 +4257,7 @@
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>1</v>
@@ -4251,7 +4266,7 @@
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>1</v>
@@ -4259,8 +4274,8 @@
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="23" t="s">
-        <v>172</v>
+      <c r="B186" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>1</v>
@@ -4269,7 +4284,7 @@
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
       <c r="B187" s="21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>1</v>
@@ -4277,67 +4292,67 @@
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="23"/>
-      <c r="C188" s="7"/>
+      <c r="B188" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="23"/>
-      <c r="C189" s="7"/>
+      <c r="B189" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B190" s="23"/>
+      <c r="C190" s="7"/>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B191" s="23"/>
+      <c r="C191" s="7"/>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="23"/>
-      <c r="C192" s="7"/>
+      <c r="B192" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="23"/>
-      <c r="C193" s="7"/>
+      <c r="B193" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B194" s="23"/>
+      <c r="C194" s="7"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B195" s="23"/>
+      <c r="C195" s="7"/>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="23" t="s">
-        <v>192</v>
+      <c r="B196" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D196" s="4"/>
     </row>
@@ -4352,7 +4367,7 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>13</v>
@@ -4361,25 +4376,25 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="23" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="23" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="23" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>1</v>
@@ -4388,7 +4403,7 @@
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="23" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>1</v>
@@ -4397,7 +4412,7 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>1</v>
@@ -4406,7 +4421,7 @@
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
       <c r="B204" s="23" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>1</v>
@@ -4415,7 +4430,7 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>1</v>
@@ -4424,7 +4439,7 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>1</v>
@@ -4433,7 +4448,7 @@
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>1</v>
@@ -4442,34 +4457,34 @@
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
       <c r="B208" s="23" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="23" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
       <c r="B210" s="23" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
       <c r="B211" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>13</v>
@@ -4478,16 +4493,16 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
       <c r="B213" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>1</v>
@@ -4496,26 +4511,34 @@
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="23"/>
-      <c r="C215" s="7"/>
+      <c r="B215" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="23"/>
-      <c r="C216" s="7"/>
+      <c r="B216" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="3" t="s">
-        <v>165</v>
+      <c r="B217" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>1</v>
@@ -4523,26 +4546,18 @@
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B218" s="23"/>
+      <c r="C218" s="7"/>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B219" s="23"/>
+      <c r="C219" s="7"/>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="23" t="s">
-        <v>194</v>
+      <c r="B220" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>1</v>
@@ -4554,13 +4569,13 @@
         <v>195</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
       <c r="B222" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>13</v>
@@ -4569,35 +4584,43 @@
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
       <c r="B223" s="23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
       <c r="B224" s="23" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C224" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="2:4" s="6" customFormat="1">
+      <c r="B225" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="2:4" s="6" customFormat="1">
+      <c r="B226" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C226" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D224" s="4"/>
-    </row>
-    <row r="225" spans="2:4" s="6" customFormat="1">
-      <c r="B225" s="23"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="4"/>
-    </row>
-    <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="23"/>
-      <c r="C226" s="7"/>
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="3" t="s">
-        <v>166</v>
+      <c r="B227" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>1</v>
@@ -4605,26 +4628,18 @@
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B228" s="23"/>
+      <c r="C228" s="7"/>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
-      <c r="B229" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B229" s="23"/>
+      <c r="C229" s="7"/>
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="23" t="s">
-        <v>202</v>
+      <c r="B230" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>1</v>
@@ -4633,7 +4648,7 @@
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
       <c r="B231" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>13</v>
@@ -4641,54 +4656,54 @@
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="23"/>
-      <c r="C232" s="7"/>
+      <c r="B232" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="23"/>
-      <c r="C233" s="7"/>
+      <c r="B233" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="3" t="s">
-        <v>167</v>
+      <c r="B234" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
-      <c r="B235" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B235" s="23"/>
+      <c r="C235" s="7"/>
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
-      <c r="B236" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B236" s="23"/>
+      <c r="C236" s="7"/>
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="23" t="s">
-        <v>206</v>
+      <c r="B237" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
       <c r="B238" s="23" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>13</v>
@@ -4696,54 +4711,54 @@
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="23"/>
-      <c r="C239" s="7"/>
+      <c r="B239" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="23"/>
-      <c r="C240" s="7"/>
+      <c r="B240" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
-      <c r="B241" s="3" t="s">
-        <v>168</v>
+      <c r="B241" s="23" t="s">
+        <v>203</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
-      <c r="B242" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B242" s="23"/>
+      <c r="C242" s="7"/>
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
-      <c r="B243" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B243" s="23"/>
+      <c r="C243" s="7"/>
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="23" t="s">
-        <v>219</v>
+      <c r="B244" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
       <c r="B245" s="23" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>1</v>
@@ -4752,7 +4767,7 @@
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
       <c r="B246" s="23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>1</v>
@@ -4761,7 +4776,7 @@
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
       <c r="B247" s="23" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>13</v>
@@ -4770,7 +4785,7 @@
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
       <c r="B248" s="23" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>1</v>
@@ -4779,7 +4794,7 @@
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
       <c r="B249" s="23" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>1</v>
@@ -4788,16 +4803,16 @@
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
       <c r="B250" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
       <c r="B251" s="23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>1</v>
@@ -4806,7 +4821,7 @@
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
       <c r="B252" s="23" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>1</v>
@@ -4815,7 +4830,7 @@
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
       <c r="B253" s="23" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>1</v>
@@ -4824,7 +4839,7 @@
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
       <c r="B254" s="23" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>1</v>
@@ -4832,18 +4847,26 @@
       <c r="D254" s="4"/>
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
-      <c r="B255" s="23"/>
-      <c r="C255" s="7"/>
+      <c r="B255" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D255" s="4"/>
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
-      <c r="B256" s="23"/>
-      <c r="C256" s="7"/>
+      <c r="B256" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D256" s="4"/>
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
-      <c r="B257" s="3" t="s">
-        <v>169</v>
+      <c r="B257" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>1</v>
@@ -4851,26 +4874,18 @@
       <c r="D257" s="4"/>
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B258" s="23"/>
+      <c r="C258" s="7"/>
       <c r="D258" s="4"/>
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
-      <c r="B259" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B259" s="23"/>
+      <c r="C259" s="7"/>
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="23" t="s">
-        <v>224</v>
+      <c r="B260" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>1</v>
@@ -4879,39 +4894,43 @@
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
       <c r="B261" s="23" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C261" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D261" s="4"/>
+    </row>
+    <row r="262" spans="2:4" s="6" customFormat="1">
+      <c r="B262" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C262" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D261" s="4"/>
-    </row>
-    <row r="262" spans="2:4" s="6" customFormat="1">
-      <c r="B262" s="23"/>
-      <c r="C262" s="7"/>
       <c r="D262" s="4"/>
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
       <c r="B263" s="23" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D263" s="4"/>
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="23" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D264" s="4"/>
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
       <c r="B265" s="23" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>13</v>
@@ -4919,17 +4938,13 @@
       <c r="D265" s="4"/>
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
-      <c r="B266" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B266" s="23"/>
+      <c r="C266" s="7"/>
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="23" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>13</v>
@@ -4938,7 +4953,7 @@
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="23" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>13</v>
@@ -4947,7 +4962,7 @@
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
       <c r="B269" s="23" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>13</v>
@@ -4956,7 +4971,7 @@
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
       <c r="B270" s="23" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>13</v>
@@ -4964,54 +4979,54 @@
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
-      <c r="B271" s="23"/>
-      <c r="C271" s="7"/>
+      <c r="B271" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
-      <c r="B272" s="23"/>
-      <c r="C272" s="7"/>
+      <c r="B272" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
-      <c r="B273" s="3" t="s">
-        <v>222</v>
+      <c r="B273" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
       <c r="B274" s="23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B275" s="23"/>
+      <c r="C275" s="7"/>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
-      <c r="B276" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B276" s="23"/>
+      <c r="C276" s="7"/>
       <c r="D276" s="4"/>
     </row>
     <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="23" t="s">
-        <v>252</v>
+      <c r="B277" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>1</v>
@@ -5020,7 +5035,7 @@
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
       <c r="B278" s="23" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>1</v>
@@ -5029,7 +5044,7 @@
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
       <c r="B279" s="23" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>1</v>
@@ -5038,7 +5053,7 @@
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
       <c r="B280" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>1</v>
@@ -5050,40 +5065,40 @@
         <v>248</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D281" s="4"/>
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
       <c r="B282" s="23" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D282" s="4"/>
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
       <c r="B283" s="23" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D283" s="4"/>
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
       <c r="B284" s="23" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D284" s="4"/>
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
       <c r="B285" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>13</v>
@@ -5092,116 +5107,116 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
       <c r="B287" s="23" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="23" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D288" s="4"/>
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
       <c r="B289" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="23" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="23" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C292" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D292" s="4"/>
+    </row>
+    <row r="293" spans="2:4" s="6" customFormat="1">
+      <c r="B293" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="2:4" s="6" customFormat="1">
+      <c r="B294" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C294" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D292" s="4"/>
-    </row>
-    <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="23"/>
-      <c r="C293" s="7"/>
-      <c r="D293" s="4"/>
-    </row>
-    <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="23"/>
-      <c r="C294" s="7"/>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="3" t="s">
-        <v>223</v>
+      <c r="B295" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
       <c r="B296" s="23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B297" s="23"/>
+      <c r="C297" s="7"/>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B298" s="23"/>
+      <c r="C298" s="7"/>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="23" t="s">
-        <v>259</v>
+      <c r="B299" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>1</v>
@@ -5210,7 +5225,7 @@
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
       <c r="B300" s="23" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>1</v>
@@ -5219,25 +5234,25 @@
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
       <c r="B301" s="23" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
       <c r="B302" s="23" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
       <c r="B303" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>1</v>
@@ -5246,7 +5261,7 @@
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
       <c r="B304" s="23" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>1</v>
@@ -5255,7 +5270,7 @@
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>1</v>
@@ -5264,7 +5279,7 @@
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="23" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>1</v>
@@ -5272,18 +5287,26 @@
       <c r="D306" s="4"/>
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
-      <c r="B307" s="23"/>
-      <c r="C307" s="7"/>
+      <c r="B307" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="21"/>
-      <c r="C308" s="7"/>
+      <c r="B308" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="3" t="s">
-        <v>34</v>
+      <c r="B309" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>1</v>
@@ -5292,7 +5315,7 @@
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="23" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>1</v>
@@ -5300,26 +5323,18 @@
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B311" s="23"/>
+      <c r="C311" s="7"/>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B312" s="23"/>
+      <c r="C312" s="7"/>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="24" t="s">
-        <v>39</v>
+      <c r="B313" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>1</v>
@@ -5327,26 +5342,26 @@
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
-      <c r="B314" s="24" t="s">
-        <v>42</v>
+      <c r="B314" s="23" t="s">
+        <v>285</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="24" t="s">
-        <v>45</v>
+      <c r="B315" s="23" t="s">
+        <v>286</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="24" t="s">
-        <v>43</v>
+      <c r="B316" s="23" t="s">
+        <v>287</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>1</v>
@@ -5354,17 +5369,17 @@
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="21" t="s">
-        <v>149</v>
+      <c r="B317" s="23" t="s">
+        <v>288</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
-      <c r="B318" s="24" t="s">
-        <v>32</v>
+      <c r="B318" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>13</v>
@@ -5372,8 +5387,8 @@
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="25" t="s">
-        <v>150</v>
+      <c r="B319" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>13</v>
@@ -5381,8 +5396,8 @@
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
-      <c r="B320" s="25" t="s">
-        <v>151</v>
+      <c r="B320" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>13</v>
@@ -5390,8 +5405,8 @@
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="24" t="s">
-        <v>133</v>
+      <c r="B321" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>13</v>
@@ -5399,107 +5414,99 @@
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
-      <c r="B322" s="25" t="s">
-        <v>65</v>
+      <c r="B322" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B323" s="23"/>
+      <c r="C323" s="7"/>
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B324" s="21"/>
+      <c r="C324" s="7"/>
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="25" t="s">
-        <v>154</v>
+      <c r="B325" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="25" t="s">
-        <v>153</v>
+      <c r="B326" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
       <c r="B327" s="21" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="24" t="s">
-        <v>32</v>
+      <c r="B328" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="25" t="s">
-        <v>66</v>
+      <c r="B329" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="25" t="s">
-        <v>156</v>
+      <c r="B330" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
       <c r="B331" s="24" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D331" s="4"/>
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="25" t="s">
-        <v>65</v>
+      <c r="B332" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="44" t="s">
-        <v>67</v>
+      <c r="B333" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>13</v>
@@ -5507,8 +5514,8 @@
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="44" t="s">
-        <v>152</v>
+      <c r="B334" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>13</v>
@@ -5517,7 +5524,7 @@
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
       <c r="B335" s="25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>13</v>
@@ -5526,7 +5533,7 @@
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
       <c r="B336" s="25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>13</v>
@@ -5534,8 +5541,8 @@
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="25" t="s">
-        <v>159</v>
+      <c r="B337" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>13</v>
@@ -5543,68 +5550,80 @@
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="21" t="s">
-        <v>31</v>
+      <c r="B338" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="24" t="s">
-        <v>35</v>
+      <c r="B339" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="24" t="s">
-        <v>36</v>
+      <c r="B340" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="20"/>
-      <c r="C341" s="7"/>
+      <c r="B341" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="23" t="s">
-        <v>26</v>
+      <c r="B342" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="22" t="s">
-        <v>30</v>
+      <c r="B343" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="21"/>
-      <c r="C344" s="7"/>
+      <c r="B344" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="21"/>
-      <c r="C345" s="7"/>
+      <c r="B345" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="3" t="s">
-        <v>58</v>
+      <c r="B346" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>13</v>
@@ -5612,8 +5631,8 @@
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="23" t="s">
-        <v>59</v>
+      <c r="B347" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>13</v>
@@ -5621,8 +5640,8 @@
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="23" t="s">
-        <v>60</v>
+      <c r="B348" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>13</v>
@@ -5630,8 +5649,8 @@
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="23" t="s">
-        <v>61</v>
+      <c r="B349" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>13</v>
@@ -5639,8 +5658,8 @@
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="23" t="s">
-        <v>30</v>
+      <c r="B350" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>13</v>
@@ -5648,27 +5667,35 @@
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="23"/>
-      <c r="C351" s="7"/>
+      <c r="B351" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="23"/>
-      <c r="C352" s="7"/>
+      <c r="B352" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="3" t="s">
-        <v>62</v>
+      <c r="B353" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="23" t="s">
-        <v>44</v>
+      <c r="B354" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>1</v>
@@ -5676,8 +5703,8 @@
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="23" t="s">
-        <v>63</v>
+      <c r="B355" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>1</v>
@@ -5685,18 +5712,22 @@
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="22"/>
-      <c r="C356" s="4"/>
+      <c r="B356" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
       <c r="B357" s="20"/>
-      <c r="C357" s="4"/>
+      <c r="C357" s="7"/>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="3" t="s">
-        <v>28</v>
+      <c r="B358" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>1</v>
@@ -5705,7 +5736,7 @@
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
       <c r="B359" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>1</v>
@@ -5713,27 +5744,27 @@
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B360" s="21"/>
+      <c r="C360" s="7"/>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="23"/>
-      <c r="C361" s="9"/>
+      <c r="B361" s="21"/>
+      <c r="C361" s="7"/>
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="20"/>
-      <c r="C362" s="4"/>
+      <c r="B362" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="3" t="s">
-        <v>33</v>
+      <c r="B363" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>13</v>
@@ -5741,8 +5772,8 @@
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="22" t="s">
-        <v>22</v>
+      <c r="B364" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>13</v>
@@ -5750,8 +5781,8 @@
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="22" t="s">
-        <v>23</v>
+      <c r="B365" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>13</v>
@@ -5759,8 +5790,8 @@
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="22" t="s">
-        <v>24</v>
+      <c r="B366" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>13</v>
@@ -5768,74 +5799,194 @@
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="22"/>
-      <c r="C367" s="4"/>
+      <c r="B367" s="23"/>
+      <c r="C367" s="7"/>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="22"/>
-      <c r="C368" s="4"/>
+      <c r="B368" s="23"/>
+      <c r="C368" s="7"/>
       <c r="D368" s="4"/>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="11"/>
-      <c r="B369" s="11"/>
-      <c r="C369" s="11"/>
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="B370" s="8" t="s">
+    <row r="369" spans="2:4" s="6" customFormat="1">
+      <c r="B369" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="2:4" s="6" customFormat="1">
+      <c r="B370" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="2:4" s="6" customFormat="1">
+      <c r="B371" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="2:4" s="6" customFormat="1">
+      <c r="B372" s="22"/>
+      <c r="C372" s="4"/>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="2:4" s="6" customFormat="1">
+      <c r="B373" s="20"/>
+      <c r="C373" s="4"/>
+      <c r="D373" s="4"/>
+    </row>
+    <row r="374" spans="2:4" s="6" customFormat="1">
+      <c r="B374" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D374" s="4"/>
+    </row>
+    <row r="375" spans="2:4" s="6" customFormat="1">
+      <c r="B375" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D375" s="4"/>
+    </row>
+    <row r="376" spans="2:4" s="6" customFormat="1">
+      <c r="B376" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D376" s="4"/>
+    </row>
+    <row r="377" spans="2:4" s="6" customFormat="1">
+      <c r="B377" s="23"/>
+      <c r="C377" s="9"/>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="2:4" s="6" customFormat="1">
+      <c r="B378" s="20"/>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4"/>
+    </row>
+    <row r="379" spans="2:4" s="6" customFormat="1">
+      <c r="B379" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D380" s="4"/>
+    </row>
+    <row r="381" spans="2:4" s="6" customFormat="1">
+      <c r="B381" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D381" s="4"/>
+    </row>
+    <row r="382" spans="2:4" s="6" customFormat="1">
+      <c r="B382" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D382" s="4"/>
+    </row>
+    <row r="383" spans="2:4" s="6" customFormat="1">
+      <c r="B383" s="22"/>
+      <c r="C383" s="4"/>
+      <c r="D383" s="4"/>
+    </row>
+    <row r="384" spans="2:4" s="6" customFormat="1">
+      <c r="B384" s="22"/>
+      <c r="C384" s="4"/>
+      <c r="D384" s="4"/>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="11"/>
+      <c r="B385" s="11"/>
+      <c r="C385" s="11"/>
+      <c r="D385" s="2"/>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="B386" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C370" s="6">
-        <f>COUNTIF(C5:C369,"y")</f>
-        <v>188</v>
-      </c>
-      <c r="D370" s="2"/>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="B371" s="8" t="s">
+      <c r="C386" s="6">
+        <f>COUNTIF(C5:C385,"y")</f>
+        <v>201</v>
+      </c>
+      <c r="D386" s="2"/>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="B387" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C371" s="6">
-        <f>COUNTIF(C5:C369,"n")</f>
-        <v>124</v>
-      </c>
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="B372" s="8" t="s">
+      <c r="C387" s="6">
+        <f>COUNTIF(C5:C385,"n")</f>
+        <v>125</v>
+      </c>
+      <c r="D387" s="2"/>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="B388" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C372" s="7">
-        <f>COUNTIF(C5:C369,"TBD")</f>
+      <c r="C388" s="7">
+        <f>COUNTIF(C5:C385,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D372" s="2"/>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="B373" s="8" t="s">
+      <c r="D388" s="2"/>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="B389" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C373">
-        <f>SUM(C370:C372)</f>
-        <v>312</v>
-      </c>
-      <c r="D373" s="2"/>
-    </row>
-    <row r="374" spans="1:4" ht="18">
-      <c r="B374" s="10"/>
-      <c r="C374" s="10" t="s">
+      <c r="C389">
+        <f>SUM(C386:C388)</f>
+        <v>326</v>
+      </c>
+      <c r="D389" s="2"/>
+    </row>
+    <row r="390" spans="1:4" ht="18">
+      <c r="B390" s="10"/>
+      <c r="C390" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D374" s="42">
-        <f>C370/(C371+C370 + C372)</f>
-        <v>0.60256410256410253</v>
+      <c r="D390" s="42">
+        <f>C386/(C387+C386 + C388)</f>
+        <v>0.6165644171779141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C65330">
+  <conditionalFormatting sqref="C1:C3 C6:C65346">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5862,7 +6013,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5883,7 +6034,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="38" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6138,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G49" s="31">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -6148,13 +6299,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="12">
-        <v>42013</v>
+        <v>42021</v>
       </c>
       <c r="B50" s="4">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C50" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -6163,86 +6314,68 @@
         <v>0</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="G50" s="31">
         <f t="shared" ref="G50:G53" si="1">B50/SUM(B50:E50)</f>
-        <v>0.60256410256410253</v>
+        <v>0.6165644171779141</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="12">
-        <v>42013</v>
-      </c>
-      <c r="B51" s="4">
-        <v>188</v>
-      </c>
-      <c r="C51" s="4">
-        <v>124</v>
-      </c>
+        <v>42021</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="4">
         <v>0</v>
       </c>
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G51" s="31">
+      <c r="F51" s="29"/>
+      <c r="G51" s="31" t="e">
         <f t="shared" ref="G51:G52" si="2">B51/SUM(B51:E51)</f>
-        <v>0.60256410256410253</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="12">
-        <v>42013</v>
-      </c>
-      <c r="B52" s="4">
-        <v>188</v>
-      </c>
-      <c r="C52" s="4">
-        <v>124</v>
-      </c>
+        <v>42021</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="4">
         <v>0</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
       </c>
-      <c r="F52" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G52" s="31">
+      <c r="F52" s="29"/>
+      <c r="G52" s="31" t="e">
         <f t="shared" si="2"/>
-        <v>0.60256410256410253</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="12">
-        <v>42013</v>
-      </c>
-      <c r="B53" s="4">
-        <v>188</v>
-      </c>
-      <c r="C53" s="4">
-        <v>124</v>
-      </c>
+        <v>42021</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="4">
         <v>0</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
       </c>
-      <c r="F53" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G53" s="31">
+      <c r="F53" s="29"/>
+      <c r="G53" s="31" t="e">
         <f t="shared" si="1"/>
-        <v>0.60256410256410253</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -6285,27 +6418,27 @@
       <c r="F56" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G56" s="39">
+      <c r="G56" s="39" t="e">
         <f>MIN(G53)</f>
-        <v>0.60256410256410253</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="40">
         <f>SUM(B57:D57)</f>
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B57" s="16">
-        <f>Features!C370</f>
-        <v>188</v>
+        <f>Features!C386</f>
+        <v>201</v>
       </c>
       <c r="C57" s="17">
-        <f>Features!C371</f>
-        <v>124</v>
+        <f>Features!C387</f>
+        <v>125</v>
       </c>
       <c r="D57" s="18">
-        <f>Features!C372</f>
+        <f>Features!C388</f>
         <v>0</v>
       </c>
       <c r="E57" s="19">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="294">
   <si>
     <t>Feature</t>
   </si>
@@ -875,12 +875,6 @@
     <t>FileSyncTool</t>
   </si>
   <si>
-    <t>getReport</t>
-  </si>
-  <si>
-    <t>setFilter</t>
-  </si>
-  <si>
     <t>setGranularity</t>
   </si>
   <si>
@@ -890,19 +884,22 @@
     <t>setTarget</t>
   </si>
   <si>
-    <t>addSource(...)</t>
-  </si>
-  <si>
-    <t>addSourceTarget(source, target)</t>
-  </si>
-  <si>
-    <t>addSourceTarget(source, target, filter)</t>
-  </si>
-  <si>
     <t>sync()</t>
   </si>
   <si>
     <t>0.04.07</t>
+  </si>
+  <si>
+    <t>addSource(src)</t>
+  </si>
+  <si>
+    <t>setFilter()</t>
+  </si>
+  <si>
+    <t>addJob(source, target)</t>
+  </si>
+  <si>
+    <t>addJob(source, target, filter)</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1153,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958378"/>
+          <c:w val="0.919780713309584"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1200,16 +1197,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,7 +1224,7 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>201</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,16 +1268,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,7 +1295,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,16 +1339,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,16 +1419,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,7 +1690,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628745"/>
+          <c:y val="0.11628512537628749"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1755,16 +1752,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,7 +1779,7 @@
                   <c:v>0.61202185792349728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6165644171779141</c:v>
+                  <c:v>0.63384615384615384</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1969,16 +1966,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,7 +1993,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2040,16 +2037,16 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42021</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2651,10 +2648,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D390"/>
+  <dimension ref="A1:D389"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="A323" sqref="A323:XFD326"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5343,25 +5340,25 @@
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
       <c r="B314" s="23" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
       <c r="B315" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
       <c r="B316" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>1</v>
@@ -5370,7 +5367,7 @@
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="23" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>1</v>
@@ -5379,62 +5376,62 @@
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="23" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
       <c r="B319" s="23" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
       <c r="B321" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
-      <c r="B322" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B322" s="23"/>
+      <c r="C322" s="7"/>
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="23"/>
+      <c r="B323" s="21"/>
       <c r="C323" s="7"/>
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="21"/>
-      <c r="C324" s="7"/>
+      <c r="B324" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="3" t="s">
-        <v>34</v>
+      <c r="B325" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>1</v>
@@ -5442,8 +5439,8 @@
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="23" t="s">
-        <v>146</v>
+      <c r="B326" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>1</v>
@@ -5452,7 +5449,7 @@
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
       <c r="B327" s="21" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>1</v>
@@ -5460,8 +5457,8 @@
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="21" t="s">
-        <v>27</v>
+      <c r="B328" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>1</v>
@@ -5470,7 +5467,7 @@
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
       <c r="B329" s="24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>1</v>
@@ -5479,7 +5476,7 @@
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
       <c r="B330" s="24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>1</v>
@@ -5488,7 +5485,7 @@
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
       <c r="B331" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>1</v>
@@ -5496,17 +5493,17 @@
       <c r="D331" s="4"/>
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="24" t="s">
-        <v>43</v>
+      <c r="B332" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="21" t="s">
-        <v>148</v>
+      <c r="B333" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>13</v>
@@ -5514,8 +5511,8 @@
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="24" t="s">
-        <v>32</v>
+      <c r="B334" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>13</v>
@@ -5524,7 +5521,7 @@
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
       <c r="B335" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>13</v>
@@ -5532,8 +5529,8 @@
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="25" t="s">
-        <v>150</v>
+      <c r="B336" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>13</v>
@@ -5541,8 +5538,8 @@
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="24" t="s">
-        <v>132</v>
+      <c r="B337" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>13</v>
@@ -5550,8 +5547,8 @@
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="25" t="s">
-        <v>65</v>
+      <c r="B338" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>13</v>
@@ -5560,7 +5557,7 @@
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
       <c r="B339" s="44" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>13</v>
@@ -5568,8 +5565,8 @@
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="44" t="s">
-        <v>151</v>
+      <c r="B340" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>13</v>
@@ -5578,7 +5575,7 @@
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
       <c r="B341" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>13</v>
@@ -5586,8 +5583,8 @@
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="25" t="s">
-        <v>152</v>
+      <c r="B342" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>13</v>
@@ -5595,8 +5592,8 @@
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="21" t="s">
-        <v>154</v>
+      <c r="B343" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>13</v>
@@ -5604,8 +5601,8 @@
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="24" t="s">
-        <v>32</v>
+      <c r="B344" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>13</v>
@@ -5614,7 +5611,7 @@
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
       <c r="B345" s="25" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>13</v>
@@ -5622,8 +5619,8 @@
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="25" t="s">
-        <v>155</v>
+      <c r="B346" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>13</v>
@@ -5631,8 +5628,8 @@
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="24" t="s">
-        <v>132</v>
+      <c r="B347" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>13</v>
@@ -5640,8 +5637,8 @@
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="25" t="s">
-        <v>65</v>
+      <c r="B348" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>13</v>
@@ -5650,7 +5647,7 @@
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
       <c r="B349" s="44" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>13</v>
@@ -5658,8 +5655,8 @@
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="44" t="s">
-        <v>151</v>
+      <c r="B350" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>13</v>
@@ -5668,7 +5665,7 @@
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
       <c r="B351" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>13</v>
@@ -5677,7 +5674,7 @@
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
       <c r="B352" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>13</v>
@@ -5685,17 +5682,17 @@
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="25" t="s">
-        <v>158</v>
+      <c r="B353" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="21" t="s">
-        <v>31</v>
+      <c r="B354" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>1</v>
@@ -5704,7 +5701,7 @@
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
       <c r="B355" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>1</v>
@@ -5712,22 +5709,22 @@
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B356" s="20"/>
+      <c r="C356" s="7"/>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="20"/>
-      <c r="C357" s="7"/>
+      <c r="B357" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="23" t="s">
-        <v>26</v>
+      <c r="B358" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>1</v>
@@ -5735,12 +5732,8 @@
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B359" s="21"/>
+      <c r="C359" s="7"/>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
@@ -5749,13 +5742,17 @@
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="21"/>
-      <c r="C361" s="7"/>
+      <c r="B361" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="3" t="s">
-        <v>58</v>
+      <c r="B362" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>13</v>
@@ -5764,7 +5761,7 @@
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
       <c r="B363" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>13</v>
@@ -5773,7 +5770,7 @@
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
       <c r="B364" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>13</v>
@@ -5782,7 +5779,7 @@
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
       <c r="B365" s="23" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>13</v>
@@ -5790,12 +5787,8 @@
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B366" s="23"/>
+      <c r="C366" s="7"/>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
@@ -5804,189 +5797,184 @@
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="23"/>
-      <c r="C368" s="7"/>
+      <c r="B368" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D368" s="4"/>
     </row>
-    <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="3" t="s">
-        <v>62</v>
+    <row r="369" spans="1:4" s="6" customFormat="1">
+      <c r="B369" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D369" s="4"/>
     </row>
-    <row r="370" spans="2:4" s="6" customFormat="1">
+    <row r="370" spans="1:4" s="6" customFormat="1">
       <c r="B370" s="23" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D370" s="4"/>
     </row>
-    <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C371" s="7" t="s">
-        <v>1</v>
-      </c>
+    <row r="371" spans="1:4" s="6" customFormat="1">
+      <c r="B371" s="22"/>
+      <c r="C371" s="4"/>
       <c r="D371" s="4"/>
     </row>
-    <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="22"/>
+    <row r="372" spans="1:4" s="6" customFormat="1">
+      <c r="B372" s="20"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
     </row>
-    <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="20"/>
-      <c r="C373" s="4"/>
+    <row r="373" spans="1:4" s="6" customFormat="1">
+      <c r="B373" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D373" s="4"/>
     </row>
-    <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="3" t="s">
-        <v>28</v>
+    <row r="374" spans="1:4" s="6" customFormat="1">
+      <c r="B374" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D374" s="4"/>
     </row>
-    <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="22" t="s">
-        <v>29</v>
+    <row r="375" spans="1:4" s="6" customFormat="1">
+      <c r="B375" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D375" s="4"/>
     </row>
-    <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C376" s="7" t="s">
-        <v>1</v>
-      </c>
+    <row r="376" spans="1:4" s="6" customFormat="1">
+      <c r="B376" s="23"/>
+      <c r="C376" s="9"/>
       <c r="D376" s="4"/>
     </row>
-    <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="23"/>
-      <c r="C377" s="9"/>
+    <row r="377" spans="1:4" s="6" customFormat="1">
+      <c r="B377" s="20"/>
+      <c r="C377" s="4"/>
       <c r="D377" s="4"/>
     </row>
-    <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="20"/>
-      <c r="C378" s="4"/>
+    <row r="378" spans="1:4" s="6" customFormat="1">
+      <c r="B378" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D378" s="4"/>
     </row>
-    <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="3" t="s">
-        <v>33</v>
+    <row r="379" spans="1:4" s="6" customFormat="1">
+      <c r="B379" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D379" s="4"/>
     </row>
-    <row r="380" spans="2:4" s="6" customFormat="1">
+    <row r="380" spans="1:4" s="6" customFormat="1">
       <c r="B380" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D380" s="4"/>
     </row>
-    <row r="381" spans="2:4" s="6" customFormat="1">
+    <row r="381" spans="1:4" s="6" customFormat="1">
       <c r="B381" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D381" s="4"/>
     </row>
-    <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C382" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="382" spans="1:4" s="6" customFormat="1">
+      <c r="B382" s="22"/>
+      <c r="C382" s="4"/>
       <c r="D382" s="4"/>
     </row>
-    <row r="383" spans="2:4" s="6" customFormat="1">
+    <row r="383" spans="1:4" s="6" customFormat="1">
       <c r="B383" s="22"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
     </row>
-    <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="22"/>
-      <c r="C384" s="4"/>
-      <c r="D384" s="4"/>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="11"/>
-      <c r="B385" s="11"/>
-      <c r="C385" s="11"/>
+    <row r="384" spans="1:4">
+      <c r="A384" s="11"/>
+      <c r="B384" s="11"/>
+      <c r="C384" s="11"/>
+      <c r="D384" s="2"/>
+    </row>
+    <row r="385" spans="2:4">
+      <c r="B385" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" s="6">
+        <f>COUNTIF(C5:C384,"y")</f>
+        <v>206</v>
+      </c>
       <c r="D385" s="2"/>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="2:4">
       <c r="B386" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C386" s="6">
-        <f>COUNTIF(C5:C385,"y")</f>
-        <v>201</v>
+        <f>COUNTIF(C5:C384,"n")</f>
+        <v>119</v>
       </c>
       <c r="D386" s="2"/>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="2:4">
       <c r="B387" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C387" s="6">
-        <f>COUNTIF(C5:C385,"n")</f>
-        <v>125</v>
+        <v>2</v>
+      </c>
+      <c r="C387" s="7">
+        <f>COUNTIF(C5:C384,"TBD")</f>
+        <v>0</v>
       </c>
       <c r="D387" s="2"/>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="2:4">
       <c r="B388" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C388" s="7">
-        <f>COUNTIF(C5:C385,"TBD")</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C388">
+        <f>SUM(C385:C387)</f>
+        <v>325</v>
       </c>
       <c r="D388" s="2"/>
     </row>
-    <row r="389" spans="1:4">
-      <c r="B389" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C389">
-        <f>SUM(C386:C388)</f>
-        <v>326</v>
-      </c>
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390" spans="1:4" ht="18">
-      <c r="B390" s="10"/>
-      <c r="C390" s="10" t="s">
+    <row r="389" spans="2:4" ht="18">
+      <c r="B389" s="10"/>
+      <c r="C389" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D390" s="42">
-        <f>C386/(C387+C386 + C388)</f>
-        <v>0.6165644171779141</v>
+      <c r="D389" s="42">
+        <f>C385/(C386+C385 + C387)</f>
+        <v>0.63384615384615384</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C65346">
+  <conditionalFormatting sqref="C1:C3 C6:C65345">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -6013,7 +6001,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51:F53"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6299,13 +6287,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="12">
-        <v>42021</v>
+        <v>42022</v>
       </c>
       <c r="B50" s="4">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C50" s="4">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -6314,17 +6302,17 @@
         <v>0</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G50" s="31">
         <f t="shared" ref="G50:G53" si="1">B50/SUM(B50:E50)</f>
-        <v>0.6165644171779141</v>
+        <v>0.63384615384615384</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="12">
-        <v>42021</v>
+        <v>42022</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -6343,7 +6331,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="12">
-        <v>42021</v>
+        <v>42022</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -6362,7 +6350,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="12">
-        <v>42021</v>
+        <v>42022</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -6427,18 +6415,18 @@
     <row r="57" spans="1:10">
       <c r="A57" s="40">
         <f>SUM(B57:D57)</f>
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B57" s="16">
+        <f>Features!C385</f>
+        <v>206</v>
+      </c>
+      <c r="C57" s="17">
         <f>Features!C386</f>
-        <v>201</v>
-      </c>
-      <c r="C57" s="17">
+        <v>119</v>
+      </c>
+      <c r="D57" s="18">
         <f>Features!C387</f>
-        <v>125</v>
-      </c>
-      <c r="D57" s="18">
-        <f>Features!C388</f>
         <v>0</v>
       </c>
       <c r="E57" s="19">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="298">
   <si>
     <t>Feature</t>
   </si>
@@ -686,9 +686,6 @@
     <t>toDate</t>
   </si>
   <si>
-    <t>parseBase64</t>
-  </si>
-  <si>
     <t>encodeBase64</t>
   </si>
   <si>
@@ -900,6 +897,21 @@
   </si>
   <si>
     <t>addJob(source, target, filter)</t>
+  </si>
+  <si>
+    <t>addSource(src, filter)</t>
+  </si>
+  <si>
+    <t>getGui()</t>
+  </si>
+  <si>
+    <t>decodeBase64</t>
+  </si>
+  <si>
+    <t>encodeHex</t>
+  </si>
+  <si>
+    <t>decodeHex</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1165,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.919780713309584"/>
+          <c:w val="0.91978071330958422"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1186,10 +1198,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1197,26 +1209,17 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42022</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$53</c:f>
+              <c:f>Progress!$B$48:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1224,7 +1227,7 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,10 +1260,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1268,26 +1271,17 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42022</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$53</c:f>
+              <c:f>Progress!$C$48:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1295,7 +1289,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,10 +1322,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1339,26 +1333,17 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42022</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$53</c:f>
+              <c:f>Progress!$D$48:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1366,15 +1351,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1408,10 +1384,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1419,26 +1395,17 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42022</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$57</c:f>
+              <c:f>Progress!$E$48:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1448,19 +1415,10 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1690,7 +1648,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628749"/>
+          <c:y val="0.11628512537628752"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1741,10 +1699,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1752,26 +1710,17 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42022</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$53</c:f>
+              <c:f>Progress!$G$48:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1779,16 +1728,7 @@
                   <c:v>0.61202185792349728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63384615384615384</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.64437689969604861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1955,10 +1895,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1966,26 +1906,17 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42022</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$53</c:f>
+              <c:f>Progress!$C$48:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1993,7 +1924,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,10 +1957,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$53</c:f>
+              <c:f>Progress!$A$48:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -2037,26 +1968,17 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42022</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$53</c:f>
+              <c:f>Progress!$D$48:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2064,15 +1986,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2234,13 +2147,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2272,7 +2185,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2648,10 +2561,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D389"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C321" sqref="C321"/>
+    <sheetView topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2705,7 +2618,7 @@
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="4"/>
       <c r="B7" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -2715,7 +2628,7 @@
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="4"/>
       <c r="B8" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -2725,7 +2638,7 @@
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="4"/>
       <c r="B9" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -2735,7 +2648,7 @@
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="4"/>
       <c r="B10" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -2745,7 +2658,7 @@
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2755,7 +2668,7 @@
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="A12" s="4"/>
       <c r="B12" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -2765,7 +2678,7 @@
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -3000,7 +2913,7 @@
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>1</v>
@@ -3009,7 +2922,7 @@
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1">
       <c r="B41" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -3018,7 +2931,7 @@
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1">
       <c r="B42" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>1</v>
@@ -3347,7 +3260,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
@@ -3428,7 +3341,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>1</v>
@@ -3682,7 +3595,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>1</v>
@@ -3691,7 +3604,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>1</v>
@@ -3750,7 +3663,7 @@
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>13</v>
@@ -3759,7 +3672,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1</v>
@@ -3894,7 +3807,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="4"/>
@@ -3928,7 +3841,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>13</v>
@@ -3946,7 +3859,7 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>13</v>
@@ -4490,7 +4403,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>1</v>
@@ -4599,7 +4512,7 @@
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
       <c r="B225" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>1</v>
@@ -4617,7 +4530,7 @@
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
       <c r="B227" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>1</v>
@@ -4891,7 +4804,7 @@
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
       <c r="B261" s="23" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>1</v>
@@ -4900,16 +4813,16 @@
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
       <c r="B262" s="23" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D262" s="4"/>
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
       <c r="B263" s="23" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>1</v>
@@ -4918,7 +4831,7 @@
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="23" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>1</v>
@@ -4927,39 +4840,43 @@
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
       <c r="B265" s="23" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="C265" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="2:4" s="6" customFormat="1">
+      <c r="B266" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C266" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D265" s="4"/>
-    </row>
-    <row r="266" spans="2:4" s="6" customFormat="1">
-      <c r="B266" s="23"/>
-      <c r="C266" s="7"/>
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="23" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D268" s="4"/>
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
       <c r="B269" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>13</v>
@@ -4967,17 +4884,13 @@
       <c r="D269" s="4"/>
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B270" s="23"/>
+      <c r="C270" s="7"/>
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
       <c r="B271" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>13</v>
@@ -4986,7 +4899,7 @@
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
       <c r="B272" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>13</v>
@@ -4995,7 +4908,7 @@
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
       <c r="B273" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>13</v>
@@ -5004,7 +4917,7 @@
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
       <c r="B274" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>13</v>
@@ -5012,36 +4925,36 @@
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="23"/>
-      <c r="C275" s="7"/>
+      <c r="B275" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
-      <c r="B276" s="23"/>
-      <c r="C276" s="7"/>
+      <c r="B276" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D276" s="4"/>
     </row>
     <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="23"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="2:4" s="6" customFormat="1">
+      <c r="B278" s="23"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="2:4" s="6" customFormat="1">
+      <c r="B279" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D277" s="4"/>
-    </row>
-    <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D278" s="4"/>
-    </row>
-    <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="23" t="s">
-        <v>231</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>1</v>
@@ -5050,7 +4963,7 @@
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
       <c r="B280" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>1</v>
@@ -5059,7 +4972,7 @@
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
       <c r="B281" s="23" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>1</v>
@@ -5068,7 +4981,7 @@
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
       <c r="B282" s="23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>1</v>
@@ -5077,7 +4990,7 @@
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
       <c r="B283" s="23" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>1</v>
@@ -5086,7 +4999,7 @@
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
       <c r="B284" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>1</v>
@@ -5095,25 +5008,25 @@
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
       <c r="B285" s="23" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D285" s="4"/>
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="23" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
       <c r="B287" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>13</v>
@@ -5122,7 +5035,7 @@
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>13</v>
@@ -5131,7 +5044,7 @@
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
       <c r="B289" s="23" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>13</v>
@@ -5140,25 +5053,25 @@
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="23" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>1</v>
@@ -5176,25 +5089,25 @@
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
       <c r="B294" s="23" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
       <c r="B296" s="23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>13</v>
@@ -5202,72 +5115,72 @@
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="23"/>
-      <c r="C297" s="7"/>
+      <c r="B297" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="23"/>
-      <c r="C298" s="7"/>
+      <c r="B298" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="23"/>
+      <c r="C299" s="7"/>
+      <c r="D299" s="4"/>
+    </row>
+    <row r="300" spans="2:4" s="6" customFormat="1">
+      <c r="B300" s="23"/>
+      <c r="C300" s="7"/>
+      <c r="D300" s="4"/>
+    </row>
+    <row r="301" spans="2:4" s="6" customFormat="1">
+      <c r="B301" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C299" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D299" s="4"/>
-    </row>
-    <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D300" s="4"/>
-    </row>
-    <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="23" t="s">
-        <v>249</v>
-      </c>
       <c r="C301" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
       <c r="B302" s="23" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
       <c r="B303" s="23" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
       <c r="B304" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>1</v>
@@ -5276,7 +5189,7 @@
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="23" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>1</v>
@@ -5285,7 +5198,7 @@
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>1</v>
@@ -5303,7 +5216,7 @@
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
       <c r="B309" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>1</v>
@@ -5312,7 +5225,7 @@
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>1</v>
@@ -5320,36 +5233,36 @@
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="23"/>
-      <c r="C311" s="7"/>
+      <c r="B311" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="23"/>
-      <c r="C312" s="7"/>
+      <c r="B312" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B313" s="23"/>
+      <c r="C313" s="7"/>
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
-      <c r="B314" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B314" s="23"/>
+      <c r="C314" s="7"/>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="23" t="s">
-        <v>285</v>
+      <c r="B315" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>1</v>
@@ -5358,7 +5271,7 @@
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
       <c r="B316" s="23" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>1</v>
@@ -5367,7 +5280,7 @@
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="23" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>1</v>
@@ -5376,7 +5289,7 @@
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>1</v>
@@ -5394,7 +5307,7 @@
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="23" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>1</v>
@@ -5403,7 +5316,7 @@
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
       <c r="B321" s="23" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>1</v>
@@ -5411,18 +5324,26 @@
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
-      <c r="B322" s="23"/>
-      <c r="C322" s="7"/>
+      <c r="B322" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="21"/>
-      <c r="C323" s="7"/>
+      <c r="B323" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="3" t="s">
-        <v>34</v>
+      <c r="B324" s="23" t="s">
+        <v>286</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>1</v>
@@ -5431,106 +5352,98 @@
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
       <c r="B325" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D325" s="4"/>
+    </row>
+    <row r="326" spans="2:4" s="6" customFormat="1">
+      <c r="B326" s="23"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="4"/>
+    </row>
+    <row r="327" spans="2:4" s="6" customFormat="1">
+      <c r="B327" s="21"/>
+      <c r="C327" s="7"/>
+      <c r="D327" s="4"/>
+    </row>
+    <row r="328" spans="2:4" s="6" customFormat="1">
+      <c r="B328" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D328" s="4"/>
+    </row>
+    <row r="329" spans="2:4" s="6" customFormat="1">
+      <c r="B329" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C325" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D325" s="4"/>
-    </row>
-    <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="21" t="s">
+      <c r="C329" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D329" s="4"/>
+    </row>
+    <row r="330" spans="2:4" s="6" customFormat="1">
+      <c r="B330" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C326" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D326" s="4"/>
-    </row>
-    <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="21" t="s">
+      <c r="C330" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D330" s="4"/>
+    </row>
+    <row r="331" spans="2:4" s="6" customFormat="1">
+      <c r="B331" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C327" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D327" s="4"/>
-    </row>
-    <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="24" t="s">
+      <c r="C331" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D331" s="4"/>
+    </row>
+    <row r="332" spans="2:4" s="6" customFormat="1">
+      <c r="B332" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C328" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D328" s="4"/>
-    </row>
-    <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D329" s="4"/>
-    </row>
-    <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D330" s="4"/>
-    </row>
-    <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C331" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D331" s="4"/>
-    </row>
-    <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="21" t="s">
-        <v>148</v>
-      </c>
       <c r="C332" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
       <c r="B333" s="24" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="25" t="s">
-        <v>149</v>
+      <c r="B334" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="25" t="s">
-        <v>150</v>
+      <c r="B335" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="24" t="s">
-        <v>132</v>
+      <c r="B336" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>13</v>
@@ -5538,8 +5451,8 @@
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="25" t="s">
-        <v>65</v>
+      <c r="B337" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>13</v>
@@ -5547,8 +5460,8 @@
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="44" t="s">
-        <v>67</v>
+      <c r="B338" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>13</v>
@@ -5556,8 +5469,8 @@
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="44" t="s">
-        <v>151</v>
+      <c r="B339" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>13</v>
@@ -5565,8 +5478,8 @@
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="25" t="s">
-        <v>153</v>
+      <c r="B340" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>13</v>
@@ -5575,7 +5488,7 @@
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
       <c r="B341" s="25" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>13</v>
@@ -5583,8 +5496,8 @@
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="21" t="s">
-        <v>154</v>
+      <c r="B342" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>13</v>
@@ -5592,8 +5505,8 @@
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="24" t="s">
-        <v>32</v>
+      <c r="B343" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>13</v>
@@ -5602,7 +5515,7 @@
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
       <c r="B344" s="25" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>13</v>
@@ -5611,7 +5524,7 @@
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
       <c r="B345" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>13</v>
@@ -5619,8 +5532,8 @@
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="24" t="s">
-        <v>132</v>
+      <c r="B346" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>13</v>
@@ -5628,8 +5541,8 @@
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="25" t="s">
-        <v>65</v>
+      <c r="B347" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>13</v>
@@ -5637,8 +5550,8 @@
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="44" t="s">
-        <v>67</v>
+      <c r="B348" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>13</v>
@@ -5646,8 +5559,8 @@
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="44" t="s">
-        <v>151</v>
+      <c r="B349" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>13</v>
@@ -5655,8 +5568,8 @@
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="25" t="s">
-        <v>156</v>
+      <c r="B350" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>13</v>
@@ -5665,7 +5578,7 @@
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
       <c r="B351" s="25" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>13</v>
@@ -5673,8 +5586,8 @@
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="25" t="s">
-        <v>158</v>
+      <c r="B352" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>13</v>
@@ -5682,104 +5595,104 @@
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="21" t="s">
+      <c r="B353" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="2:4" s="6" customFormat="1">
+      <c r="B355" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="2:4" s="6" customFormat="1">
+      <c r="B357" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C353" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="24" t="s">
+      <c r="C357" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="2:4" s="6" customFormat="1">
+      <c r="B358" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C354" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="24" t="s">
+      <c r="C358" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C355" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="20"/>
-      <c r="C356" s="7"/>
-      <c r="D356" s="4"/>
-    </row>
-    <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C358" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="21"/>
-      <c r="C359" s="7"/>
+      <c r="C359" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="21"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="3" t="s">
+      <c r="B361" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="2:4" s="6" customFormat="1">
+      <c r="B362" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D362" s="4"/>
+    </row>
+    <row r="363" spans="2:4" s="6" customFormat="1">
+      <c r="B363" s="21"/>
+      <c r="C363" s="7"/>
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="2:4" s="6" customFormat="1">
+      <c r="B364" s="21"/>
+      <c r="C364" s="7"/>
+      <c r="D364" s="4"/>
+    </row>
+    <row r="365" spans="2:4" s="6" customFormat="1">
+      <c r="B365" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D362" s="4"/>
-    </row>
-    <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C363" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D363" s="4"/>
-    </row>
-    <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D364" s="4"/>
-    </row>
-    <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="23" t="s">
-        <v>30</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>13</v>
@@ -5787,194 +5700,230 @@
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="23"/>
-      <c r="C366" s="7"/>
+      <c r="B366" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="23"/>
-      <c r="C367" s="7"/>
+      <c r="B367" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="3" t="s">
+      <c r="B368" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="2:4" s="6" customFormat="1">
+      <c r="B369" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="2:4" s="6" customFormat="1">
+      <c r="B370" s="23"/>
+      <c r="C370" s="7"/>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="2:4" s="6" customFormat="1">
+      <c r="B371" s="23"/>
+      <c r="C371" s="7"/>
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="2:4" s="6" customFormat="1">
+      <c r="B372" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C368" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D368" s="4"/>
-    </row>
-    <row r="369" spans="1:4" s="6" customFormat="1">
-      <c r="B369" s="23" t="s">
+      <c r="C372" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="2:4" s="6" customFormat="1">
+      <c r="B373" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C369" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D369" s="4"/>
-    </row>
-    <row r="370" spans="1:4" s="6" customFormat="1">
-      <c r="B370" s="23" t="s">
+      <c r="C373" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D373" s="4"/>
+    </row>
+    <row r="374" spans="2:4" s="6" customFormat="1">
+      <c r="B374" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C370" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D370" s="4"/>
-    </row>
-    <row r="371" spans="1:4" s="6" customFormat="1">
-      <c r="B371" s="22"/>
-      <c r="C371" s="4"/>
-      <c r="D371" s="4"/>
-    </row>
-    <row r="372" spans="1:4" s="6" customFormat="1">
-      <c r="B372" s="20"/>
-      <c r="C372" s="4"/>
-      <c r="D372" s="4"/>
-    </row>
-    <row r="373" spans="1:4" s="6" customFormat="1">
-      <c r="B373" s="3" t="s">
+      <c r="C374" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D374" s="4"/>
+    </row>
+    <row r="375" spans="2:4" s="6" customFormat="1">
+      <c r="B375" s="22"/>
+      <c r="C375" s="4"/>
+      <c r="D375" s="4"/>
+    </row>
+    <row r="376" spans="2:4" s="6" customFormat="1">
+      <c r="B376" s="20"/>
+      <c r="C376" s="4"/>
+      <c r="D376" s="4"/>
+    </row>
+    <row r="377" spans="2:4" s="6" customFormat="1">
+      <c r="B377" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C373" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D373" s="4"/>
-    </row>
-    <row r="374" spans="1:4" s="6" customFormat="1">
-      <c r="B374" s="22" t="s">
+      <c r="C377" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="2:4" s="6" customFormat="1">
+      <c r="B378" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C374" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D374" s="4"/>
-    </row>
-    <row r="375" spans="1:4" s="6" customFormat="1">
-      <c r="B375" s="23" t="s">
+      <c r="C378" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D378" s="4"/>
+    </row>
+    <row r="379" spans="2:4" s="6" customFormat="1">
+      <c r="B379" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C375" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D375" s="4"/>
-    </row>
-    <row r="376" spans="1:4" s="6" customFormat="1">
-      <c r="B376" s="23"/>
-      <c r="C376" s="9"/>
-      <c r="D376" s="4"/>
-    </row>
-    <row r="377" spans="1:4" s="6" customFormat="1">
-      <c r="B377" s="20"/>
-      <c r="C377" s="4"/>
-      <c r="D377" s="4"/>
-    </row>
-    <row r="378" spans="1:4" s="6" customFormat="1">
-      <c r="B378" s="3" t="s">
+      <c r="C379" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="23"/>
+      <c r="C380" s="9"/>
+      <c r="D380" s="4"/>
+    </row>
+    <row r="381" spans="2:4" s="6" customFormat="1">
+      <c r="B381" s="20"/>
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+    </row>
+    <row r="382" spans="2:4" s="6" customFormat="1">
+      <c r="B382" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C378" s="7" t="s">
+      <c r="C382" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D378" s="4"/>
-    </row>
-    <row r="379" spans="1:4" s="6" customFormat="1">
-      <c r="B379" s="22" t="s">
+      <c r="D382" s="4"/>
+    </row>
+    <row r="383" spans="2:4" s="6" customFormat="1">
+      <c r="B383" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C379" s="7" t="s">
+      <c r="C383" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="1:4" s="6" customFormat="1">
-      <c r="B380" s="22" t="s">
+      <c r="D383" s="4"/>
+    </row>
+    <row r="384" spans="2:4" s="6" customFormat="1">
+      <c r="B384" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C380" s="7" t="s">
+      <c r="C384" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D380" s="4"/>
-    </row>
-    <row r="381" spans="1:4" s="6" customFormat="1">
-      <c r="B381" s="22" t="s">
+      <c r="D384" s="4"/>
+    </row>
+    <row r="385" spans="1:4" s="6" customFormat="1">
+      <c r="B385" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C381" s="7" t="s">
+      <c r="C385" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D381" s="4"/>
-    </row>
-    <row r="382" spans="1:4" s="6" customFormat="1">
-      <c r="B382" s="22"/>
-      <c r="C382" s="4"/>
-      <c r="D382" s="4"/>
-    </row>
-    <row r="383" spans="1:4" s="6" customFormat="1">
-      <c r="B383" s="22"/>
-      <c r="C383" s="4"/>
-      <c r="D383" s="4"/>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="11"/>
-      <c r="B384" s="11"/>
-      <c r="C384" s="11"/>
-      <c r="D384" s="2"/>
-    </row>
-    <row r="385" spans="2:4">
-      <c r="B385" s="8" t="s">
+      <c r="D385" s="4"/>
+    </row>
+    <row r="386" spans="1:4" s="6" customFormat="1">
+      <c r="B386" s="22"/>
+      <c r="C386" s="4"/>
+      <c r="D386" s="4"/>
+    </row>
+    <row r="387" spans="1:4" s="6" customFormat="1">
+      <c r="B387" s="22"/>
+      <c r="C387" s="4"/>
+      <c r="D387" s="4"/>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="11"/>
+      <c r="B388" s="11"/>
+      <c r="C388" s="11"/>
+      <c r="D388" s="2"/>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="B389" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C385" s="6">
-        <f>COUNTIF(C5:C384,"y")</f>
-        <v>206</v>
-      </c>
-      <c r="D385" s="2"/>
-    </row>
-    <row r="386" spans="2:4">
-      <c r="B386" s="8" t="s">
+      <c r="C389" s="6">
+        <f>COUNTIF(C5:C388,"y")</f>
+        <v>212</v>
+      </c>
+      <c r="D389" s="2"/>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="B390" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C386" s="6">
-        <f>COUNTIF(C5:C384,"n")</f>
-        <v>119</v>
-      </c>
-      <c r="D386" s="2"/>
-    </row>
-    <row r="387" spans="2:4">
-      <c r="B387" s="8" t="s">
+      <c r="C390" s="6">
+        <f>COUNTIF(C5:C388,"n")</f>
+        <v>117</v>
+      </c>
+      <c r="D390" s="2"/>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="B391" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C387" s="7">
-        <f>COUNTIF(C5:C384,"TBD")</f>
+      <c r="C391" s="7">
+        <f>COUNTIF(C5:C388,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D387" s="2"/>
-    </row>
-    <row r="388" spans="2:4">
-      <c r="B388" s="8" t="s">
+      <c r="D391" s="2"/>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="B392" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C388">
-        <f>SUM(C385:C387)</f>
-        <v>325</v>
-      </c>
-      <c r="D388" s="2"/>
-    </row>
-    <row r="389" spans="2:4" ht="18">
-      <c r="B389" s="10"/>
-      <c r="C389" s="10" t="s">
+      <c r="C392">
+        <f>SUM(C389:C391)</f>
+        <v>329</v>
+      </c>
+      <c r="D392" s="2"/>
+    </row>
+    <row r="393" spans="1:4" ht="18">
+      <c r="B393" s="10"/>
+      <c r="C393" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D389" s="42">
-        <f>C385/(C386+C385 + C387)</f>
-        <v>0.63384615384615384</v>
+      <c r="D393" s="42">
+        <f>C389/(C390+C389 + C391)</f>
+        <v>0.64437689969604861</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C65345">
+  <conditionalFormatting sqref="C1:C3 C6:C65349">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5996,12 +5945,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT867"/>
+  <dimension ref="A1:IT864"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6022,7 +5971,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6287,13 +6236,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="12">
-        <v>42022</v>
+        <v>42023</v>
       </c>
       <c r="B50" s="4">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C50" s="4">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -6302,150 +6251,123 @@
         <v>0</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G50" s="31">
-        <f t="shared" ref="G50:G53" si="1">B50/SUM(B50:E50)</f>
-        <v>0.63384615384615384</v>
+        <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
+        <v>0.64437689969604861</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="12">
-        <v>42022</v>
-      </c>
+      <c r="A51" s="12"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="29"/>
-      <c r="G51" s="31" t="e">
-        <f t="shared" ref="G51:G52" si="2">B51/SUM(B51:E51)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G51" s="31"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="12">
-        <v>42022</v>
-      </c>
+      <c r="A52" s="12"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="4">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="39">
+        <f>G50</f>
+        <v>0.64437689969604861</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="40">
+        <f>SUM(B54:D54)</f>
+        <v>329</v>
+      </c>
+      <c r="B54" s="16">
+        <f>Features!C389</f>
+        <v>212</v>
+      </c>
+      <c r="C54" s="17">
+        <f>Features!C390</f>
+        <v>117</v>
+      </c>
+      <c r="D54" s="18">
+        <f>Features!C391</f>
         <v>0</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E54" s="19">
         <v>0</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="12">
-        <v>42022</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="31" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="12"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="29"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="31"/>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="12"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="32"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="31"/>
       <c r="H55" s="7"/>
+      <c r="J55" s="37"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="39" t="e">
-        <f>MIN(G53)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="31"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="40">
-        <f>SUM(B57:D57)</f>
-        <v>325</v>
-      </c>
-      <c r="B57" s="16">
-        <f>Features!C385</f>
-        <v>206</v>
-      </c>
-      <c r="C57" s="17">
-        <f>Features!C386</f>
-        <v>119</v>
-      </c>
-      <c r="D57" s="18">
-        <f>Features!C387</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="19">
-        <v>0</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="31"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4"/>
-      <c r="B58" s="20"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="31"/>
       <c r="H58" s="7"/>
-      <c r="J58" s="37"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4"/>
@@ -6469,7 +6391,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6489,7 +6411,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="4"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6499,7 +6421,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -6509,7 +6431,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6519,7 +6441,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -6528,8 +6450,8 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="4"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -6538,8 +6460,8 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="4"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -6548,8 +6470,8 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="4"/>
-      <c r="B69" s="21"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -6559,7 +6481,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7"/>
-      <c r="B70" s="21"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -6670,7 +6592,7 @@
     <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="4"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -6679,43 +6601,43 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="4"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="31"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
+    <row r="83" spans="1:8" s="2" customFormat="1">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="7"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="7"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" s="2" customFormat="1">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" s="2" customFormat="1">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" s="2" customFormat="1">
       <c r="A86" s="4"/>
@@ -6869,7 +6791,7 @@
     </row>
     <row r="101" spans="1:8" s="2" customFormat="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -6899,7 +6821,7 @@
     </row>
     <row r="104" spans="1:8" s="2" customFormat="1">
       <c r="A104" s="4"/>
-      <c r="B104" s="6"/>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -6909,7 +6831,7 @@
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -6919,7 +6841,7 @@
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1">
       <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -6929,7 +6851,7 @@
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1">
       <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -6949,7 +6871,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="20"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -6959,7 +6881,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="20"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -6969,7 +6891,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="20"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -6979,7 +6901,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="22"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -6989,7 +6911,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6999,7 +6921,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="6"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -7019,7 +6941,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="20"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -7029,7 +6951,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="20"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -7069,7 +6991,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -7079,7 +7001,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -7089,7 +7011,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -7147,7 +7069,7 @@
       <c r="G128" s="35"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" s="2" customFormat="1">
+    <row r="129" spans="1:254" s="2" customFormat="1">
       <c r="A129" s="4"/>
       <c r="B129" s="20"/>
       <c r="C129" s="4"/>
@@ -7157,7 +7079,7 @@
       <c r="G129" s="35"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" s="2" customFormat="1">
+    <row r="130" spans="1:254" s="2" customFormat="1">
       <c r="A130" s="4"/>
       <c r="B130" s="20"/>
       <c r="C130" s="4"/>
@@ -7167,9 +7089,9 @@
       <c r="G130" s="35"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" s="2" customFormat="1">
+    <row r="131" spans="1:254" s="2" customFormat="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="20"/>
+      <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -7177,9 +7099,9 @@
       <c r="G131" s="35"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1">
+    <row r="132" spans="1:254" s="2" customFormat="1">
       <c r="A132" s="4"/>
-      <c r="B132" s="20"/>
+      <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -7187,9 +7109,9 @@
       <c r="G132" s="35"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1">
+    <row r="133" spans="1:254" s="2" customFormat="1">
       <c r="A133" s="4"/>
-      <c r="B133" s="20"/>
+      <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -7197,7 +7119,7 @@
       <c r="G133" s="35"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:8" s="2" customFormat="1">
+    <row r="134" spans="1:254" s="2" customFormat="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -7207,7 +7129,7 @@
       <c r="G134" s="35"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" s="2" customFormat="1">
+    <row r="135" spans="1:254" s="2" customFormat="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -7217,9 +7139,9 @@
       <c r="G135" s="35"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8" s="2" customFormat="1">
+    <row r="136" spans="1:254" s="2" customFormat="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -7227,9 +7149,9 @@
       <c r="G136" s="35"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8" s="2" customFormat="1">
+    <row r="137" spans="1:254" s="2" customFormat="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -7237,7 +7159,7 @@
       <c r="G137" s="35"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1">
+    <row r="138" spans="1:254" s="2" customFormat="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -7247,9 +7169,9 @@
       <c r="G138" s="35"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1">
+    <row r="139" spans="1:254" s="2" customFormat="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="20"/>
+      <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -7257,9 +7179,9 @@
       <c r="G139" s="35"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:8" s="2" customFormat="1">
+    <row r="140" spans="1:254" s="2" customFormat="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="20"/>
+      <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -7267,7 +7189,7 @@
       <c r="G140" s="35"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:8" s="2" customFormat="1">
+    <row r="141" spans="1:254" s="2" customFormat="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -7277,17 +7199,263 @@
       <c r="G141" s="35"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="1:8" s="2" customFormat="1">
+    <row r="142" spans="1:254" s="2" customFormat="1">
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="5"/>
+      <c r="AG142" s="5"/>
+      <c r="AH142" s="5"/>
+      <c r="AI142" s="5"/>
+      <c r="AJ142" s="5"/>
+      <c r="AK142" s="5"/>
+      <c r="AL142" s="5"/>
+      <c r="AM142" s="5"/>
+      <c r="AN142" s="5"/>
+      <c r="AO142" s="5"/>
+      <c r="AP142" s="5"/>
+      <c r="AQ142" s="5"/>
+      <c r="AR142" s="5"/>
+      <c r="AS142" s="5"/>
+      <c r="AT142" s="5"/>
+      <c r="AU142" s="5"/>
+      <c r="AV142" s="5"/>
+      <c r="AW142" s="5"/>
+      <c r="AX142" s="5"/>
+      <c r="AY142" s="5"/>
+      <c r="AZ142" s="5"/>
+      <c r="BA142" s="5"/>
+      <c r="BB142" s="5"/>
+      <c r="BC142" s="5"/>
+      <c r="BD142" s="5"/>
+      <c r="BE142" s="5"/>
+      <c r="BF142" s="5"/>
+      <c r="BG142" s="5"/>
+      <c r="BH142" s="5"/>
+      <c r="BI142" s="5"/>
+      <c r="BJ142" s="5"/>
+      <c r="BK142" s="5"/>
+      <c r="BL142" s="5"/>
+      <c r="BM142" s="5"/>
+      <c r="BN142" s="5"/>
+      <c r="BO142" s="5"/>
+      <c r="BP142" s="5"/>
+      <c r="BQ142" s="5"/>
+      <c r="BR142" s="5"/>
+      <c r="BS142" s="5"/>
+      <c r="BT142" s="5"/>
+      <c r="BU142" s="5"/>
+      <c r="BV142" s="5"/>
+      <c r="BW142" s="5"/>
+      <c r="BX142" s="5"/>
+      <c r="BY142" s="5"/>
+      <c r="BZ142" s="5"/>
+      <c r="CA142" s="5"/>
+      <c r="CB142" s="5"/>
+      <c r="CC142" s="5"/>
+      <c r="CD142" s="5"/>
+      <c r="CE142" s="5"/>
+      <c r="CF142" s="5"/>
+      <c r="CG142" s="5"/>
+      <c r="CH142" s="5"/>
+      <c r="CI142" s="5"/>
+      <c r="CJ142" s="5"/>
+      <c r="CK142" s="5"/>
+      <c r="CL142" s="5"/>
+      <c r="CM142" s="5"/>
+      <c r="CN142" s="5"/>
+      <c r="CO142" s="5"/>
+      <c r="CP142" s="5"/>
+      <c r="CQ142" s="5"/>
+      <c r="CR142" s="5"/>
+      <c r="CS142" s="5"/>
+      <c r="CT142" s="5"/>
+      <c r="CU142" s="5"/>
+      <c r="CV142" s="5"/>
+      <c r="CW142" s="5"/>
+      <c r="CX142" s="5"/>
+      <c r="CY142" s="5"/>
+      <c r="CZ142" s="5"/>
+      <c r="DA142" s="5"/>
+      <c r="DB142" s="5"/>
+      <c r="DC142" s="5"/>
+      <c r="DD142" s="5"/>
+      <c r="DE142" s="5"/>
+      <c r="DF142" s="5"/>
+      <c r="DG142" s="5"/>
+      <c r="DH142" s="5"/>
+      <c r="DI142" s="5"/>
+      <c r="DJ142" s="5"/>
+      <c r="DK142" s="5"/>
+      <c r="DL142" s="5"/>
+      <c r="DM142" s="5"/>
+      <c r="DN142" s="5"/>
+      <c r="DO142" s="5"/>
+      <c r="DP142" s="5"/>
+      <c r="DQ142" s="5"/>
+      <c r="DR142" s="5"/>
+      <c r="DS142" s="5"/>
+      <c r="DT142" s="5"/>
+      <c r="DU142" s="5"/>
+      <c r="DV142" s="5"/>
+      <c r="DW142" s="5"/>
+      <c r="DX142" s="5"/>
+      <c r="DY142" s="5"/>
+      <c r="DZ142" s="5"/>
+      <c r="EA142" s="5"/>
+      <c r="EB142" s="5"/>
+      <c r="EC142" s="5"/>
+      <c r="ED142" s="5"/>
+      <c r="EE142" s="5"/>
+      <c r="EF142" s="5"/>
+      <c r="EG142" s="5"/>
+      <c r="EH142" s="5"/>
+      <c r="EI142" s="5"/>
+      <c r="EJ142" s="5"/>
+      <c r="EK142" s="5"/>
+      <c r="EL142" s="5"/>
+      <c r="EM142" s="5"/>
+      <c r="EN142" s="5"/>
+      <c r="EO142" s="5"/>
+      <c r="EP142" s="5"/>
+      <c r="EQ142" s="5"/>
+      <c r="ER142" s="5"/>
+      <c r="ES142" s="5"/>
+      <c r="ET142" s="5"/>
+      <c r="EU142" s="5"/>
+      <c r="EV142" s="5"/>
+      <c r="EW142" s="5"/>
+      <c r="EX142" s="5"/>
+      <c r="EY142" s="5"/>
+      <c r="EZ142" s="5"/>
+      <c r="FA142" s="5"/>
+      <c r="FB142" s="5"/>
+      <c r="FC142" s="5"/>
+      <c r="FD142" s="5"/>
+      <c r="FE142" s="5"/>
+      <c r="FF142" s="5"/>
+      <c r="FG142" s="5"/>
+      <c r="FH142" s="5"/>
+      <c r="FI142" s="5"/>
+      <c r="FJ142" s="5"/>
+      <c r="FK142" s="5"/>
+      <c r="FL142" s="5"/>
+      <c r="FM142" s="5"/>
+      <c r="FN142" s="5"/>
+      <c r="FO142" s="5"/>
+      <c r="FP142" s="5"/>
+      <c r="FQ142" s="5"/>
+      <c r="FR142" s="5"/>
+      <c r="FS142" s="5"/>
+      <c r="FT142" s="5"/>
+      <c r="FU142" s="5"/>
+      <c r="FV142" s="5"/>
+      <c r="FW142" s="5"/>
+      <c r="FX142" s="5"/>
+      <c r="FY142" s="5"/>
+      <c r="FZ142" s="5"/>
+      <c r="GA142" s="5"/>
+      <c r="GB142" s="5"/>
+      <c r="GC142" s="5"/>
+      <c r="GD142" s="5"/>
+      <c r="GE142" s="5"/>
+      <c r="GF142" s="5"/>
+      <c r="GG142" s="5"/>
+      <c r="GH142" s="5"/>
+      <c r="GI142" s="5"/>
+      <c r="GJ142" s="5"/>
+      <c r="GK142" s="5"/>
+      <c r="GL142" s="5"/>
+      <c r="GM142" s="5"/>
+      <c r="GN142" s="5"/>
+      <c r="GO142" s="5"/>
+      <c r="GP142" s="5"/>
+      <c r="GQ142" s="5"/>
+      <c r="GR142" s="5"/>
+      <c r="GS142" s="5"/>
+      <c r="GT142" s="5"/>
+      <c r="GU142" s="5"/>
+      <c r="GV142" s="5"/>
+      <c r="GW142" s="5"/>
+      <c r="GX142" s="5"/>
+      <c r="GY142" s="5"/>
+      <c r="GZ142" s="5"/>
+      <c r="HA142" s="5"/>
+      <c r="HB142" s="5"/>
+      <c r="HC142" s="5"/>
+      <c r="HD142" s="5"/>
+      <c r="HE142" s="5"/>
+      <c r="HF142" s="5"/>
+      <c r="HG142" s="5"/>
+      <c r="HH142" s="5"/>
+      <c r="HI142" s="5"/>
+      <c r="HJ142" s="5"/>
+      <c r="HK142" s="5"/>
+      <c r="HL142" s="5"/>
+      <c r="HM142" s="5"/>
+      <c r="HN142" s="5"/>
+      <c r="HO142" s="5"/>
+      <c r="HP142" s="5"/>
+      <c r="HQ142" s="5"/>
+      <c r="HR142" s="5"/>
+      <c r="HS142" s="5"/>
+      <c r="HT142" s="5"/>
+      <c r="HU142" s="5"/>
+      <c r="HV142" s="5"/>
+      <c r="HW142" s="5"/>
+      <c r="HX142" s="5"/>
+      <c r="HY142" s="5"/>
+      <c r="HZ142" s="5"/>
+      <c r="IA142" s="5"/>
+      <c r="IB142" s="5"/>
+      <c r="IC142" s="5"/>
+      <c r="ID142" s="5"/>
+      <c r="IE142" s="5"/>
+      <c r="IF142" s="5"/>
+      <c r="IG142" s="5"/>
+      <c r="IH142" s="5"/>
+      <c r="II142" s="5"/>
+      <c r="IJ142" s="5"/>
+      <c r="IK142" s="5"/>
+      <c r="IL142" s="5"/>
+      <c r="IM142" s="5"/>
+      <c r="IN142" s="5"/>
+      <c r="IO142" s="5"/>
+      <c r="IP142" s="5"/>
+      <c r="IQ142" s="5"/>
+      <c r="IR142" s="5"/>
+      <c r="IS142" s="5"/>
+      <c r="IT142" s="5"/>
+    </row>
+    <row r="143" spans="1:254" s="2" customFormat="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -7297,285 +7465,39 @@
       <c r="G143" s="35"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" s="2" customFormat="1">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="1:254" s="2" customFormat="1">
-      <c r="A145" s="22"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="22"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5"/>
-      <c r="V145" s="5"/>
-      <c r="W145" s="5"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
-      <c r="Z145" s="5"/>
-      <c r="AA145" s="5"/>
-      <c r="AB145" s="5"/>
-      <c r="AC145" s="5"/>
-      <c r="AD145" s="5"/>
-      <c r="AE145" s="5"/>
-      <c r="AF145" s="5"/>
-      <c r="AG145" s="5"/>
-      <c r="AH145" s="5"/>
-      <c r="AI145" s="5"/>
-      <c r="AJ145" s="5"/>
-      <c r="AK145" s="5"/>
-      <c r="AL145" s="5"/>
-      <c r="AM145" s="5"/>
-      <c r="AN145" s="5"/>
-      <c r="AO145" s="5"/>
-      <c r="AP145" s="5"/>
-      <c r="AQ145" s="5"/>
-      <c r="AR145" s="5"/>
-      <c r="AS145" s="5"/>
-      <c r="AT145" s="5"/>
-      <c r="AU145" s="5"/>
-      <c r="AV145" s="5"/>
-      <c r="AW145" s="5"/>
-      <c r="AX145" s="5"/>
-      <c r="AY145" s="5"/>
-      <c r="AZ145" s="5"/>
-      <c r="BA145" s="5"/>
-      <c r="BB145" s="5"/>
-      <c r="BC145" s="5"/>
-      <c r="BD145" s="5"/>
-      <c r="BE145" s="5"/>
-      <c r="BF145" s="5"/>
-      <c r="BG145" s="5"/>
-      <c r="BH145" s="5"/>
-      <c r="BI145" s="5"/>
-      <c r="BJ145" s="5"/>
-      <c r="BK145" s="5"/>
-      <c r="BL145" s="5"/>
-      <c r="BM145" s="5"/>
-      <c r="BN145" s="5"/>
-      <c r="BO145" s="5"/>
-      <c r="BP145" s="5"/>
-      <c r="BQ145" s="5"/>
-      <c r="BR145" s="5"/>
-      <c r="BS145" s="5"/>
-      <c r="BT145" s="5"/>
-      <c r="BU145" s="5"/>
-      <c r="BV145" s="5"/>
-      <c r="BW145" s="5"/>
-      <c r="BX145" s="5"/>
-      <c r="BY145" s="5"/>
-      <c r="BZ145" s="5"/>
-      <c r="CA145" s="5"/>
-      <c r="CB145" s="5"/>
-      <c r="CC145" s="5"/>
-      <c r="CD145" s="5"/>
-      <c r="CE145" s="5"/>
-      <c r="CF145" s="5"/>
-      <c r="CG145" s="5"/>
-      <c r="CH145" s="5"/>
-      <c r="CI145" s="5"/>
-      <c r="CJ145" s="5"/>
-      <c r="CK145" s="5"/>
-      <c r="CL145" s="5"/>
-      <c r="CM145" s="5"/>
-      <c r="CN145" s="5"/>
-      <c r="CO145" s="5"/>
-      <c r="CP145" s="5"/>
-      <c r="CQ145" s="5"/>
-      <c r="CR145" s="5"/>
-      <c r="CS145" s="5"/>
-      <c r="CT145" s="5"/>
-      <c r="CU145" s="5"/>
-      <c r="CV145" s="5"/>
-      <c r="CW145" s="5"/>
-      <c r="CX145" s="5"/>
-      <c r="CY145" s="5"/>
-      <c r="CZ145" s="5"/>
-      <c r="DA145" s="5"/>
-      <c r="DB145" s="5"/>
-      <c r="DC145" s="5"/>
-      <c r="DD145" s="5"/>
-      <c r="DE145" s="5"/>
-      <c r="DF145" s="5"/>
-      <c r="DG145" s="5"/>
-      <c r="DH145" s="5"/>
-      <c r="DI145" s="5"/>
-      <c r="DJ145" s="5"/>
-      <c r="DK145" s="5"/>
-      <c r="DL145" s="5"/>
-      <c r="DM145" s="5"/>
-      <c r="DN145" s="5"/>
-      <c r="DO145" s="5"/>
-      <c r="DP145" s="5"/>
-      <c r="DQ145" s="5"/>
-      <c r="DR145" s="5"/>
-      <c r="DS145" s="5"/>
-      <c r="DT145" s="5"/>
-      <c r="DU145" s="5"/>
-      <c r="DV145" s="5"/>
-      <c r="DW145" s="5"/>
-      <c r="DX145" s="5"/>
-      <c r="DY145" s="5"/>
-      <c r="DZ145" s="5"/>
-      <c r="EA145" s="5"/>
-      <c r="EB145" s="5"/>
-      <c r="EC145" s="5"/>
-      <c r="ED145" s="5"/>
-      <c r="EE145" s="5"/>
-      <c r="EF145" s="5"/>
-      <c r="EG145" s="5"/>
-      <c r="EH145" s="5"/>
-      <c r="EI145" s="5"/>
-      <c r="EJ145" s="5"/>
-      <c r="EK145" s="5"/>
-      <c r="EL145" s="5"/>
-      <c r="EM145" s="5"/>
-      <c r="EN145" s="5"/>
-      <c r="EO145" s="5"/>
-      <c r="EP145" s="5"/>
-      <c r="EQ145" s="5"/>
-      <c r="ER145" s="5"/>
-      <c r="ES145" s="5"/>
-      <c r="ET145" s="5"/>
-      <c r="EU145" s="5"/>
-      <c r="EV145" s="5"/>
-      <c r="EW145" s="5"/>
-      <c r="EX145" s="5"/>
-      <c r="EY145" s="5"/>
-      <c r="EZ145" s="5"/>
-      <c r="FA145" s="5"/>
-      <c r="FB145" s="5"/>
-      <c r="FC145" s="5"/>
-      <c r="FD145" s="5"/>
-      <c r="FE145" s="5"/>
-      <c r="FF145" s="5"/>
-      <c r="FG145" s="5"/>
-      <c r="FH145" s="5"/>
-      <c r="FI145" s="5"/>
-      <c r="FJ145" s="5"/>
-      <c r="FK145" s="5"/>
-      <c r="FL145" s="5"/>
-      <c r="FM145" s="5"/>
-      <c r="FN145" s="5"/>
-      <c r="FO145" s="5"/>
-      <c r="FP145" s="5"/>
-      <c r="FQ145" s="5"/>
-      <c r="FR145" s="5"/>
-      <c r="FS145" s="5"/>
-      <c r="FT145" s="5"/>
-      <c r="FU145" s="5"/>
-      <c r="FV145" s="5"/>
-      <c r="FW145" s="5"/>
-      <c r="FX145" s="5"/>
-      <c r="FY145" s="5"/>
-      <c r="FZ145" s="5"/>
-      <c r="GA145" s="5"/>
-      <c r="GB145" s="5"/>
-      <c r="GC145" s="5"/>
-      <c r="GD145" s="5"/>
-      <c r="GE145" s="5"/>
-      <c r="GF145" s="5"/>
-      <c r="GG145" s="5"/>
-      <c r="GH145" s="5"/>
-      <c r="GI145" s="5"/>
-      <c r="GJ145" s="5"/>
-      <c r="GK145" s="5"/>
-      <c r="GL145" s="5"/>
-      <c r="GM145" s="5"/>
-      <c r="GN145" s="5"/>
-      <c r="GO145" s="5"/>
-      <c r="GP145" s="5"/>
-      <c r="GQ145" s="5"/>
-      <c r="GR145" s="5"/>
-      <c r="GS145" s="5"/>
-      <c r="GT145" s="5"/>
-      <c r="GU145" s="5"/>
-      <c r="GV145" s="5"/>
-      <c r="GW145" s="5"/>
-      <c r="GX145" s="5"/>
-      <c r="GY145" s="5"/>
-      <c r="GZ145" s="5"/>
-      <c r="HA145" s="5"/>
-      <c r="HB145" s="5"/>
-      <c r="HC145" s="5"/>
-      <c r="HD145" s="5"/>
-      <c r="HE145" s="5"/>
-      <c r="HF145" s="5"/>
-      <c r="HG145" s="5"/>
-      <c r="HH145" s="5"/>
-      <c r="HI145" s="5"/>
-      <c r="HJ145" s="5"/>
-      <c r="HK145" s="5"/>
-      <c r="HL145" s="5"/>
-      <c r="HM145" s="5"/>
-      <c r="HN145" s="5"/>
-      <c r="HO145" s="5"/>
-      <c r="HP145" s="5"/>
-      <c r="HQ145" s="5"/>
-      <c r="HR145" s="5"/>
-      <c r="HS145" s="5"/>
-      <c r="HT145" s="5"/>
-      <c r="HU145" s="5"/>
-      <c r="HV145" s="5"/>
-      <c r="HW145" s="5"/>
-      <c r="HX145" s="5"/>
-      <c r="HY145" s="5"/>
-      <c r="HZ145" s="5"/>
-      <c r="IA145" s="5"/>
-      <c r="IB145" s="5"/>
-      <c r="IC145" s="5"/>
-      <c r="ID145" s="5"/>
-      <c r="IE145" s="5"/>
-      <c r="IF145" s="5"/>
-      <c r="IG145" s="5"/>
-      <c r="IH145" s="5"/>
-      <c r="II145" s="5"/>
-      <c r="IJ145" s="5"/>
-      <c r="IK145" s="5"/>
-      <c r="IL145" s="5"/>
-      <c r="IM145" s="5"/>
-      <c r="IN145" s="5"/>
-      <c r="IO145" s="5"/>
-      <c r="IP145" s="5"/>
-      <c r="IQ145" s="5"/>
-      <c r="IR145" s="5"/>
-      <c r="IS145" s="5"/>
-      <c r="IT145" s="5"/>
-    </row>
-    <row r="146" spans="1:254" s="2" customFormat="1">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="1:254">
+    <row r="144" spans="1:254">
+      <c r="A144" s="7"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="7"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="7"/>
-      <c r="B147" s="6"/>
+      <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -7583,37 +7505,37 @@
       <c r="G147" s="31"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:254">
+    <row r="148" spans="1:8">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
+      <c r="C148" s="4"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
       <c r="G148" s="31"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:254">
+    <row r="149" spans="1:8">
       <c r="A149" s="7"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="7"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="4"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
       <c r="G149" s="31"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:254">
+    <row r="150" spans="1:8">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
+      <c r="C150" s="4"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="31"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:254">
+    <row r="151" spans="1:8">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="4"/>
@@ -7623,37 +7545,37 @@
       <c r="G151" s="31"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:254">
+    <row r="152" spans="1:8">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="4"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
       <c r="G152" s="31"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:254">
+    <row r="153" spans="1:8">
       <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="4"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
       <c r="G153" s="31"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:254">
+    <row r="154" spans="1:8">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="4"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="31"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:254">
+    <row r="155" spans="1:8">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -7663,9 +7585,9 @@
       <c r="G155" s="31"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:254">
+    <row r="156" spans="1:8">
       <c r="A156" s="7"/>
-      <c r="B156" s="23"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -7673,9 +7595,9 @@
       <c r="G156" s="31"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:254">
+    <row r="157" spans="1:8">
       <c r="A157" s="7"/>
-      <c r="B157" s="23"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -7683,7 +7605,7 @@
       <c r="G157" s="31"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:254">
+    <row r="158" spans="1:8">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -7693,9 +7615,9 @@
       <c r="G158" s="31"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:254">
+    <row r="159" spans="1:8">
       <c r="A159" s="7"/>
-      <c r="B159" s="21"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -7703,7 +7625,7 @@
       <c r="G159" s="31"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:254">
+    <row r="160" spans="1:8">
       <c r="A160" s="7"/>
       <c r="B160" s="21"/>
       <c r="C160" s="7"/>
@@ -7715,7 +7637,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -7735,7 +7657,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="21"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -7755,7 +7677,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -7775,7 +7697,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="21"/>
+      <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -7785,7 +7707,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="21"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -7805,7 +7727,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="6"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -7815,8 +7737,8 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -7825,8 +7747,8 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="4"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
@@ -7835,8 +7757,8 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="7"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="4"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
@@ -7845,7 +7767,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="4"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="4"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7895,7 +7817,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="20"/>
+      <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7915,7 +7837,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="20"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7925,7 +7847,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7"/>
-      <c r="B182" s="4"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7945,7 +7867,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="22"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7955,7 +7877,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="22"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7976,7 +7898,7 @@
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
       <c r="B187" s="20"/>
-      <c r="C187" s="4"/>
+      <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
@@ -7985,8 +7907,8 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -7995,8 +7917,8 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
@@ -8015,7 +7937,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="4"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -8025,7 +7947,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="4"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -8065,7 +7987,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="20"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -8075,7 +7997,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="7"/>
-      <c r="B197" s="20"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -8085,7 +8007,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="7"/>
-      <c r="B198" s="20"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -8105,7 +8027,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="22"/>
+      <c r="B200" s="4"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -8115,7 +8037,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="22"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -8125,7 +8047,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="22"/>
+      <c r="B202" s="4"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -8135,7 +8057,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="4"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -8145,7 +8067,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="6"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -8155,7 +8077,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="4"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -8185,7 +8107,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="20"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -8215,7 +8137,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="22"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -8245,7 +8167,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="20"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -8255,7 +8177,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7"/>
-      <c r="B215" s="20"/>
+      <c r="B215" s="22"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -8265,7 +8187,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="7"/>
-      <c r="B216" s="20"/>
+      <c r="B216" s="22"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -8305,7 +8227,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="22"/>
+      <c r="B220" s="4"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -8315,7 +8237,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="22"/>
+      <c r="B221" s="6"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -8325,8 +8247,8 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="22"/>
-      <c r="C222" s="7"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
@@ -8335,8 +8257,8 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="7"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="4"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
@@ -8345,8 +8267,8 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="6"/>
-      <c r="C224" s="7"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="7"/>
@@ -8355,7 +8277,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="4"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -8365,7 +8287,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="20"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="4"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -8375,7 +8297,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="4"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -8395,7 +8317,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="21"/>
+      <c r="B229" s="7"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -8415,7 +8337,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="21"/>
+      <c r="B231" s="24"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -8425,7 +8347,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
+      <c r="B232" s="24"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -8445,7 +8367,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="24"/>
+      <c r="B234" s="21"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -8455,7 +8377,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="24"/>
+      <c r="B235" s="21"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -8475,7 +8397,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="21"/>
+      <c r="B237" s="7"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -8505,7 +8427,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
+      <c r="B240" s="21"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -8535,7 +8457,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="21"/>
+      <c r="B243" s="7"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -8546,7 +8468,7 @@
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
       <c r="B244" s="21"/>
-      <c r="C244" s="4"/>
+      <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
@@ -8555,8 +8477,8 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="21"/>
-      <c r="C245" s="4"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
@@ -8565,8 +8487,8 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
-      <c r="C246" s="4"/>
+      <c r="B246" s="21"/>
+      <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
@@ -8575,7 +8497,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="21"/>
+      <c r="B247" s="24"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -8585,7 +8507,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="24"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -8595,7 +8517,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="21"/>
+      <c r="B249" s="24"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -8625,8 +8547,8 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="24"/>
-      <c r="C252" s="7"/>
+      <c r="B252" s="21"/>
+      <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
@@ -8636,7 +8558,7 @@
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
       <c r="B253" s="24"/>
-      <c r="C253" s="7"/>
+      <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
@@ -8645,8 +8567,8 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="24"/>
-      <c r="C254" s="7"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
       <c r="F254" s="7"/>
@@ -8655,7 +8577,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="21"/>
+      <c r="B255" s="25"/>
       <c r="C255" s="4"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -8665,7 +8587,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="24"/>
+      <c r="B256" s="25"/>
       <c r="C256" s="4"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -8675,7 +8597,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="25"/>
+      <c r="B257" s="26"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -8685,7 +8607,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="25"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -8695,7 +8617,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="25"/>
+      <c r="B259" s="24"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -8705,7 +8627,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="26"/>
+      <c r="B260" s="24"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -8725,7 +8647,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="24"/>
+      <c r="B262" s="25"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -8735,7 +8657,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="24"/>
+      <c r="B263" s="25"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -8745,7 +8667,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="24"/>
+      <c r="B264" s="25"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -8755,7 +8677,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="25"/>
+      <c r="B265" s="24"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -8773,25 +8695,25 @@
       <c r="G266" s="31"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="7"/>
+    <row r="267" spans="1:8" s="2" customFormat="1">
+      <c r="A267" s="4"/>
       <c r="B267" s="25"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="7"/>
-      <c r="E267" s="7"/>
-      <c r="F267" s="7"/>
-      <c r="G267" s="31"/>
-      <c r="H267" s="7"/>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="7"/>
-      <c r="B268" s="24"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
+      <c r="G267" s="35"/>
+      <c r="H267" s="4"/>
+    </row>
+    <row r="268" spans="1:8" s="2" customFormat="1">
+      <c r="A268" s="4"/>
+      <c r="B268" s="25"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="7"/>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7"/>
-      <c r="G268" s="31"/>
-      <c r="H268" s="7"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
+      <c r="G268" s="35"/>
+      <c r="H268" s="4"/>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
@@ -8803,25 +8725,25 @@
       <c r="G269" s="31"/>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="1:8" s="2" customFormat="1">
-      <c r="A270" s="4"/>
-      <c r="B270" s="25"/>
+    <row r="270" spans="1:8">
+      <c r="A270" s="7"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="4"/>
-      <c r="G270" s="35"/>
-      <c r="H270" s="4"/>
-    </row>
-    <row r="271" spans="1:8" s="2" customFormat="1">
-      <c r="A271" s="4"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="31"/>
+      <c r="H270" s="7"/>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="7"/>
       <c r="B271" s="25"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4"/>
-      <c r="G271" s="35"/>
-      <c r="H271" s="4"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="31"/>
+      <c r="H271" s="7"/>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
@@ -8835,7 +8757,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="24"/>
+      <c r="B273" s="25"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -8845,7 +8767,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="25"/>
+      <c r="B274" s="23"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -8855,7 +8777,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="25"/>
+      <c r="B275" s="7"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -8865,7 +8787,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="25"/>
+      <c r="B276" s="7"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -8875,7 +8797,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="23"/>
+      <c r="B277" s="21"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -8885,7 +8807,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="21"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -8905,7 +8827,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="21"/>
+      <c r="B280" s="7"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -8915,7 +8837,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="21"/>
+      <c r="B281" s="7"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -8926,7 +8848,7 @@
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
-      <c r="C282" s="4"/>
+      <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
@@ -8935,8 +8857,8 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
-      <c r="C283" s="4"/>
+      <c r="B283" s="6"/>
+      <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
@@ -8946,7 +8868,7 @@
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
-      <c r="C284" s="4"/>
+      <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
@@ -8965,7 +8887,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="6"/>
+      <c r="B286" s="7"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -9025,7 +8947,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
+      <c r="B292" s="6"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -9035,8 +8957,8 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="7"/>
-      <c r="C293" s="7"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
@@ -9045,8 +8967,8 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="7"/>
-      <c r="C294" s="7"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="4"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
@@ -9055,8 +8977,8 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="7"/>
-      <c r="B295" s="6"/>
-      <c r="C295" s="7"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="4"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
@@ -9065,7 +8987,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="4"/>
+      <c r="B296" s="20"/>
       <c r="C296" s="4"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -9075,7 +8997,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="20"/>
+      <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -9085,7 +9007,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="20"/>
+      <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -9095,7 +9017,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="20"/>
+      <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -9135,7 +9057,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="4"/>
+      <c r="B303" s="20"/>
       <c r="C303" s="4"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -9145,7 +9067,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="4"/>
+      <c r="B304" s="20"/>
       <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -9155,7 +9077,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="4"/>
+      <c r="B305" s="22"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -9165,8 +9087,8 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="20"/>
-      <c r="C306" s="4"/>
+      <c r="B306" s="7"/>
+      <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
@@ -9175,47 +9097,47 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="20"/>
-      <c r="C307" s="4"/>
+      <c r="B307" s="6"/>
+      <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="G307" s="31"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="1:8">
-      <c r="A308" s="7"/>
-      <c r="B308" s="22"/>
-      <c r="C308" s="4"/>
-      <c r="D308" s="7"/>
-      <c r="E308" s="7"/>
-      <c r="F308" s="7"/>
-      <c r="G308" s="31"/>
-      <c r="H308" s="7"/>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" s="7"/>
-      <c r="B309" s="7"/>
-      <c r="C309" s="7"/>
-      <c r="D309" s="7"/>
-      <c r="E309" s="7"/>
-      <c r="F309" s="7"/>
-      <c r="G309" s="31"/>
-      <c r="H309" s="7"/>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" s="7"/>
-      <c r="B310" s="6"/>
-      <c r="C310" s="7"/>
-      <c r="D310" s="7"/>
-      <c r="E310" s="7"/>
-      <c r="F310" s="7"/>
-      <c r="G310" s="31"/>
-      <c r="H310" s="7"/>
+    <row r="308" spans="1:8" s="2" customFormat="1">
+      <c r="A308" s="4"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="9"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
+      <c r="G308" s="35"/>
+      <c r="H308" s="4"/>
+    </row>
+    <row r="309" spans="1:8" s="2" customFormat="1">
+      <c r="A309" s="4"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="9"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
+      <c r="G309" s="35"/>
+      <c r="H309" s="4"/>
+    </row>
+    <row r="310" spans="1:8" s="2" customFormat="1">
+      <c r="A310" s="4"/>
+      <c r="B310" s="4"/>
+      <c r="C310" s="9"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
+      <c r="G310" s="35"/>
+      <c r="H310" s="4"/>
     </row>
     <row r="311" spans="1:8" s="2" customFormat="1">
       <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
+      <c r="B311" s="20"/>
       <c r="C311" s="9"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -9225,7 +9147,7 @@
     </row>
     <row r="312" spans="1:8" s="2" customFormat="1">
       <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
+      <c r="B312" s="20"/>
       <c r="C312" s="9"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -9235,7 +9157,7 @@
     </row>
     <row r="313" spans="1:8" s="2" customFormat="1">
       <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
+      <c r="B313" s="20"/>
       <c r="C313" s="9"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -9265,8 +9187,8 @@
     </row>
     <row r="316" spans="1:8" s="2" customFormat="1">
       <c r="A316" s="4"/>
-      <c r="B316" s="20"/>
-      <c r="C316" s="9"/>
+      <c r="B316" s="27"/>
+      <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -9275,8 +9197,8 @@
     </row>
     <row r="317" spans="1:8" s="2" customFormat="1">
       <c r="A317" s="4"/>
-      <c r="B317" s="20"/>
-      <c r="C317" s="9"/>
+      <c r="B317" s="27"/>
+      <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
@@ -9285,8 +9207,8 @@
     </row>
     <row r="318" spans="1:8" s="2" customFormat="1">
       <c r="A318" s="4"/>
-      <c r="B318" s="20"/>
-      <c r="C318" s="9"/>
+      <c r="B318" s="27"/>
+      <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
@@ -9315,7 +9237,7 @@
     </row>
     <row r="321" spans="1:8" s="2" customFormat="1">
       <c r="A321" s="4"/>
-      <c r="B321" s="27"/>
+      <c r="B321" s="22"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -9325,7 +9247,7 @@
     </row>
     <row r="322" spans="1:8" s="2" customFormat="1">
       <c r="A322" s="4"/>
-      <c r="B322" s="27"/>
+      <c r="B322" s="22"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -9335,7 +9257,7 @@
     </row>
     <row r="323" spans="1:8" s="2" customFormat="1">
       <c r="A323" s="4"/>
-      <c r="B323" s="27"/>
+      <c r="B323" s="22"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -9365,7 +9287,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="22"/>
+      <c r="B326" s="20"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -9385,7 +9307,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="22"/>
+      <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -9393,40 +9315,40 @@
       <c r="G328" s="35"/>
       <c r="H328" s="4"/>
     </row>
-    <row r="329" spans="1:8" s="2" customFormat="1">
-      <c r="A329" s="4"/>
-      <c r="B329" s="20"/>
-      <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
-      <c r="F329" s="4"/>
-      <c r="G329" s="35"/>
-      <c r="H329" s="4"/>
-    </row>
-    <row r="330" spans="1:8" s="2" customFormat="1">
-      <c r="A330" s="4"/>
-      <c r="B330" s="22"/>
+    <row r="329" spans="1:8">
+      <c r="A329" s="7"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="7"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="7"/>
+      <c r="G329" s="31"/>
+      <c r="H329" s="7"/>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="7"/>
+      <c r="B330" s="7"/>
       <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
-      <c r="E330" s="4"/>
-      <c r="F330" s="4"/>
-      <c r="G330" s="35"/>
-      <c r="H330" s="4"/>
-    </row>
-    <row r="331" spans="1:8" s="2" customFormat="1">
-      <c r="A331" s="4"/>
-      <c r="B331" s="4"/>
+      <c r="D330" s="7"/>
+      <c r="E330" s="7"/>
+      <c r="F330" s="7"/>
+      <c r="G330" s="31"/>
+      <c r="H330" s="7"/>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="7"/>
+      <c r="B331" s="7"/>
       <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
-      <c r="E331" s="4"/>
-      <c r="F331" s="4"/>
-      <c r="G331" s="35"/>
-      <c r="H331" s="4"/>
+      <c r="D331" s="7"/>
+      <c r="E331" s="7"/>
+      <c r="F331" s="7"/>
+      <c r="G331" s="31"/>
+      <c r="H331" s="7"/>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="7"/>
-      <c r="B332" s="6"/>
-      <c r="C332" s="7"/>
+      <c r="B332" s="7"/>
+      <c r="C332" s="4"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
@@ -9475,7 +9397,7 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
-      <c r="B337" s="7"/>
+      <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
@@ -9485,8 +9407,8 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
-      <c r="B338" s="7"/>
-      <c r="C338" s="4"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
@@ -9495,8 +9417,8 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="7"/>
-      <c r="C339" s="4"/>
+      <c r="B339" s="6"/>
+      <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
@@ -9505,8 +9427,8 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="4"/>
-      <c r="C340" s="4"/>
+      <c r="B340" s="7"/>
+      <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
@@ -9515,7 +9437,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="4"/>
+      <c r="B341" s="23"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -9525,7 +9447,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="6"/>
+      <c r="B342" s="7"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -9545,7 +9467,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="23"/>
+      <c r="B344" s="7"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -9565,7 +9487,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="6"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -9585,7 +9507,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="21"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -9595,7 +9517,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="6"/>
+      <c r="B349" s="21"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -9605,7 +9527,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="7"/>
+      <c r="B350" s="21"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -9615,7 +9537,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="21"/>
+      <c r="B351" s="23"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -9665,7 +9587,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="21"/>
+      <c r="B356" s="23"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -9675,7 +9597,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="23"/>
+      <c r="B357" s="21"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -9695,7 +9617,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="23"/>
+      <c r="B359" s="21"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -9705,7 +9627,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="21"/>
+      <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -9715,7 +9637,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="21"/>
+      <c r="B361" s="28"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9725,7 +9647,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="21"/>
+      <c r="B362" s="23"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -9736,7 +9658,7 @@
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
-      <c r="C363" s="7"/>
+      <c r="C363" s="4"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
@@ -9745,8 +9667,8 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="28"/>
-      <c r="C364" s="7"/>
+      <c r="B364" s="21"/>
+      <c r="C364" s="4"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
@@ -9755,8 +9677,8 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="23"/>
-      <c r="C365" s="7"/>
+      <c r="B365" s="21"/>
+      <c r="C365" s="4"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
@@ -9765,7 +9687,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="21"/>
       <c r="C366" s="4"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -9775,7 +9697,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="21"/>
+      <c r="B367" s="7"/>
       <c r="C367" s="4"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -9785,7 +9707,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="21"/>
+      <c r="B368" s="7"/>
       <c r="C368" s="4"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -9795,7 +9717,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="21"/>
+      <c r="B369" s="7"/>
       <c r="C369" s="4"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -9805,7 +9727,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="7"/>
+      <c r="B370" s="21"/>
       <c r="C370" s="4"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -9815,7 +9737,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
+      <c r="B371" s="21"/>
       <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -9826,7 +9748,7 @@
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
-      <c r="C372" s="4"/>
+      <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
@@ -9835,8 +9757,8 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="21"/>
-      <c r="C373" s="4"/>
+      <c r="B373" s="6"/>
+      <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
@@ -9845,8 +9767,8 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="21"/>
-      <c r="C374" s="4"/>
+      <c r="B374" s="7"/>
+      <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
@@ -9865,7 +9787,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="6"/>
+      <c r="B376" s="7"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -9905,7 +9827,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="6"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -9935,8 +9857,8 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="7"/>
+      <c r="B383" s="7"/>
+      <c r="C383" s="4"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
@@ -9945,8 +9867,8 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="7"/>
-      <c r="C384" s="7"/>
+      <c r="B384" s="21"/>
+      <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
@@ -9955,7 +9877,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="7"/>
+      <c r="B385" s="21"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -9965,8 +9887,8 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="7"/>
-      <c r="C386" s="4"/>
+      <c r="B386" s="28"/>
+      <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
@@ -9975,8 +9897,8 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="21"/>
-      <c r="C387" s="4"/>
+      <c r="B387" s="23"/>
+      <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
@@ -9985,7 +9907,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="21"/>
+      <c r="B388" s="23"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -9995,7 +9917,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="28"/>
+      <c r="B389" s="23"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -10025,7 +9947,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="23"/>
+      <c r="B392" s="7"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -10035,7 +9957,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="23"/>
+      <c r="B393" s="6"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -10045,7 +9967,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="23"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -10055,7 +9977,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="7"/>
+      <c r="B395" s="21"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -10065,7 +9987,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="6"/>
+      <c r="B396" s="23"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -10075,7 +9997,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="7"/>
+      <c r="B397" s="23"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -10095,7 +10017,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="23"/>
+      <c r="B399" s="21"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -10105,7 +10027,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="23"/>
+      <c r="B400" s="21"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -10125,7 +10047,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="21"/>
+      <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -10155,7 +10077,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="23"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -10165,7 +10087,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="21"/>
+      <c r="B406" s="7"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -10175,7 +10097,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="21"/>
+      <c r="B407" s="6"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -10185,7 +10107,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="23"/>
+      <c r="B408" s="7"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -10225,7 +10147,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="21"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -10235,7 +10157,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="6"/>
+      <c r="B413" s="21"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -10255,7 +10177,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="21"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -10265,7 +10187,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="21"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -10285,7 +10207,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="6"/>
+      <c r="B418" s="7"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -10315,7 +10237,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -10345,7 +10267,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="6"/>
+      <c r="B424" s="7"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -10385,7 +10307,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -10425,7 +10347,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="7"/>
+      <c r="B432" s="4"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -10435,7 +10357,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="4"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -10445,7 +10367,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="6"/>
+      <c r="B434" s="7"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -10455,7 +10377,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="4"/>
+      <c r="B435" s="7"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -10465,7 +10387,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="4"/>
+      <c r="B436" s="7"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -10475,7 +10397,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
+      <c r="B437" s="6"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -10486,7 +10408,7 @@
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
-      <c r="C438" s="7"/>
+      <c r="C438" s="4"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
@@ -10496,7 +10418,7 @@
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
-      <c r="C439" s="7"/>
+      <c r="C439" s="4"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
       <c r="F439" s="7"/>
@@ -10505,8 +10427,8 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="6"/>
-      <c r="C440" s="7"/>
+      <c r="B440" s="7"/>
+      <c r="C440" s="4"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
       <c r="F440" s="7"/>
@@ -10536,7 +10458,7 @@
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
-      <c r="C443" s="4"/>
+      <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
@@ -10545,8 +10467,8 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
-      <c r="C444" s="4"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
@@ -10566,7 +10488,7 @@
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
-      <c r="C446" s="7"/>
+      <c r="C446" s="4"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
@@ -10575,8 +10497,8 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="6"/>
-      <c r="C447" s="7"/>
+      <c r="B447" s="7"/>
+      <c r="C447" s="4"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
@@ -10596,7 +10518,7 @@
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
-      <c r="C449" s="4"/>
+      <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -10605,8 +10527,8 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="7"/>
-      <c r="C450" s="4"/>
+      <c r="B450" s="6"/>
+      <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
@@ -10615,8 +10537,8 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="7"/>
-      <c r="C451" s="4"/>
+      <c r="B451" s="23"/>
+      <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
@@ -10625,7 +10547,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="7"/>
+      <c r="B452" s="23"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -10635,7 +10557,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="6"/>
+      <c r="B453" s="23"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -10675,7 +10597,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="23"/>
+      <c r="B457" s="7"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -10685,7 +10607,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="23"/>
+      <c r="B458" s="6"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -10705,7 +10627,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="7"/>
+      <c r="B460" s="23"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -10715,7 +10637,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="6"/>
+      <c r="B461" s="23"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -10724,8 +10646,8 @@
       <c r="H461" s="7"/>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="7"/>
-      <c r="B462" s="23"/>
+      <c r="A462" s="6"/>
+      <c r="B462" s="7"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -10735,7 +10657,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="23"/>
+      <c r="B463" s="7"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -10745,7 +10667,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="7"/>
-      <c r="B464" s="23"/>
+      <c r="B464" s="7"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -10754,7 +10676,7 @@
       <c r="H464" s="7"/>
     </row>
     <row r="465" spans="1:8">
-      <c r="A465" s="6"/>
+      <c r="A465" s="7"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
@@ -10775,7 +10697,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="7"/>
+      <c r="B467" s="29"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -10785,7 +10707,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="7"/>
-      <c r="B468" s="7"/>
+      <c r="B468" s="29"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -10795,7 +10717,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="7"/>
-      <c r="B469" s="7"/>
+      <c r="B469" s="29"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -10805,7 +10727,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="29"/>
+      <c r="B470" s="7"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -10825,7 +10747,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="29"/>
+      <c r="B472" s="7"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -10835,17 +10757,17 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
-      <c r="C473" s="7"/>
+      <c r="B473" s="30"/>
+      <c r="C473" s="31"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
-      <c r="F473" s="7"/>
+      <c r="F473" s="30"/>
       <c r="G473" s="31"/>
       <c r="H473" s="7"/>
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="29"/>
+      <c r="B474" s="7"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -10865,11 +10787,11 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="30"/>
-      <c r="C476" s="31"/>
+      <c r="B476" s="7"/>
+      <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
-      <c r="F476" s="30"/>
+      <c r="F476" s="7"/>
       <c r="G476" s="31"/>
       <c r="H476" s="7"/>
     </row>
@@ -14753,36 +14675,6 @@
       <c r="G864" s="31"/>
       <c r="H864" s="7"/>
     </row>
-    <row r="865" spans="1:8">
-      <c r="A865" s="7"/>
-      <c r="B865" s="7"/>
-      <c r="C865" s="7"/>
-      <c r="D865" s="7"/>
-      <c r="E865" s="7"/>
-      <c r="F865" s="7"/>
-      <c r="G865" s="31"/>
-      <c r="H865" s="7"/>
-    </row>
-    <row r="866" spans="1:8">
-      <c r="A866" s="7"/>
-      <c r="B866" s="7"/>
-      <c r="C866" s="7"/>
-      <c r="D866" s="7"/>
-      <c r="E866" s="7"/>
-      <c r="F866" s="7"/>
-      <c r="G866" s="31"/>
-      <c r="H866" s="7"/>
-    </row>
-    <row r="867" spans="1:8">
-      <c r="A867" s="7"/>
-      <c r="B867" s="7"/>
-      <c r="C867" s="7"/>
-      <c r="D867" s="7"/>
-      <c r="E867" s="7"/>
-      <c r="F867" s="7"/>
-      <c r="G867" s="31"/>
-      <c r="H867" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="301">
   <si>
     <t>Feature</t>
   </si>
@@ -464,9 +464,6 @@
     <t>find field</t>
   </si>
   <si>
-    <t>Secure Storage</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -884,9 +881,6 @@
     <t>sync()</t>
   </si>
   <si>
-    <t>0.04.07</t>
-  </si>
-  <si>
     <t>addSource(src)</t>
   </si>
   <si>
@@ -912,6 +906,21 @@
   </si>
   <si>
     <t>decodeHex</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>Key-Value Storage</t>
+  </si>
+  <si>
+    <t>checks for duplicate entries</t>
+  </si>
+  <si>
+    <t>checks for empty key</t>
+  </si>
+  <si>
+    <t>0.04.08</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1174,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958422"/>
+          <c:w val="0.91978071330958444"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1209,7 +1218,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42023</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,7 +1236,7 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,7 +1280,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42023</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,7 +1298,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,7 +1342,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42023</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,7 +1404,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42023</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,7 +1657,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628752"/>
+          <c:y val="0.11628512537628755"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1710,7 +1719,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42023</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1728,17 +1737,17 @@
                   <c:v>0.61202185792349728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64437689969604861</c:v>
+                  <c:v>0.66869300911854102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120226560"/>
-        <c:axId val="120228096"/>
+        <c:axId val="120222464"/>
+        <c:axId val="120224000"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120226560"/>
+        <c:axId val="120222464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,13 +1755,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120228096"/>
+        <c:crossAx val="120224000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120228096"/>
+        <c:axId val="120224000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1795,7 +1804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120226560"/>
+        <c:crossAx val="120222464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1906,7 +1915,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42023</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1924,7 +1933,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,7 +1977,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42023</c:v>
+                  <c:v>42026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,11 +2001,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120244864"/>
+        <c:axId val="120248960"/>
         <c:axId val="120275328"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120244864"/>
+        <c:axId val="120248960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,7 +2063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120244864"/>
+        <c:crossAx val="120248960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2563,8 +2572,8 @@
   </sheetPr>
   <dimension ref="A1:D393"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="C346" sqref="C346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2608,7 +2617,7 @@
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="4"/>
       <c r="B6" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>13</v>
@@ -2618,7 +2627,7 @@
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="4"/>
       <c r="B7" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -2628,7 +2637,7 @@
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="4"/>
       <c r="B8" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -2638,7 +2647,7 @@
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="4"/>
       <c r="B9" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -2648,7 +2657,7 @@
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="4"/>
       <c r="B10" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -2658,7 +2667,7 @@
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2668,7 +2677,7 @@
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="A12" s="4"/>
       <c r="B12" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -2678,7 +2687,7 @@
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -2913,7 +2922,7 @@
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>1</v>
@@ -2922,7 +2931,7 @@
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1">
       <c r="B41" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -2931,7 +2940,7 @@
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1">
       <c r="B42" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>1</v>
@@ -3260,7 +3269,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
@@ -3341,7 +3350,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>1</v>
@@ -3595,7 +3604,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>1</v>
@@ -3604,7 +3613,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>1</v>
@@ -3663,7 +3672,7 @@
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>13</v>
@@ -3672,7 +3681,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1</v>
@@ -3807,7 +3816,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="4"/>
@@ -3841,7 +3850,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>13</v>
@@ -3859,7 +3868,7 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>13</v>
@@ -4131,7 +4140,7 @@
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
       <c r="B180" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>1</v>
@@ -4140,7 +4149,7 @@
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
       <c r="B181" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>1</v>
@@ -4149,7 +4158,7 @@
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
       <c r="B182" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>1</v>
@@ -4158,7 +4167,7 @@
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
       <c r="B183" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>1</v>
@@ -4167,7 +4176,7 @@
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>1</v>
@@ -4176,7 +4185,7 @@
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>1</v>
@@ -4185,7 +4194,7 @@
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
       <c r="B186" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>1</v>
@@ -4194,7 +4203,7 @@
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
       <c r="B187" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>1</v>
@@ -4203,7 +4212,7 @@
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
       <c r="B188" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>1</v>
@@ -4212,7 +4221,7 @@
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
       <c r="B189" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>1</v>
@@ -4231,7 +4240,7 @@
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>1</v>
@@ -4240,7 +4249,7 @@
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
       <c r="B193" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>1</v>
@@ -4259,7 +4268,7 @@
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
       <c r="B196" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>1</v>
@@ -4268,7 +4277,7 @@
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
       <c r="B197" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>13</v>
@@ -4277,7 +4286,7 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>13</v>
@@ -4286,7 +4295,7 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>13</v>
@@ -4295,7 +4304,7 @@
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>13</v>
@@ -4304,7 +4313,7 @@
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>1</v>
@@ -4313,7 +4322,7 @@
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>1</v>
@@ -4322,7 +4331,7 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>1</v>
@@ -4331,7 +4340,7 @@
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
       <c r="B204" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>1</v>
@@ -4340,7 +4349,7 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>1</v>
@@ -4349,7 +4358,7 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>1</v>
@@ -4358,7 +4367,7 @@
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>1</v>
@@ -4367,7 +4376,7 @@
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
       <c r="B208" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>1</v>
@@ -4376,7 +4385,7 @@
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>1</v>
@@ -4385,7 +4394,7 @@
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
       <c r="B210" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>13</v>
@@ -4394,7 +4403,7 @@
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
       <c r="B211" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>13</v>
@@ -4403,7 +4412,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>1</v>
@@ -4412,7 +4421,7 @@
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
       <c r="B213" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>1</v>
@@ -4421,7 +4430,7 @@
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>13</v>
@@ -4430,7 +4439,7 @@
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
       <c r="B215" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>1</v>
@@ -4439,7 +4448,7 @@
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
       <c r="B216" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>1</v>
@@ -4448,7 +4457,7 @@
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>1</v>
@@ -4467,7 +4476,7 @@
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>1</v>
@@ -4476,7 +4485,7 @@
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
       <c r="B221" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>13</v>
@@ -4485,7 +4494,7 @@
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
       <c r="B222" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>13</v>
@@ -4494,7 +4503,7 @@
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
       <c r="B223" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>1</v>
@@ -4503,7 +4512,7 @@
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
       <c r="B224" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>1</v>
@@ -4512,7 +4521,7 @@
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
       <c r="B225" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>1</v>
@@ -4521,7 +4530,7 @@
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
       <c r="B226" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>13</v>
@@ -4530,7 +4539,7 @@
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
       <c r="B227" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>1</v>
@@ -4549,7 +4558,7 @@
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
       <c r="B230" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>1</v>
@@ -4558,7 +4567,7 @@
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
       <c r="B231" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>13</v>
@@ -4567,7 +4576,7 @@
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
       <c r="B232" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>1</v>
@@ -4576,7 +4585,7 @@
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
       <c r="B233" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>1</v>
@@ -4585,7 +4594,7 @@
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
       <c r="B234" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>13</v>
@@ -4604,7 +4613,7 @@
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
       <c r="B237" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>1</v>
@@ -4613,7 +4622,7 @@
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
       <c r="B238" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>13</v>
@@ -4622,7 +4631,7 @@
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
       <c r="B239" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>13</v>
@@ -4631,25 +4640,29 @@
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
       <c r="B240" s="23" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
       <c r="B241" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
-      <c r="B242" s="23"/>
-      <c r="C242" s="7"/>
+      <c r="B242" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" s="6" customFormat="1">
@@ -4658,17 +4671,13 @@
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B244" s="23"/>
+      <c r="C244" s="7"/>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="23" t="s">
-        <v>206</v>
+      <c r="B245" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>1</v>
@@ -4677,7 +4686,7 @@
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
       <c r="B246" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>1</v>
@@ -4686,25 +4695,25 @@
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
       <c r="B247" s="23" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
       <c r="B248" s="23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
       <c r="B249" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>1</v>
@@ -4713,25 +4722,25 @@
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
       <c r="B250" s="23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
       <c r="B251" s="23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
       <c r="B252" s="23" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>1</v>
@@ -4740,7 +4749,7 @@
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
       <c r="B253" s="23" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>1</v>
@@ -4749,7 +4758,7 @@
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
       <c r="B254" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>1</v>
@@ -4758,7 +4767,7 @@
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
       <c r="B255" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>1</v>
@@ -4767,7 +4776,7 @@
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
       <c r="B256" s="23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>1</v>
@@ -4776,7 +4785,7 @@
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
       <c r="B257" s="23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>1</v>
@@ -4784,8 +4793,12 @@
       <c r="D257" s="4"/>
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
-      <c r="B258" s="23"/>
-      <c r="C258" s="7"/>
+      <c r="B258" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D258" s="4"/>
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
@@ -4794,17 +4807,13 @@
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B260" s="23"/>
+      <c r="C260" s="7"/>
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
-      <c r="B261" s="23" t="s">
-        <v>295</v>
+      <c r="B261" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>1</v>
@@ -4813,7 +4822,7 @@
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
       <c r="B262" s="23" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>1</v>
@@ -4822,7 +4831,7 @@
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
       <c r="B263" s="23" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>1</v>
@@ -4831,7 +4840,7 @@
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>1</v>
@@ -4840,7 +4849,7 @@
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
       <c r="B265" s="23" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>1</v>
@@ -4852,22 +4861,22 @@
         <v>273</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="23" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="23" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>1</v>
@@ -4876,30 +4885,30 @@
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
       <c r="B269" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C269" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="2:4" s="6" customFormat="1">
+      <c r="B270" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C270" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D269" s="4"/>
-    </row>
-    <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="23"/>
-      <c r="C270" s="7"/>
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
-      <c r="B271" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B271" s="23"/>
+      <c r="C271" s="7"/>
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
       <c r="B272" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>13</v>
@@ -4908,7 +4917,7 @@
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
       <c r="B273" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>13</v>
@@ -4917,7 +4926,7 @@
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
       <c r="B274" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>13</v>
@@ -4926,7 +4935,7 @@
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
       <c r="B275" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>13</v>
@@ -4935,7 +4944,7 @@
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
       <c r="B276" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>13</v>
@@ -4943,8 +4952,12 @@
       <c r="D276" s="4"/>
     </row>
     <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="23"/>
-      <c r="C277" s="7"/>
+      <c r="B277" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
@@ -4953,17 +4966,13 @@
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B279" s="23"/>
+      <c r="C279" s="7"/>
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="23" t="s">
-        <v>229</v>
+      <c r="B280" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>1</v>
@@ -4972,7 +4981,7 @@
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
       <c r="B281" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>1</v>
@@ -4981,7 +4990,7 @@
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
       <c r="B282" s="23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>1</v>
@@ -4990,7 +4999,7 @@
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
       <c r="B283" s="23" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>1</v>
@@ -4999,7 +5008,7 @@
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
       <c r="B284" s="23" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>1</v>
@@ -5017,7 +5026,7 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>1</v>
@@ -5026,16 +5035,16 @@
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
       <c r="B287" s="23" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>13</v>
@@ -5044,7 +5053,7 @@
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
       <c r="B289" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>13</v>
@@ -5062,7 +5071,7 @@
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="23" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>13</v>
@@ -5071,16 +5080,16 @@
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="23" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
       <c r="B293" s="23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>1</v>
@@ -5089,7 +5098,7 @@
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
       <c r="B294" s="23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>1</v>
@@ -5098,7 +5107,7 @@
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>1</v>
@@ -5107,16 +5116,16 @@
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
       <c r="B296" s="23" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
       <c r="B297" s="23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>13</v>
@@ -5125,7 +5134,7 @@
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="23" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>13</v>
@@ -5133,8 +5142,12 @@
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="23"/>
-      <c r="C299" s="7"/>
+      <c r="B299" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
@@ -5143,17 +5156,13 @@
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B301" s="23"/>
+      <c r="C301" s="7"/>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="23" t="s">
-        <v>219</v>
+      <c r="B302" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>1</v>
@@ -5162,16 +5171,16 @@
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
       <c r="B303" s="23" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
       <c r="B304" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>13</v>
@@ -5180,16 +5189,16 @@
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="23" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="23" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>1</v>
@@ -5198,7 +5207,7 @@
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>1</v>
@@ -5207,7 +5216,7 @@
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
       <c r="B308" s="23" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>1</v>
@@ -5216,7 +5225,7 @@
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
       <c r="B309" s="23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>1</v>
@@ -5225,7 +5234,7 @@
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>1</v>
@@ -5234,7 +5243,7 @@
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
       <c r="B311" s="23" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>1</v>
@@ -5243,7 +5252,7 @@
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
       <c r="B312" s="23" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>1</v>
@@ -5251,8 +5260,12 @@
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="23"/>
-      <c r="C313" s="7"/>
+      <c r="B313" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
@@ -5261,17 +5274,13 @@
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B315" s="23"/>
+      <c r="C315" s="7"/>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="23" t="s">
-        <v>291</v>
+      <c r="B316" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>1</v>
@@ -5280,7 +5289,7 @@
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>1</v>
@@ -5289,7 +5298,7 @@
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>1</v>
@@ -5298,7 +5307,7 @@
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
       <c r="B319" s="23" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>1</v>
@@ -5307,7 +5316,7 @@
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>1</v>
@@ -5316,7 +5325,7 @@
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
       <c r="B321" s="23" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>1</v>
@@ -5325,7 +5334,7 @@
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
       <c r="B322" s="23" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>1</v>
@@ -5334,7 +5343,7 @@
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
       <c r="B323" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>1</v>
@@ -5343,7 +5352,7 @@
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
       <c r="B324" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>1</v>
@@ -5352,7 +5361,7 @@
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
       <c r="B325" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>1</v>
@@ -5360,36 +5369,36 @@
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="23"/>
-      <c r="C326" s="7"/>
+      <c r="B326" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="21"/>
+      <c r="B327" s="23"/>
       <c r="C327" s="7"/>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="21"/>
+      <c r="C328" s="7"/>
+      <c r="D328" s="4"/>
+    </row>
+    <row r="329" spans="2:4" s="6" customFormat="1">
+      <c r="B329" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C328" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D328" s="4"/>
-    </row>
-    <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="23" t="s">
+      <c r="C329" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D329" s="4"/>
+    </row>
+    <row r="330" spans="2:4" s="6" customFormat="1">
+      <c r="B330" s="23" t="s">
         <v>146</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D329" s="4"/>
-    </row>
-    <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="21" t="s">
-        <v>147</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>1</v>
@@ -5398,16 +5407,16 @@
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
       <c r="B331" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D331" s="4"/>
+    </row>
+    <row r="332" spans="2:4" s="6" customFormat="1">
+      <c r="B332" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C331" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D331" s="4"/>
-    </row>
-    <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>1</v>
@@ -5416,7 +5425,7 @@
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
       <c r="B333" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>1</v>
@@ -5425,7 +5434,7 @@
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
       <c r="B334" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>1</v>
@@ -5434,70 +5443,70 @@
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
       <c r="B335" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D335" s="4"/>
+    </row>
+    <row r="336" spans="2:4" s="6" customFormat="1">
+      <c r="B336" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C335" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D335" s="4"/>
-    </row>
-    <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="21" t="s">
-        <v>148</v>
-      </c>
       <c r="C336" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="24" t="s">
+      <c r="B337" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="2:4" s="6" customFormat="1">
+      <c r="B338" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C337" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D337" s="4"/>
-    </row>
-    <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="25" t="s">
-        <v>149</v>
-      </c>
       <c r="C338" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
       <c r="B339" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="24" t="s">
+      <c r="B340" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D340" s="4"/>
+    </row>
+    <row r="341" spans="2:4" s="6" customFormat="1">
+      <c r="B341" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C340" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D340" s="4"/>
-    </row>
-    <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="25" t="s">
-        <v>65</v>
-      </c>
       <c r="C341" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="44" t="s">
-        <v>67</v>
+      <c r="B342" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>13</v>
@@ -5505,7 +5514,7 @@
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="44" t="s">
+      <c r="B343" s="25" t="s">
         <v>151</v>
       </c>
       <c r="C343" s="7" t="s">
@@ -5514,8 +5523,8 @@
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="25" t="s">
-        <v>153</v>
+      <c r="B344" s="24" t="s">
+        <v>298</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>13</v>
@@ -5523,8 +5532,8 @@
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="25" t="s">
-        <v>152</v>
+      <c r="B345" s="24" t="s">
+        <v>299</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>13</v>
@@ -5533,7 +5542,7 @@
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
       <c r="B346" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>13</v>
@@ -5560,7 +5569,7 @@
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
       <c r="B349" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>13</v>
@@ -5596,7 +5605,7 @@
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
       <c r="B353" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>13</v>
@@ -5605,7 +5614,7 @@
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
       <c r="B354" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>13</v>
@@ -5614,7 +5623,7 @@
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
       <c r="B355" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>13</v>
@@ -5623,7 +5632,7 @@
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
       <c r="B356" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>13</v>
@@ -5877,7 +5886,7 @@
       </c>
       <c r="C389" s="6">
         <f>COUNTIF(C5:C388,"y")</f>
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D389" s="2"/>
     </row>
@@ -5887,7 +5896,7 @@
       </c>
       <c r="C390" s="6">
         <f>COUNTIF(C5:C388,"n")</f>
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D390" s="2"/>
     </row>
@@ -5918,7 +5927,7 @@
       </c>
       <c r="D393" s="42">
         <f>C389/(C390+C389 + C391)</f>
-        <v>0.64437689969604861</v>
+        <v>0.66869300911854102</v>
       </c>
     </row>
   </sheetData>
@@ -5950,7 +5959,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5971,7 +5980,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6226,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G49" s="31">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -6236,13 +6245,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="12">
-        <v>42023</v>
+        <v>42026</v>
       </c>
       <c r="B50" s="4">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C50" s="4">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -6251,11 +6260,11 @@
         <v>0</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G50" s="31">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.64437689969604861</v>
+        <v>0.66869300911854102</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -6300,7 +6309,7 @@
       </c>
       <c r="G53" s="39">
         <f>G50</f>
-        <v>0.64437689969604861</v>
+        <v>0.66869300911854102</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -6311,11 +6320,11 @@
       </c>
       <c r="B54" s="16">
         <f>Features!C389</f>
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C54" s="17">
         <f>Features!C390</f>
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D54" s="18">
         <f>Features!C391</f>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="293">
   <si>
     <t>Feature</t>
   </si>
@@ -215,15 +215,9 @@
     <t>Close</t>
   </si>
   <si>
-    <t>toolbar</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>Add</t>
-  </si>
-  <si>
     <t>logo</t>
   </si>
   <si>
@@ -470,28 +464,10 @@
     <t>value</t>
   </si>
   <si>
-    <t>Remove</t>
-  </si>
-  <si>
     <t>value field</t>
   </si>
   <si>
     <t>key field</t>
-  </si>
-  <si>
-    <t>Connectors</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>name field</t>
-  </si>
-  <si>
-    <t>type field</t>
-  </si>
-  <si>
-    <t>script field</t>
   </si>
   <si>
     <t>0.04.03</t>
@@ -1174,7 +1150,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958444"/>
+          <c:w val="0.91978071330958466"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1218,7 +1194,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42026</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,7 +1212,7 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,7 +1256,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42026</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,7 +1274,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,7 +1318,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42026</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,7 +1380,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42026</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,7 +1633,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628755"/>
+          <c:y val="0.11628512537628759"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1719,7 +1695,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42026</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1737,7 +1713,7 @@
                   <c:v>0.61202185792349728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66869300911854102</c:v>
+                  <c:v>0.70440251572327039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,7 +1891,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42026</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,7 +1909,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,7 +1953,7 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42026</c:v>
+                  <c:v>42027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2570,10 +2546,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D393"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="C346" sqref="C346"/>
+      <selection activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2586,7 +2562,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="41"/>
     </row>
@@ -2617,7 +2593,7 @@
     <row r="6" spans="1:4" s="6" customFormat="1">
       <c r="A6" s="4"/>
       <c r="B6" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>13</v>
@@ -2627,7 +2603,7 @@
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="4"/>
       <c r="B7" s="23" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -2637,7 +2613,7 @@
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="4"/>
       <c r="B8" s="23" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -2647,7 +2623,7 @@
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="4"/>
       <c r="B9" s="23" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -2657,7 +2633,7 @@
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="4"/>
       <c r="B10" s="23" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -2667,7 +2643,7 @@
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="23" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2677,7 +2653,7 @@
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="A12" s="4"/>
       <c r="B12" s="23" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -2687,7 +2663,7 @@
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -2709,7 +2685,7 @@
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
@@ -2725,7 +2701,7 @@
     <row r="18" spans="1:4" s="6" customFormat="1">
       <c r="A18" s="4"/>
       <c r="B18" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
@@ -2735,7 +2711,7 @@
     <row r="19" spans="1:4" s="6" customFormat="1">
       <c r="A19" s="4"/>
       <c r="B19" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>13</v>
@@ -2745,7 +2721,7 @@
     <row r="20" spans="1:4" s="6" customFormat="1">
       <c r="A20" s="4"/>
       <c r="B20" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>13</v>
@@ -2755,7 +2731,7 @@
     <row r="21" spans="1:4" s="6" customFormat="1">
       <c r="A21" s="4"/>
       <c r="B21" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>13</v>
@@ -2765,7 +2741,7 @@
     <row r="22" spans="1:4" s="6" customFormat="1">
       <c r="A22" s="4"/>
       <c r="B22" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>13</v>
@@ -2775,7 +2751,7 @@
     <row r="23" spans="1:4" s="6" customFormat="1">
       <c r="A23" s="4"/>
       <c r="B23" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
@@ -2791,7 +2767,7 @@
     <row r="25" spans="1:4" s="6" customFormat="1">
       <c r="A25" s="4"/>
       <c r="B25" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>13</v>
@@ -2801,7 +2777,7 @@
     <row r="26" spans="1:4" s="6" customFormat="1">
       <c r="A26" s="4"/>
       <c r="B26" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>13</v>
@@ -2811,7 +2787,7 @@
     <row r="27" spans="1:4" s="6" customFormat="1">
       <c r="A27" s="4"/>
       <c r="B27" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>13</v>
@@ -2821,7 +2797,7 @@
     <row r="28" spans="1:4" s="6" customFormat="1">
       <c r="A28" s="4"/>
       <c r="B28" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
@@ -2831,7 +2807,7 @@
     <row r="29" spans="1:4" s="6" customFormat="1">
       <c r="A29" s="4"/>
       <c r="B29" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
@@ -2841,7 +2817,7 @@
     <row r="30" spans="1:4" s="6" customFormat="1">
       <c r="A30" s="4"/>
       <c r="B30" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>13</v>
@@ -2857,7 +2833,7 @@
     <row r="32" spans="1:4" s="6" customFormat="1">
       <c r="A32" s="4"/>
       <c r="B32" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>13</v>
@@ -2867,7 +2843,7 @@
     <row r="33" spans="1:4" s="6" customFormat="1">
       <c r="A33" s="4"/>
       <c r="B33" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>13</v>
@@ -2877,7 +2853,7 @@
     <row r="34" spans="1:4" s="6" customFormat="1">
       <c r="A34" s="4"/>
       <c r="B34" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>13</v>
@@ -2887,7 +2863,7 @@
     <row r="35" spans="1:4" s="6" customFormat="1">
       <c r="A35" s="4"/>
       <c r="B35" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>13</v>
@@ -2922,7 +2898,7 @@
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>1</v>
@@ -2931,7 +2907,7 @@
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1">
       <c r="B41" s="21" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -2940,7 +2916,7 @@
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1">
       <c r="B42" s="21" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>1</v>
@@ -2963,7 +2939,7 @@
     </row>
     <row r="45" spans="1:4" s="6" customFormat="1">
       <c r="B45" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>1</v>
@@ -2981,7 +2957,7 @@
     </row>
     <row r="47" spans="1:4" s="6" customFormat="1">
       <c r="B47" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>1</v>
@@ -2990,7 +2966,7 @@
     </row>
     <row r="48" spans="1:4" s="6" customFormat="1">
       <c r="B48" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>1</v>
@@ -2999,7 +2975,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>1</v>
@@ -3008,7 +2984,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>1</v>
@@ -3017,7 +2993,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
@@ -3026,7 +3002,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>13</v>
@@ -3071,7 +3047,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>13</v>
@@ -3080,7 +3056,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>13</v>
@@ -3089,7 +3065,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>13</v>
@@ -3098,7 +3074,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>13</v>
@@ -3116,7 +3092,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>1</v>
@@ -3125,7 +3101,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>1</v>
@@ -3134,7 +3110,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>1</v>
@@ -3143,7 +3119,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>1</v>
@@ -3152,7 +3128,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>1</v>
@@ -3161,7 +3137,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>1</v>
@@ -3170,7 +3146,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>1</v>
@@ -3188,7 +3164,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>13</v>
@@ -3197,7 +3173,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>13</v>
@@ -3206,7 +3182,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>1</v>
@@ -3215,7 +3191,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>1</v>
@@ -3224,7 +3200,7 @@
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>1</v>
@@ -3233,7 +3209,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>1</v>
@@ -3242,7 +3218,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>1</v>
@@ -3251,7 +3227,7 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>1</v>
@@ -3260,7 +3236,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>13</v>
@@ -3269,7 +3245,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="24" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
@@ -3278,7 +3254,7 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>1</v>
@@ -3287,7 +3263,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>1</v>
@@ -3296,7 +3272,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>1</v>
@@ -3305,7 +3281,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>1</v>
@@ -3314,7 +3290,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>1</v>
@@ -3323,7 +3299,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>1</v>
@@ -3332,7 +3308,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>1</v>
@@ -3341,7 +3317,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>1</v>
@@ -3350,7 +3326,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="25" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>1</v>
@@ -3427,7 +3403,7 @@
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
       <c r="B97" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>1</v>
@@ -3436,7 +3412,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>1</v>
@@ -3445,7 +3421,7 @@
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
       <c r="B99" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>13</v>
@@ -3454,7 +3430,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>13</v>
@@ -3463,7 +3439,7 @@
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
       <c r="B101" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>13</v>
@@ -3472,7 +3448,7 @@
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
       <c r="B102" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>1</v>
@@ -3481,7 +3457,7 @@
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>1</v>
@@ -3490,7 +3466,7 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>1</v>
@@ -3499,7 +3475,7 @@
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>1</v>
@@ -3508,7 +3484,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>1</v>
@@ -3517,7 +3493,7 @@
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
       <c r="B107" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>1</v>
@@ -3526,7 +3502,7 @@
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
       <c r="B108" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>1</v>
@@ -3540,7 +3516,7 @@
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
       <c r="B110" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>1</v>
@@ -3549,7 +3525,7 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>1</v>
@@ -3595,7 +3571,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>1</v>
@@ -3604,7 +3580,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="23" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>1</v>
@@ -3613,7 +3589,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="23" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>1</v>
@@ -3627,7 +3603,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>1</v>
@@ -3636,7 +3612,7 @@
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>1</v>
@@ -3645,7 +3621,7 @@
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>1</v>
@@ -3663,7 +3639,7 @@
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
       <c r="B125" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>1</v>
@@ -3672,7 +3648,7 @@
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="25" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>13</v>
@@ -3681,7 +3657,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="25" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1</v>
@@ -3699,7 +3675,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>1</v>
@@ -3708,7 +3684,7 @@
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>1</v>
@@ -3717,7 +3693,7 @@
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>1</v>
@@ -3726,7 +3702,7 @@
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
       <c r="B132" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>1</v>
@@ -3735,7 +3711,7 @@
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>1</v>
@@ -3744,7 +3720,7 @@
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>13</v>
@@ -3753,7 +3729,7 @@
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
       <c r="B135" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>13</v>
@@ -3762,7 +3738,7 @@
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
       <c r="B136" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>13</v>
@@ -3771,7 +3747,7 @@
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
       <c r="B137" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>1</v>
@@ -3780,7 +3756,7 @@
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
       <c r="B138" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>1</v>
@@ -3789,7 +3765,7 @@
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
       <c r="B139" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>1</v>
@@ -3798,7 +3774,7 @@
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
       <c r="B140" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>1</v>
@@ -3807,7 +3783,7 @@
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>1</v>
@@ -3816,14 +3792,14 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="44" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
       <c r="B143" s="46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>1</v>
@@ -3832,7 +3808,7 @@
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>1</v>
@@ -3841,7 +3817,7 @@
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>1</v>
@@ -3850,7 +3826,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="44" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>13</v>
@@ -3859,7 +3835,7 @@
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
       <c r="B147" s="46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>1</v>
@@ -3868,7 +3844,7 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="44" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>13</v>
@@ -3882,7 +3858,7 @@
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
       <c r="B150" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>1</v>
@@ -3891,7 +3867,7 @@
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
       <c r="B151" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>1</v>
@@ -3900,7 +3876,7 @@
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
       <c r="B152" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>1</v>
@@ -3927,7 +3903,7 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>1</v>
@@ -3936,7 +3912,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>1</v>
@@ -3945,7 +3921,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>1</v>
@@ -3954,7 +3930,7 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>1</v>
@@ -3963,7 +3939,7 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>1</v>
@@ -3972,7 +3948,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>13</v>
@@ -3981,7 +3957,7 @@
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>13</v>
@@ -3990,7 +3966,7 @@
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>13</v>
@@ -4004,7 +3980,7 @@
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>1</v>
@@ -4013,7 +3989,7 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>1</v>
@@ -4022,7 +3998,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>1</v>
@@ -4031,7 +4007,7 @@
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
       <c r="B167" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>1</v>
@@ -4058,7 +4034,7 @@
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>1</v>
@@ -4067,7 +4043,7 @@
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>1</v>
@@ -4076,7 +4052,7 @@
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
       <c r="B172" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>1</v>
@@ -4085,7 +4061,7 @@
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
       <c r="B173" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>1</v>
@@ -4094,7 +4070,7 @@
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
       <c r="B174" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>1</v>
@@ -4103,7 +4079,7 @@
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
       <c r="B175" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>13</v>
@@ -4112,7 +4088,7 @@
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
       <c r="B176" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>13</v>
@@ -4121,7 +4097,7 @@
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
       <c r="B177" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>13</v>
@@ -4140,7 +4116,7 @@
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
       <c r="B180" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>1</v>
@@ -4149,7 +4125,7 @@
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
       <c r="B181" s="23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>1</v>
@@ -4158,7 +4134,7 @@
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
       <c r="B182" s="21" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>1</v>
@@ -4167,7 +4143,7 @@
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
       <c r="B183" s="21" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>1</v>
@@ -4176,7 +4152,7 @@
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
       <c r="B184" s="21" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>1</v>
@@ -4185,7 +4161,7 @@
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
       <c r="B185" s="21" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>1</v>
@@ -4194,7 +4170,7 @@
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
       <c r="B186" s="21" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>1</v>
@@ -4203,7 +4179,7 @@
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
       <c r="B187" s="21" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>1</v>
@@ -4212,7 +4188,7 @@
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
       <c r="B188" s="23" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>1</v>
@@ -4221,7 +4197,7 @@
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
       <c r="B189" s="21" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>1</v>
@@ -4240,7 +4216,7 @@
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>1</v>
@@ -4249,7 +4225,7 @@
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
       <c r="B193" s="23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>1</v>
@@ -4268,7 +4244,7 @@
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
       <c r="B196" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>1</v>
@@ -4277,7 +4253,7 @@
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
       <c r="B197" s="23" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>13</v>
@@ -4286,7 +4262,7 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="23" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>13</v>
@@ -4295,7 +4271,7 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="23" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>13</v>
@@ -4304,7 +4280,7 @@
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="23" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>13</v>
@@ -4313,7 +4289,7 @@
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
       <c r="B201" s="23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>1</v>
@@ -4322,7 +4298,7 @@
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
       <c r="B202" s="23" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>1</v>
@@ -4331,7 +4307,7 @@
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
       <c r="B203" s="23" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>1</v>
@@ -4340,7 +4316,7 @@
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
       <c r="B204" s="23" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>1</v>
@@ -4349,7 +4325,7 @@
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
       <c r="B205" s="23" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>1</v>
@@ -4358,7 +4334,7 @@
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
       <c r="B206" s="23" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>1</v>
@@ -4367,7 +4343,7 @@
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
       <c r="B207" s="23" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>1</v>
@@ -4376,7 +4352,7 @@
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
       <c r="B208" s="23" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>1</v>
@@ -4385,7 +4361,7 @@
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
       <c r="B209" s="23" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>1</v>
@@ -4394,7 +4370,7 @@
     </row>
     <row r="210" spans="2:4" s="6" customFormat="1">
       <c r="B210" s="23" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>13</v>
@@ -4403,7 +4379,7 @@
     </row>
     <row r="211" spans="2:4" s="6" customFormat="1">
       <c r="B211" s="23" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>13</v>
@@ -4412,7 +4388,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>1</v>
@@ -4421,7 +4397,7 @@
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
       <c r="B213" s="23" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>1</v>
@@ -4430,7 +4406,7 @@
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="23" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>13</v>
@@ -4439,7 +4415,7 @@
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
       <c r="B215" s="23" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>1</v>
@@ -4448,7 +4424,7 @@
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
       <c r="B216" s="23" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>1</v>
@@ -4457,7 +4433,7 @@
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="23" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>1</v>
@@ -4476,7 +4452,7 @@
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
       <c r="B220" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>1</v>
@@ -4485,7 +4461,7 @@
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
       <c r="B221" s="23" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>13</v>
@@ -4494,7 +4470,7 @@
     </row>
     <row r="222" spans="2:4" s="6" customFormat="1">
       <c r="B222" s="23" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>13</v>
@@ -4503,7 +4479,7 @@
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
       <c r="B223" s="23" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>1</v>
@@ -4512,7 +4488,7 @@
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
       <c r="B224" s="23" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>1</v>
@@ -4521,7 +4497,7 @@
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
       <c r="B225" s="23" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>1</v>
@@ -4530,7 +4506,7 @@
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
       <c r="B226" s="23" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>13</v>
@@ -4539,7 +4515,7 @@
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
       <c r="B227" s="23" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>1</v>
@@ -4558,7 +4534,7 @@
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
       <c r="B230" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>1</v>
@@ -4567,7 +4543,7 @@
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
       <c r="B231" s="23" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>13</v>
@@ -4576,7 +4552,7 @@
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
       <c r="B232" s="23" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>1</v>
@@ -4585,7 +4561,7 @@
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
       <c r="B233" s="23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>1</v>
@@ -4594,7 +4570,7 @@
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
       <c r="B234" s="23" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>13</v>
@@ -4613,7 +4589,7 @@
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
       <c r="B237" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>1</v>
@@ -4622,7 +4598,7 @@
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
       <c r="B238" s="23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>13</v>
@@ -4631,7 +4607,7 @@
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
       <c r="B239" s="23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>13</v>
@@ -4640,7 +4616,7 @@
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
       <c r="B240" s="23" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>1</v>
@@ -4649,7 +4625,7 @@
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
       <c r="B241" s="23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>1</v>
@@ -4658,7 +4634,7 @@
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
       <c r="B242" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>1</v>
@@ -4677,7 +4653,7 @@
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
       <c r="B245" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>1</v>
@@ -4686,7 +4662,7 @@
     </row>
     <row r="246" spans="2:4" s="6" customFormat="1">
       <c r="B246" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>1</v>
@@ -4695,7 +4671,7 @@
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
       <c r="B247" s="23" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>1</v>
@@ -4704,7 +4680,7 @@
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
       <c r="B248" s="23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>13</v>
@@ -4713,7 +4689,7 @@
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
       <c r="B249" s="23" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>1</v>
@@ -4722,7 +4698,7 @@
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
       <c r="B250" s="23" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>1</v>
@@ -4731,7 +4707,7 @@
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
       <c r="B251" s="23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>13</v>
@@ -4740,7 +4716,7 @@
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
       <c r="B252" s="23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>1</v>
@@ -4749,7 +4725,7 @@
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
       <c r="B253" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>1</v>
@@ -4758,7 +4734,7 @@
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
       <c r="B254" s="23" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>1</v>
@@ -4767,7 +4743,7 @@
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
       <c r="B255" s="23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>1</v>
@@ -4776,7 +4752,7 @@
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
       <c r="B256" s="23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>1</v>
@@ -4785,7 +4761,7 @@
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
       <c r="B257" s="23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>1</v>
@@ -4794,7 +4770,7 @@
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
       <c r="B258" s="23" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>1</v>
@@ -4813,7 +4789,7 @@
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
       <c r="B261" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>1</v>
@@ -4822,7 +4798,7 @@
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
       <c r="B262" s="23" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>1</v>
@@ -4831,7 +4807,7 @@
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
       <c r="B263" s="23" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>1</v>
@@ -4840,7 +4816,7 @@
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
       <c r="B264" s="23" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>1</v>
@@ -4849,7 +4825,7 @@
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
       <c r="B265" s="23" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>1</v>
@@ -4858,7 +4834,7 @@
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
       <c r="B266" s="23" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>1</v>
@@ -4867,7 +4843,7 @@
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="23" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>13</v>
@@ -4876,7 +4852,7 @@
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="23" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>1</v>
@@ -4885,7 +4861,7 @@
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
       <c r="B269" s="23" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>1</v>
@@ -4894,7 +4870,7 @@
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
       <c r="B270" s="23" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>13</v>
@@ -4908,7 +4884,7 @@
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
       <c r="B272" s="23" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>13</v>
@@ -4917,7 +4893,7 @@
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
       <c r="B273" s="23" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>13</v>
@@ -4926,7 +4902,7 @@
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
       <c r="B274" s="23" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>13</v>
@@ -4935,7 +4911,7 @@
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
       <c r="B275" s="23" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>13</v>
@@ -4944,7 +4920,7 @@
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
       <c r="B276" s="23" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>13</v>
@@ -4953,7 +4929,7 @@
     </row>
     <row r="277" spans="2:4" s="6" customFormat="1">
       <c r="B277" s="23" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>13</v>
@@ -4972,7 +4948,7 @@
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
       <c r="B280" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>1</v>
@@ -4981,7 +4957,7 @@
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
       <c r="B281" s="23" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>1</v>
@@ -4990,7 +4966,7 @@
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
       <c r="B282" s="23" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>1</v>
@@ -4999,7 +4975,7 @@
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
       <c r="B283" s="23" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>1</v>
@@ -5008,7 +4984,7 @@
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
       <c r="B284" s="23" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>1</v>
@@ -5017,7 +4993,7 @@
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
       <c r="B285" s="23" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>1</v>
@@ -5026,7 +5002,7 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="23" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>1</v>
@@ -5035,7 +5011,7 @@
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
       <c r="B287" s="23" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>1</v>
@@ -5044,7 +5020,7 @@
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="23" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>13</v>
@@ -5053,7 +5029,7 @@
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
       <c r="B289" s="23" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>13</v>
@@ -5062,7 +5038,7 @@
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="23" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>13</v>
@@ -5071,7 +5047,7 @@
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="23" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>13</v>
@@ -5080,7 +5056,7 @@
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="23" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>13</v>
@@ -5089,7 +5065,7 @@
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
       <c r="B293" s="23" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>1</v>
@@ -5098,7 +5074,7 @@
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
       <c r="B294" s="23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>1</v>
@@ -5107,7 +5083,7 @@
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="23" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>1</v>
@@ -5116,7 +5092,7 @@
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
       <c r="B296" s="23" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>1</v>
@@ -5125,7 +5101,7 @@
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
       <c r="B297" s="23" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>13</v>
@@ -5134,7 +5110,7 @@
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="23" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>13</v>
@@ -5143,7 +5119,7 @@
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
       <c r="B299" s="23" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>13</v>
@@ -5162,7 +5138,7 @@
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
       <c r="B302" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>1</v>
@@ -5171,7 +5147,7 @@
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
       <c r="B303" s="23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>1</v>
@@ -5180,7 +5156,7 @@
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
       <c r="B304" s="23" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>13</v>
@@ -5189,7 +5165,7 @@
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="23" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>13</v>
@@ -5198,7 +5174,7 @@
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="23" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>1</v>
@@ -5207,7 +5183,7 @@
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="23" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>1</v>
@@ -5216,7 +5192,7 @@
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
       <c r="B308" s="23" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>1</v>
@@ -5225,7 +5201,7 @@
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
       <c r="B309" s="23" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>1</v>
@@ -5234,7 +5210,7 @@
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="23" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>1</v>
@@ -5243,7 +5219,7 @@
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
       <c r="B311" s="23" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>1</v>
@@ -5252,7 +5228,7 @@
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
       <c r="B312" s="23" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>1</v>
@@ -5261,7 +5237,7 @@
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
       <c r="B313" s="23" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>1</v>
@@ -5280,7 +5256,7 @@
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
       <c r="B316" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>1</v>
@@ -5289,7 +5265,7 @@
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="23" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>1</v>
@@ -5298,7 +5274,7 @@
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="23" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>1</v>
@@ -5307,7 +5283,7 @@
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
       <c r="B319" s="23" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>1</v>
@@ -5316,7 +5292,7 @@
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="23" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>1</v>
@@ -5325,7 +5301,7 @@
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
       <c r="B321" s="23" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>1</v>
@@ -5334,7 +5310,7 @@
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
       <c r="B322" s="23" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>1</v>
@@ -5343,7 +5319,7 @@
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
       <c r="B323" s="23" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>1</v>
@@ -5352,7 +5328,7 @@
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
       <c r="B324" s="23" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>1</v>
@@ -5361,7 +5337,7 @@
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
       <c r="B325" s="23" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>1</v>
@@ -5370,7 +5346,7 @@
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
       <c r="B326" s="23" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>1</v>
@@ -5398,7 +5374,7 @@
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
       <c r="B330" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>1</v>
@@ -5407,7 +5383,7 @@
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
       <c r="B331" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>1</v>
@@ -5461,7 +5437,7 @@
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
       <c r="B337" s="21" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>1</v>
@@ -5479,7 +5455,7 @@
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
       <c r="B339" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>1</v>
@@ -5488,7 +5464,7 @@
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
       <c r="B340" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>1</v>
@@ -5497,7 +5473,7 @@
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
       <c r="B341" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>1</v>
@@ -5506,115 +5482,103 @@
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
       <c r="B342" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
       <c r="B343" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
       <c r="B344" s="24" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
       <c r="B345" s="24" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
       <c r="B346" s="21" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
       <c r="B347" s="24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="25" t="s">
-        <v>66</v>
+      <c r="B348" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B349" s="20"/>
+      <c r="C349" s="7"/>
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="24" t="s">
-        <v>132</v>
+      <c r="B350" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="25" t="s">
-        <v>65</v>
+      <c r="B351" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B352" s="21"/>
+      <c r="C352" s="7"/>
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B353" s="21"/>
+      <c r="C353" s="7"/>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="25" t="s">
-        <v>155</v>
+      <c r="B354" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>13</v>
@@ -5622,8 +5586,8 @@
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="25" t="s">
-        <v>156</v>
+      <c r="B355" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>13</v>
@@ -5631,8 +5595,8 @@
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="25" t="s">
-        <v>157</v>
+      <c r="B356" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>13</v>
@@ -5640,40 +5604,36 @@
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="21" t="s">
-        <v>31</v>
+      <c r="B357" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="24" t="s">
-        <v>35</v>
+      <c r="B358" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B359" s="23"/>
+      <c r="C359" s="7"/>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="20"/>
+      <c r="B360" s="23"/>
       <c r="C360" s="7"/>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="23" t="s">
-        <v>26</v>
+      <c r="B361" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>1</v>
@@ -5681,8 +5641,8 @@
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="22" t="s">
-        <v>30</v>
+      <c r="B362" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>1</v>
@@ -5690,249 +5650,166 @@
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="21"/>
-      <c r="C363" s="7"/>
+      <c r="B363" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="21"/>
-      <c r="C364" s="7"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="4"/>
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C365" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B365" s="20"/>
+      <c r="C365" s="4"/>
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="23" t="s">
-        <v>59</v>
+      <c r="B366" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="23" t="s">
-        <v>60</v>
+      <c r="B367" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
       <c r="B368" s="23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C368" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="1:4" s="6" customFormat="1">
+      <c r="B369" s="23"/>
+      <c r="C369" s="9"/>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="1:4" s="6" customFormat="1">
+      <c r="B370" s="20"/>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="1:4" s="6" customFormat="1">
+      <c r="B371" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C371" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D368" s="4"/>
-    </row>
-    <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C369" s="7" t="s">
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="1:4" s="6" customFormat="1">
+      <c r="B372" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C372" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D369" s="4"/>
-    </row>
-    <row r="370" spans="2:4" s="6" customFormat="1">
-      <c r="B370" s="23"/>
-      <c r="C370" s="7"/>
-      <c r="D370" s="4"/>
-    </row>
-    <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="23"/>
-      <c r="C371" s="7"/>
-      <c r="D371" s="4"/>
-    </row>
-    <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="D372" s="4"/>
     </row>
-    <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="23" t="s">
-        <v>44</v>
+    <row r="373" spans="1:4" s="6" customFormat="1">
+      <c r="B373" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D373" s="4"/>
     </row>
-    <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="23" t="s">
-        <v>63</v>
+    <row r="374" spans="1:4" s="6" customFormat="1">
+      <c r="B374" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D374" s="4"/>
     </row>
-    <row r="375" spans="2:4" s="6" customFormat="1">
+    <row r="375" spans="1:4" s="6" customFormat="1">
       <c r="B375" s="22"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
     </row>
-    <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="20"/>
+    <row r="376" spans="1:4" s="6" customFormat="1">
+      <c r="B376" s="22"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
     </row>
-    <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C377" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D377" s="4"/>
-    </row>
-    <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D378" s="4"/>
-    </row>
-    <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="2:4" s="6" customFormat="1">
-      <c r="B380" s="23"/>
-      <c r="C380" s="9"/>
-      <c r="D380" s="4"/>
-    </row>
-    <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="20"/>
-      <c r="C381" s="4"/>
-      <c r="D381" s="4"/>
-    </row>
-    <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C382" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D382" s="4"/>
-    </row>
-    <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D383" s="4"/>
-    </row>
-    <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C384" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D384" s="4"/>
-    </row>
-    <row r="385" spans="1:4" s="6" customFormat="1">
-      <c r="B385" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D385" s="4"/>
-    </row>
-    <row r="386" spans="1:4" s="6" customFormat="1">
-      <c r="B386" s="22"/>
-      <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
-    </row>
-    <row r="387" spans="1:4" s="6" customFormat="1">
-      <c r="B387" s="22"/>
-      <c r="C387" s="4"/>
-      <c r="D387" s="4"/>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="11"/>
-      <c r="B388" s="11"/>
-      <c r="C388" s="11"/>
-      <c r="D388" s="2"/>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="B389" s="8" t="s">
+    <row r="377" spans="1:4">
+      <c r="A377" s="11"/>
+      <c r="B377" s="11"/>
+      <c r="C377" s="11"/>
+      <c r="D377" s="2"/>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="B378" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C389" s="6">
-        <f>COUNTIF(C5:C388,"y")</f>
-        <v>220</v>
-      </c>
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="B390" s="8" t="s">
+      <c r="C378" s="6">
+        <f>COUNTIF(C5:C377,"y")</f>
+        <v>224</v>
+      </c>
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="B379" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C390" s="6">
-        <f>COUNTIF(C5:C388,"n")</f>
-        <v>109</v>
-      </c>
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="B391" s="8" t="s">
+      <c r="C379" s="6">
+        <f>COUNTIF(C5:C377,"n")</f>
+        <v>94</v>
+      </c>
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="B380" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C391" s="7">
-        <f>COUNTIF(C5:C388,"TBD")</f>
+      <c r="C380" s="7">
+        <f>COUNTIF(C5:C377,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D391" s="2"/>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="B392" s="8" t="s">
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="B381" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C392">
-        <f>SUM(C389:C391)</f>
-        <v>329</v>
-      </c>
-      <c r="D392" s="2"/>
-    </row>
-    <row r="393" spans="1:4" ht="18">
-      <c r="B393" s="10"/>
-      <c r="C393" s="10" t="s">
+      <c r="C381">
+        <f>SUM(C378:C380)</f>
+        <v>318</v>
+      </c>
+      <c r="D381" s="2"/>
+    </row>
+    <row r="382" spans="1:4" ht="18">
+      <c r="B382" s="10"/>
+      <c r="C382" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D393" s="42">
-        <f>C389/(C390+C389 + C391)</f>
-        <v>0.66869300911854102</v>
+      <c r="D382" s="42">
+        <f>C378/(C379+C378 + C380)</f>
+        <v>0.70440251572327039</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C65349">
+  <conditionalFormatting sqref="C1:C3 C6:C65338">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5959,7 +5836,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5980,7 +5857,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="38" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6235,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G49" s="31">
         <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
@@ -6245,13 +6122,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="12">
-        <v>42026</v>
+        <v>42027</v>
       </c>
       <c r="B50" s="4">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C50" s="4">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -6260,11 +6137,11 @@
         <v>0</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G50" s="31">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.66869300911854102</v>
+        <v>0.70440251572327039</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -6309,25 +6186,25 @@
       </c>
       <c r="G53" s="39">
         <f>G50</f>
-        <v>0.66869300911854102</v>
+        <v>0.70440251572327039</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="40">
         <f>SUM(B54:D54)</f>
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B54" s="16">
-        <f>Features!C389</f>
-        <v>220</v>
+        <f>Features!C378</f>
+        <v>224</v>
       </c>
       <c r="C54" s="17">
-        <f>Features!C390</f>
-        <v>109</v>
+        <f>Features!C379</f>
+        <v>94</v>
       </c>
       <c r="D54" s="18">
-        <f>Features!C391</f>
+        <f>Features!C380</f>
         <v>0</v>
       </c>
       <c r="E54" s="19">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="293">
   <si>
     <t>Feature</t>
   </si>
@@ -896,7 +896,7 @@
     <t>checks for empty key</t>
   </si>
   <si>
-    <t>0.04.08</t>
+    <t>0.04.09</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1150,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958466"/>
+          <c:w val="0.91978071330958489"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1183,10 +1183,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1194,17 +1194,20 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42027</c:v>
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$50</c:f>
+              <c:f>Progress!$B$48:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1212,6 +1215,9 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
@@ -1245,10 +1251,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1256,17 +1262,20 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42027</c:v>
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1274,6 +1283,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
@@ -1307,10 +1319,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1318,17 +1330,20 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42027</c:v>
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1336,6 +1351,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1369,10 +1387,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1380,17 +1398,20 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42027</c:v>
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$54</c:f>
+              <c:f>Progress!$E$48:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1400,10 +1421,13 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1633,7 +1657,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628759"/>
+          <c:y val="0.11628512537628762"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1684,10 +1708,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1695,17 +1719,20 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42027</c:v>
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$50</c:f>
+              <c:f>Progress!$G$48:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1713,6 +1740,9 @@
                   <c:v>0.61202185792349728</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.70440251572327039</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.70440251572327039</c:v>
                 </c:pt>
               </c:numCache>
@@ -1880,10 +1910,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1891,17 +1921,20 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42027</c:v>
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1909,6 +1942,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
@@ -1942,10 +1978,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>41702</c:v>
                 </c:pt>
@@ -1953,17 +1989,20 @@
                   <c:v>42011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42027</c:v>
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1971,6 +2010,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2132,13 +2174,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2170,7 +2212,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5831,12 +5873,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT864"/>
+  <dimension ref="A1:IT865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6122,7 +6164,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="12">
-        <v>42027</v>
+        <v>42029</v>
       </c>
       <c r="B50" s="4">
         <v>224</v>
@@ -6146,13 +6188,28 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="12"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="31"/>
+      <c r="A51" s="12">
+        <v>42029</v>
+      </c>
+      <c r="B51" s="4">
+        <v>224</v>
+      </c>
+      <c r="C51" s="4">
+        <v>94</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G51" s="31">
+        <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
+        <v>0.70440251572327039</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:10">
@@ -6161,83 +6218,83 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="32"/>
+      <c r="F52" s="29"/>
       <c r="G52" s="31"/>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D54" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E54" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F54" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="39">
-        <f>G50</f>
+      <c r="G54" s="39">
+        <f>G51</f>
         <v>0.70440251572327039</v>
       </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="40">
-        <f>SUM(B54:D54)</f>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="40">
+        <f>SUM(B55:D55)</f>
         <v>318</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B55" s="16">
         <f>Features!C378</f>
         <v>224</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C55" s="17">
         <f>Features!C379</f>
         <v>94</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D55" s="18">
         <f>Features!C380</f>
         <v>0</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E55" s="19">
         <v>0</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="4"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="31"/>
       <c r="H55" s="7"/>
-      <c r="J55" s="37"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="31"/>
       <c r="H56" s="7"/>
+      <c r="J56" s="37"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -6247,7 +6304,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -6267,7 +6324,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="4"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -6287,7 +6344,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -6307,7 +6364,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4"/>
-      <c r="B64" s="7"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -6317,7 +6374,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="21"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6336,7 +6393,7 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="21"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
@@ -6347,7 +6404,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -6478,7 +6535,7 @@
     <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -6487,7 +6544,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7"/>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -6495,15 +6552,15 @@
       <c r="G82" s="31"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="4"/>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" s="2" customFormat="1">
       <c r="A84" s="4"/>
@@ -6677,7 +6734,7 @@
     </row>
     <row r="101" spans="1:8" s="2" customFormat="1">
       <c r="A101" s="4"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -6687,7 +6744,7 @@
     </row>
     <row r="102" spans="1:8" s="2" customFormat="1">
       <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -6717,7 +6774,7 @@
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="20"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -6757,7 +6814,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="22"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -6767,7 +6824,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -6777,7 +6834,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="6"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -6787,7 +6844,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -6797,7 +6854,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="20"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6817,7 +6874,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6877,7 +6934,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="20"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -6977,7 +7034,7 @@
     </row>
     <row r="131" spans="1:254" s="2" customFormat="1">
       <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -7027,7 +7084,7 @@
     </row>
     <row r="136" spans="1:254" s="2" customFormat="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="20"/>
+      <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -7047,7 +7104,7 @@
     </row>
     <row r="138" spans="1:254" s="2" customFormat="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -7086,284 +7143,284 @@
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:254" s="2" customFormat="1">
-      <c r="A142" s="22"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="22"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="22"/>
-      <c r="F142" s="22"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="22"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5"/>
-      <c r="V142" s="5"/>
-      <c r="W142" s="5"/>
-      <c r="X142" s="5"/>
-      <c r="Y142" s="5"/>
-      <c r="Z142" s="5"/>
-      <c r="AA142" s="5"/>
-      <c r="AB142" s="5"/>
-      <c r="AC142" s="5"/>
-      <c r="AD142" s="5"/>
-      <c r="AE142" s="5"/>
-      <c r="AF142" s="5"/>
-      <c r="AG142" s="5"/>
-      <c r="AH142" s="5"/>
-      <c r="AI142" s="5"/>
-      <c r="AJ142" s="5"/>
-      <c r="AK142" s="5"/>
-      <c r="AL142" s="5"/>
-      <c r="AM142" s="5"/>
-      <c r="AN142" s="5"/>
-      <c r="AO142" s="5"/>
-      <c r="AP142" s="5"/>
-      <c r="AQ142" s="5"/>
-      <c r="AR142" s="5"/>
-      <c r="AS142" s="5"/>
-      <c r="AT142" s="5"/>
-      <c r="AU142" s="5"/>
-      <c r="AV142" s="5"/>
-      <c r="AW142" s="5"/>
-      <c r="AX142" s="5"/>
-      <c r="AY142" s="5"/>
-      <c r="AZ142" s="5"/>
-      <c r="BA142" s="5"/>
-      <c r="BB142" s="5"/>
-      <c r="BC142" s="5"/>
-      <c r="BD142" s="5"/>
-      <c r="BE142" s="5"/>
-      <c r="BF142" s="5"/>
-      <c r="BG142" s="5"/>
-      <c r="BH142" s="5"/>
-      <c r="BI142" s="5"/>
-      <c r="BJ142" s="5"/>
-      <c r="BK142" s="5"/>
-      <c r="BL142" s="5"/>
-      <c r="BM142" s="5"/>
-      <c r="BN142" s="5"/>
-      <c r="BO142" s="5"/>
-      <c r="BP142" s="5"/>
-      <c r="BQ142" s="5"/>
-      <c r="BR142" s="5"/>
-      <c r="BS142" s="5"/>
-      <c r="BT142" s="5"/>
-      <c r="BU142" s="5"/>
-      <c r="BV142" s="5"/>
-      <c r="BW142" s="5"/>
-      <c r="BX142" s="5"/>
-      <c r="BY142" s="5"/>
-      <c r="BZ142" s="5"/>
-      <c r="CA142" s="5"/>
-      <c r="CB142" s="5"/>
-      <c r="CC142" s="5"/>
-      <c r="CD142" s="5"/>
-      <c r="CE142" s="5"/>
-      <c r="CF142" s="5"/>
-      <c r="CG142" s="5"/>
-      <c r="CH142" s="5"/>
-      <c r="CI142" s="5"/>
-      <c r="CJ142" s="5"/>
-      <c r="CK142" s="5"/>
-      <c r="CL142" s="5"/>
-      <c r="CM142" s="5"/>
-      <c r="CN142" s="5"/>
-      <c r="CO142" s="5"/>
-      <c r="CP142" s="5"/>
-      <c r="CQ142" s="5"/>
-      <c r="CR142" s="5"/>
-      <c r="CS142" s="5"/>
-      <c r="CT142" s="5"/>
-      <c r="CU142" s="5"/>
-      <c r="CV142" s="5"/>
-      <c r="CW142" s="5"/>
-      <c r="CX142" s="5"/>
-      <c r="CY142" s="5"/>
-      <c r="CZ142" s="5"/>
-      <c r="DA142" s="5"/>
-      <c r="DB142" s="5"/>
-      <c r="DC142" s="5"/>
-      <c r="DD142" s="5"/>
-      <c r="DE142" s="5"/>
-      <c r="DF142" s="5"/>
-      <c r="DG142" s="5"/>
-      <c r="DH142" s="5"/>
-      <c r="DI142" s="5"/>
-      <c r="DJ142" s="5"/>
-      <c r="DK142" s="5"/>
-      <c r="DL142" s="5"/>
-      <c r="DM142" s="5"/>
-      <c r="DN142" s="5"/>
-      <c r="DO142" s="5"/>
-      <c r="DP142" s="5"/>
-      <c r="DQ142" s="5"/>
-      <c r="DR142" s="5"/>
-      <c r="DS142" s="5"/>
-      <c r="DT142" s="5"/>
-      <c r="DU142" s="5"/>
-      <c r="DV142" s="5"/>
-      <c r="DW142" s="5"/>
-      <c r="DX142" s="5"/>
-      <c r="DY142" s="5"/>
-      <c r="DZ142" s="5"/>
-      <c r="EA142" s="5"/>
-      <c r="EB142" s="5"/>
-      <c r="EC142" s="5"/>
-      <c r="ED142" s="5"/>
-      <c r="EE142" s="5"/>
-      <c r="EF142" s="5"/>
-      <c r="EG142" s="5"/>
-      <c r="EH142" s="5"/>
-      <c r="EI142" s="5"/>
-      <c r="EJ142" s="5"/>
-      <c r="EK142" s="5"/>
-      <c r="EL142" s="5"/>
-      <c r="EM142" s="5"/>
-      <c r="EN142" s="5"/>
-      <c r="EO142" s="5"/>
-      <c r="EP142" s="5"/>
-      <c r="EQ142" s="5"/>
-      <c r="ER142" s="5"/>
-      <c r="ES142" s="5"/>
-      <c r="ET142" s="5"/>
-      <c r="EU142" s="5"/>
-      <c r="EV142" s="5"/>
-      <c r="EW142" s="5"/>
-      <c r="EX142" s="5"/>
-      <c r="EY142" s="5"/>
-      <c r="EZ142" s="5"/>
-      <c r="FA142" s="5"/>
-      <c r="FB142" s="5"/>
-      <c r="FC142" s="5"/>
-      <c r="FD142" s="5"/>
-      <c r="FE142" s="5"/>
-      <c r="FF142" s="5"/>
-      <c r="FG142" s="5"/>
-      <c r="FH142" s="5"/>
-      <c r="FI142" s="5"/>
-      <c r="FJ142" s="5"/>
-      <c r="FK142" s="5"/>
-      <c r="FL142" s="5"/>
-      <c r="FM142" s="5"/>
-      <c r="FN142" s="5"/>
-      <c r="FO142" s="5"/>
-      <c r="FP142" s="5"/>
-      <c r="FQ142" s="5"/>
-      <c r="FR142" s="5"/>
-      <c r="FS142" s="5"/>
-      <c r="FT142" s="5"/>
-      <c r="FU142" s="5"/>
-      <c r="FV142" s="5"/>
-      <c r="FW142" s="5"/>
-      <c r="FX142" s="5"/>
-      <c r="FY142" s="5"/>
-      <c r="FZ142" s="5"/>
-      <c r="GA142" s="5"/>
-      <c r="GB142" s="5"/>
-      <c r="GC142" s="5"/>
-      <c r="GD142" s="5"/>
-      <c r="GE142" s="5"/>
-      <c r="GF142" s="5"/>
-      <c r="GG142" s="5"/>
-      <c r="GH142" s="5"/>
-      <c r="GI142" s="5"/>
-      <c r="GJ142" s="5"/>
-      <c r="GK142" s="5"/>
-      <c r="GL142" s="5"/>
-      <c r="GM142" s="5"/>
-      <c r="GN142" s="5"/>
-      <c r="GO142" s="5"/>
-      <c r="GP142" s="5"/>
-      <c r="GQ142" s="5"/>
-      <c r="GR142" s="5"/>
-      <c r="GS142" s="5"/>
-      <c r="GT142" s="5"/>
-      <c r="GU142" s="5"/>
-      <c r="GV142" s="5"/>
-      <c r="GW142" s="5"/>
-      <c r="GX142" s="5"/>
-      <c r="GY142" s="5"/>
-      <c r="GZ142" s="5"/>
-      <c r="HA142" s="5"/>
-      <c r="HB142" s="5"/>
-      <c r="HC142" s="5"/>
-      <c r="HD142" s="5"/>
-      <c r="HE142" s="5"/>
-      <c r="HF142" s="5"/>
-      <c r="HG142" s="5"/>
-      <c r="HH142" s="5"/>
-      <c r="HI142" s="5"/>
-      <c r="HJ142" s="5"/>
-      <c r="HK142" s="5"/>
-      <c r="HL142" s="5"/>
-      <c r="HM142" s="5"/>
-      <c r="HN142" s="5"/>
-      <c r="HO142" s="5"/>
-      <c r="HP142" s="5"/>
-      <c r="HQ142" s="5"/>
-      <c r="HR142" s="5"/>
-      <c r="HS142" s="5"/>
-      <c r="HT142" s="5"/>
-      <c r="HU142" s="5"/>
-      <c r="HV142" s="5"/>
-      <c r="HW142" s="5"/>
-      <c r="HX142" s="5"/>
-      <c r="HY142" s="5"/>
-      <c r="HZ142" s="5"/>
-      <c r="IA142" s="5"/>
-      <c r="IB142" s="5"/>
-      <c r="IC142" s="5"/>
-      <c r="ID142" s="5"/>
-      <c r="IE142" s="5"/>
-      <c r="IF142" s="5"/>
-      <c r="IG142" s="5"/>
-      <c r="IH142" s="5"/>
-      <c r="II142" s="5"/>
-      <c r="IJ142" s="5"/>
-      <c r="IK142" s="5"/>
-      <c r="IL142" s="5"/>
-      <c r="IM142" s="5"/>
-      <c r="IN142" s="5"/>
-      <c r="IO142" s="5"/>
-      <c r="IP142" s="5"/>
-      <c r="IQ142" s="5"/>
-      <c r="IR142" s="5"/>
-      <c r="IS142" s="5"/>
-      <c r="IT142" s="5"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:254" s="2" customFormat="1">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="1:254">
-      <c r="A144" s="7"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="31"/>
-      <c r="H144" s="7"/>
+      <c r="A143" s="22"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="5"/>
+      <c r="AG143" s="5"/>
+      <c r="AH143" s="5"/>
+      <c r="AI143" s="5"/>
+      <c r="AJ143" s="5"/>
+      <c r="AK143" s="5"/>
+      <c r="AL143" s="5"/>
+      <c r="AM143" s="5"/>
+      <c r="AN143" s="5"/>
+      <c r="AO143" s="5"/>
+      <c r="AP143" s="5"/>
+      <c r="AQ143" s="5"/>
+      <c r="AR143" s="5"/>
+      <c r="AS143" s="5"/>
+      <c r="AT143" s="5"/>
+      <c r="AU143" s="5"/>
+      <c r="AV143" s="5"/>
+      <c r="AW143" s="5"/>
+      <c r="AX143" s="5"/>
+      <c r="AY143" s="5"/>
+      <c r="AZ143" s="5"/>
+      <c r="BA143" s="5"/>
+      <c r="BB143" s="5"/>
+      <c r="BC143" s="5"/>
+      <c r="BD143" s="5"/>
+      <c r="BE143" s="5"/>
+      <c r="BF143" s="5"/>
+      <c r="BG143" s="5"/>
+      <c r="BH143" s="5"/>
+      <c r="BI143" s="5"/>
+      <c r="BJ143" s="5"/>
+      <c r="BK143" s="5"/>
+      <c r="BL143" s="5"/>
+      <c r="BM143" s="5"/>
+      <c r="BN143" s="5"/>
+      <c r="BO143" s="5"/>
+      <c r="BP143" s="5"/>
+      <c r="BQ143" s="5"/>
+      <c r="BR143" s="5"/>
+      <c r="BS143" s="5"/>
+      <c r="BT143" s="5"/>
+      <c r="BU143" s="5"/>
+      <c r="BV143" s="5"/>
+      <c r="BW143" s="5"/>
+      <c r="BX143" s="5"/>
+      <c r="BY143" s="5"/>
+      <c r="BZ143" s="5"/>
+      <c r="CA143" s="5"/>
+      <c r="CB143" s="5"/>
+      <c r="CC143" s="5"/>
+      <c r="CD143" s="5"/>
+      <c r="CE143" s="5"/>
+      <c r="CF143" s="5"/>
+      <c r="CG143" s="5"/>
+      <c r="CH143" s="5"/>
+      <c r="CI143" s="5"/>
+      <c r="CJ143" s="5"/>
+      <c r="CK143" s="5"/>
+      <c r="CL143" s="5"/>
+      <c r="CM143" s="5"/>
+      <c r="CN143" s="5"/>
+      <c r="CO143" s="5"/>
+      <c r="CP143" s="5"/>
+      <c r="CQ143" s="5"/>
+      <c r="CR143" s="5"/>
+      <c r="CS143" s="5"/>
+      <c r="CT143" s="5"/>
+      <c r="CU143" s="5"/>
+      <c r="CV143" s="5"/>
+      <c r="CW143" s="5"/>
+      <c r="CX143" s="5"/>
+      <c r="CY143" s="5"/>
+      <c r="CZ143" s="5"/>
+      <c r="DA143" s="5"/>
+      <c r="DB143" s="5"/>
+      <c r="DC143" s="5"/>
+      <c r="DD143" s="5"/>
+      <c r="DE143" s="5"/>
+      <c r="DF143" s="5"/>
+      <c r="DG143" s="5"/>
+      <c r="DH143" s="5"/>
+      <c r="DI143" s="5"/>
+      <c r="DJ143" s="5"/>
+      <c r="DK143" s="5"/>
+      <c r="DL143" s="5"/>
+      <c r="DM143" s="5"/>
+      <c r="DN143" s="5"/>
+      <c r="DO143" s="5"/>
+      <c r="DP143" s="5"/>
+      <c r="DQ143" s="5"/>
+      <c r="DR143" s="5"/>
+      <c r="DS143" s="5"/>
+      <c r="DT143" s="5"/>
+      <c r="DU143" s="5"/>
+      <c r="DV143" s="5"/>
+      <c r="DW143" s="5"/>
+      <c r="DX143" s="5"/>
+      <c r="DY143" s="5"/>
+      <c r="DZ143" s="5"/>
+      <c r="EA143" s="5"/>
+      <c r="EB143" s="5"/>
+      <c r="EC143" s="5"/>
+      <c r="ED143" s="5"/>
+      <c r="EE143" s="5"/>
+      <c r="EF143" s="5"/>
+      <c r="EG143" s="5"/>
+      <c r="EH143" s="5"/>
+      <c r="EI143" s="5"/>
+      <c r="EJ143" s="5"/>
+      <c r="EK143" s="5"/>
+      <c r="EL143" s="5"/>
+      <c r="EM143" s="5"/>
+      <c r="EN143" s="5"/>
+      <c r="EO143" s="5"/>
+      <c r="EP143" s="5"/>
+      <c r="EQ143" s="5"/>
+      <c r="ER143" s="5"/>
+      <c r="ES143" s="5"/>
+      <c r="ET143" s="5"/>
+      <c r="EU143" s="5"/>
+      <c r="EV143" s="5"/>
+      <c r="EW143" s="5"/>
+      <c r="EX143" s="5"/>
+      <c r="EY143" s="5"/>
+      <c r="EZ143" s="5"/>
+      <c r="FA143" s="5"/>
+      <c r="FB143" s="5"/>
+      <c r="FC143" s="5"/>
+      <c r="FD143" s="5"/>
+      <c r="FE143" s="5"/>
+      <c r="FF143" s="5"/>
+      <c r="FG143" s="5"/>
+      <c r="FH143" s="5"/>
+      <c r="FI143" s="5"/>
+      <c r="FJ143" s="5"/>
+      <c r="FK143" s="5"/>
+      <c r="FL143" s="5"/>
+      <c r="FM143" s="5"/>
+      <c r="FN143" s="5"/>
+      <c r="FO143" s="5"/>
+      <c r="FP143" s="5"/>
+      <c r="FQ143" s="5"/>
+      <c r="FR143" s="5"/>
+      <c r="FS143" s="5"/>
+      <c r="FT143" s="5"/>
+      <c r="FU143" s="5"/>
+      <c r="FV143" s="5"/>
+      <c r="FW143" s="5"/>
+      <c r="FX143" s="5"/>
+      <c r="FY143" s="5"/>
+      <c r="FZ143" s="5"/>
+      <c r="GA143" s="5"/>
+      <c r="GB143" s="5"/>
+      <c r="GC143" s="5"/>
+      <c r="GD143" s="5"/>
+      <c r="GE143" s="5"/>
+      <c r="GF143" s="5"/>
+      <c r="GG143" s="5"/>
+      <c r="GH143" s="5"/>
+      <c r="GI143" s="5"/>
+      <c r="GJ143" s="5"/>
+      <c r="GK143" s="5"/>
+      <c r="GL143" s="5"/>
+      <c r="GM143" s="5"/>
+      <c r="GN143" s="5"/>
+      <c r="GO143" s="5"/>
+      <c r="GP143" s="5"/>
+      <c r="GQ143" s="5"/>
+      <c r="GR143" s="5"/>
+      <c r="GS143" s="5"/>
+      <c r="GT143" s="5"/>
+      <c r="GU143" s="5"/>
+      <c r="GV143" s="5"/>
+      <c r="GW143" s="5"/>
+      <c r="GX143" s="5"/>
+      <c r="GY143" s="5"/>
+      <c r="GZ143" s="5"/>
+      <c r="HA143" s="5"/>
+      <c r="HB143" s="5"/>
+      <c r="HC143" s="5"/>
+      <c r="HD143" s="5"/>
+      <c r="HE143" s="5"/>
+      <c r="HF143" s="5"/>
+      <c r="HG143" s="5"/>
+      <c r="HH143" s="5"/>
+      <c r="HI143" s="5"/>
+      <c r="HJ143" s="5"/>
+      <c r="HK143" s="5"/>
+      <c r="HL143" s="5"/>
+      <c r="HM143" s="5"/>
+      <c r="HN143" s="5"/>
+      <c r="HO143" s="5"/>
+      <c r="HP143" s="5"/>
+      <c r="HQ143" s="5"/>
+      <c r="HR143" s="5"/>
+      <c r="HS143" s="5"/>
+      <c r="HT143" s="5"/>
+      <c r="HU143" s="5"/>
+      <c r="HV143" s="5"/>
+      <c r="HW143" s="5"/>
+      <c r="HX143" s="5"/>
+      <c r="HY143" s="5"/>
+      <c r="HZ143" s="5"/>
+      <c r="IA143" s="5"/>
+      <c r="IB143" s="5"/>
+      <c r="IC143" s="5"/>
+      <c r="ID143" s="5"/>
+      <c r="IE143" s="5"/>
+      <c r="IF143" s="5"/>
+      <c r="IG143" s="5"/>
+      <c r="IH143" s="5"/>
+      <c r="II143" s="5"/>
+      <c r="IJ143" s="5"/>
+      <c r="IK143" s="5"/>
+      <c r="IL143" s="5"/>
+      <c r="IM143" s="5"/>
+      <c r="IN143" s="5"/>
+      <c r="IO143" s="5"/>
+      <c r="IP143" s="5"/>
+      <c r="IQ143" s="5"/>
+      <c r="IR143" s="5"/>
+      <c r="IS143" s="5"/>
+      <c r="IT143" s="5"/>
+    </row>
+    <row r="144" spans="1:254" s="2" customFormat="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
+      <c r="B145" s="6"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -7373,7 +7430,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7"/>
-      <c r="B146" s="21"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -7383,7 +7440,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -7394,7 +7451,7 @@
     <row r="148" spans="1:8">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="4"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
@@ -7434,7 +7491,7 @@
     <row r="152" spans="1:8">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
+      <c r="C152" s="4"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -7443,7 +7500,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="7"/>
-      <c r="B153" s="23"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -7463,7 +7520,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="23"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -7473,7 +7530,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="7"/>
-      <c r="B156" s="21"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -7493,7 +7550,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -7513,7 +7570,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="7"/>
-      <c r="B160" s="21"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -7533,7 +7590,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -7553,7 +7610,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="21"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -7573,7 +7630,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7613,7 +7670,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="6"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -7623,8 +7680,8 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
@@ -7633,7 +7690,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="20"/>
+      <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -7703,7 +7760,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="4"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7713,7 +7770,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="20"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7723,7 +7780,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="22"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7743,7 +7800,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="20"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7784,7 +7841,7 @@
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
       <c r="B187" s="20"/>
-      <c r="C187" s="7"/>
+      <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
@@ -7793,7 +7850,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="4"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7813,7 +7870,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="20"/>
+      <c r="B190" s="4"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7873,7 +7930,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="22"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -7913,7 +7970,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="4"/>
+      <c r="B200" s="22"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -7923,7 +7980,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="6"/>
+      <c r="B201" s="4"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -7933,7 +7990,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="4"/>
+      <c r="B202" s="6"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7943,7 +8000,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="20"/>
+      <c r="B203" s="4"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -7993,7 +8050,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="22"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -8003,7 +8060,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="20"/>
+      <c r="B209" s="22"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -8053,7 +8110,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="22"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -8113,7 +8170,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="4"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -8123,7 +8180,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="6"/>
+      <c r="B221" s="4"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -8133,8 +8190,8 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
@@ -8143,7 +8200,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="20"/>
+      <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -8153,7 +8210,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -8163,7 +8220,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="21"/>
+      <c r="B225" s="7"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -8203,7 +8260,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+      <c r="B229" s="21"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -8213,7 +8270,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="21"/>
+      <c r="B230" s="7"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -8223,7 +8280,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="24"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -8243,7 +8300,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="21"/>
+      <c r="B233" s="24"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -8283,7 +8340,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="21"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -8293,7 +8350,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="21"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -8343,7 +8400,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="21"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -8353,8 +8410,8 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="21"/>
-      <c r="C244" s="7"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
@@ -8363,7 +8420,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="21"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -8373,7 +8430,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="21"/>
+      <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -8383,7 +8440,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="24"/>
+      <c r="B247" s="21"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -8433,8 +8490,8 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="21"/>
-      <c r="C252" s="4"/>
+      <c r="B252" s="24"/>
+      <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
@@ -8443,7 +8500,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="24"/>
+      <c r="B253" s="21"/>
       <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -8453,7 +8510,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="25"/>
+      <c r="B254" s="24"/>
       <c r="C254" s="4"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -8483,7 +8540,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="26"/>
+      <c r="B257" s="25"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -8493,7 +8550,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="24"/>
+      <c r="B258" s="26"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -8533,7 +8590,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="25"/>
+      <c r="B262" s="24"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -8563,7 +8620,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="24"/>
+      <c r="B265" s="25"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -8573,7 +8630,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="25"/>
+      <c r="B266" s="24"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -8581,15 +8638,15 @@
       <c r="G266" s="31"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8" s="2" customFormat="1">
-      <c r="A267" s="4"/>
+    <row r="267" spans="1:8">
+      <c r="A267" s="7"/>
       <c r="B267" s="25"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
-      <c r="G267" s="35"/>
-      <c r="H267" s="4"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="31"/>
+      <c r="H267" s="7"/>
     </row>
     <row r="268" spans="1:8" s="2" customFormat="1">
       <c r="A268" s="4"/>
@@ -8601,19 +8658,19 @@
       <c r="G268" s="35"/>
       <c r="H268" s="4"/>
     </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="7"/>
+    <row r="269" spans="1:8" s="2" customFormat="1">
+      <c r="A269" s="4"/>
       <c r="B269" s="25"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="7"/>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7"/>
-      <c r="G269" s="31"/>
-      <c r="H269" s="7"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
+      <c r="G269" s="35"/>
+      <c r="H269" s="4"/>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="25"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -8623,7 +8680,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="25"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -8653,7 +8710,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="23"/>
+      <c r="B274" s="25"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -8663,7 +8720,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="7"/>
+      <c r="B275" s="23"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -8683,7 +8740,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="21"/>
+      <c r="B277" s="7"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -8703,7 +8760,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="21"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -8734,7 +8791,7 @@
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
-      <c r="C282" s="7"/>
+      <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
@@ -8743,7 +8800,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="6"/>
+      <c r="B283" s="7"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -8753,7 +8810,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="6"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -8833,7 +8890,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="6"/>
+      <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -8843,8 +8900,8 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
@@ -8853,7 +8910,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="7"/>
-      <c r="B294" s="20"/>
+      <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -8883,7 +8940,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="4"/>
+      <c r="B297" s="20"/>
       <c r="C297" s="4"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -8943,7 +9000,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="20"/>
+      <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -8963,7 +9020,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="22"/>
+      <c r="B305" s="20"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -8973,8 +9030,8 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="7"/>
-      <c r="C306" s="7"/>
+      <c r="B306" s="22"/>
+      <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
@@ -8983,7 +9040,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="6"/>
+      <c r="B307" s="7"/>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -8991,15 +9048,15 @@
       <c r="G307" s="31"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="1:8" s="2" customFormat="1">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
-      <c r="G308" s="35"/>
-      <c r="H308" s="4"/>
+    <row r="308" spans="1:8">
+      <c r="A308" s="7"/>
+      <c r="B308" s="6"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
+      <c r="G308" s="31"/>
+      <c r="H308" s="7"/>
     </row>
     <row r="309" spans="1:8" s="2" customFormat="1">
       <c r="A309" s="4"/>
@@ -9023,7 +9080,7 @@
     </row>
     <row r="311" spans="1:8" s="2" customFormat="1">
       <c r="A311" s="4"/>
-      <c r="B311" s="20"/>
+      <c r="B311" s="4"/>
       <c r="C311" s="9"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -9073,8 +9130,8 @@
     </row>
     <row r="316" spans="1:8" s="2" customFormat="1">
       <c r="A316" s="4"/>
-      <c r="B316" s="27"/>
-      <c r="C316" s="4"/>
+      <c r="B316" s="20"/>
+      <c r="C316" s="9"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -9123,7 +9180,7 @@
     </row>
     <row r="321" spans="1:8" s="2" customFormat="1">
       <c r="A321" s="4"/>
-      <c r="B321" s="22"/>
+      <c r="B321" s="27"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -9173,7 +9230,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="20"/>
+      <c r="B326" s="22"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -9183,7 +9240,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="22"/>
+      <c r="B327" s="20"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -9193,7 +9250,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="4"/>
+      <c r="B328" s="22"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -9201,20 +9258,20 @@
       <c r="G328" s="35"/>
       <c r="H328" s="4"/>
     </row>
-    <row r="329" spans="1:8">
-      <c r="A329" s="7"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="7"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="7"/>
-      <c r="F329" s="7"/>
-      <c r="G329" s="31"/>
-      <c r="H329" s="7"/>
+    <row r="329" spans="1:8" s="2" customFormat="1">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+      <c r="G329" s="35"/>
+      <c r="H329" s="4"/>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="7"/>
-      <c r="B330" s="7"/>
-      <c r="C330" s="4"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
@@ -9283,7 +9340,7 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
-      <c r="B337" s="4"/>
+      <c r="B337" s="7"/>
       <c r="C337" s="4"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
@@ -9294,7 +9351,7 @@
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
       <c r="B338" s="4"/>
-      <c r="C338" s="7"/>
+      <c r="C338" s="4"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
@@ -9303,7 +9360,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="6"/>
+      <c r="B339" s="4"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -9313,7 +9370,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="7"/>
-      <c r="B340" s="7"/>
+      <c r="B340" s="6"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -9323,7 +9380,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="23"/>
+      <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -9333,7 +9390,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="23"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -9373,7 +9430,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="6"/>
+      <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -9383,7 +9440,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="6"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -9393,7 +9450,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="21"/>
+      <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -9423,7 +9480,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="23"/>
+      <c r="B351" s="21"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -9433,7 +9490,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="21"/>
+      <c r="B352" s="23"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -9453,7 +9510,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="23"/>
+      <c r="B354" s="21"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -9463,7 +9520,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="21"/>
+      <c r="B355" s="23"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -9473,7 +9530,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="23"/>
+      <c r="B356" s="21"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -9483,7 +9540,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="21"/>
+      <c r="B357" s="23"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -9513,7 +9570,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="21"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -9523,7 +9580,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="28"/>
+      <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9533,7 +9590,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="23"/>
+      <c r="B362" s="28"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -9543,8 +9600,8 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="7"/>
-      <c r="C363" s="4"/>
+      <c r="B363" s="23"/>
+      <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
@@ -9553,7 +9610,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="21"/>
+      <c r="B364" s="7"/>
       <c r="C364" s="4"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -9583,7 +9640,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
+      <c r="B367" s="21"/>
       <c r="C367" s="4"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -9613,7 +9670,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="21"/>
+      <c r="B370" s="7"/>
       <c r="C370" s="4"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -9633,8 +9690,8 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
-      <c r="C372" s="7"/>
+      <c r="B372" s="21"/>
+      <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
@@ -9643,7 +9700,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="6"/>
+      <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -9653,7 +9710,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
+      <c r="B374" s="6"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -9713,7 +9770,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="6"/>
+      <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -9723,7 +9780,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
+      <c r="B381" s="6"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -9744,7 +9801,7 @@
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
-      <c r="C383" s="4"/>
+      <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
@@ -9753,7 +9810,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="21"/>
+      <c r="B384" s="7"/>
       <c r="C384" s="4"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -9764,7 +9821,7 @@
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
       <c r="B385" s="21"/>
-      <c r="C385" s="7"/>
+      <c r="C385" s="4"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
@@ -9773,7 +9830,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="28"/>
+      <c r="B386" s="21"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -9783,7 +9840,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="23"/>
+      <c r="B387" s="28"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -9833,7 +9890,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
+      <c r="B392" s="23"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -9843,7 +9900,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="6"/>
+      <c r="B393" s="7"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -9853,7 +9910,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="6"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -9863,7 +9920,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="21"/>
+      <c r="B395" s="7"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -9873,7 +9930,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="23"/>
+      <c r="B396" s="21"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -9893,7 +9950,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="21"/>
+      <c r="B398" s="23"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -9933,7 +9990,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="21"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -9943,7 +10000,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="21"/>
+      <c r="B403" s="7"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -9963,7 +10020,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="23"/>
+      <c r="B405" s="21"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -9973,7 +10030,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="23"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -9983,7 +10040,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="6"/>
+      <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9993,7 +10050,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="6"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -10013,7 +10070,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="6"/>
+      <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -10023,7 +10080,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="6"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -10033,7 +10090,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="21"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -10053,7 +10110,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="21"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -10063,7 +10120,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -10073,7 +10130,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -10123,7 +10180,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="6"/>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -10133,7 +10190,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="6"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -10193,7 +10250,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="6"/>
+      <c r="B428" s="7"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -10203,7 +10260,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -10223,7 +10280,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="6"/>
+      <c r="B431" s="7"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -10233,7 +10290,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="4"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -10253,7 +10310,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="4"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -10283,7 +10340,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="7"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -10293,8 +10350,8 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
-      <c r="C438" s="4"/>
+      <c r="B438" s="6"/>
+      <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
@@ -10344,7 +10401,7 @@
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
-      <c r="C443" s="7"/>
+      <c r="C443" s="4"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
@@ -10353,7 +10410,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="6"/>
+      <c r="B444" s="7"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -10363,8 +10420,8 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
-      <c r="C445" s="4"/>
+      <c r="B445" s="6"/>
+      <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
@@ -10404,7 +10461,7 @@
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
-      <c r="C449" s="7"/>
+      <c r="C449" s="4"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -10413,7 +10470,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="7"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -10423,7 +10480,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="23"/>
+      <c r="B451" s="6"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -10483,7 +10540,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="7"/>
+      <c r="B457" s="23"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -10493,7 +10550,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="6"/>
+      <c r="B458" s="7"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -10503,7 +10560,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="23"/>
+      <c r="B459" s="6"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -10532,8 +10589,8 @@
       <c r="H461" s="7"/>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="6"/>
-      <c r="B462" s="7"/>
+      <c r="A462" s="7"/>
+      <c r="B462" s="23"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -10542,7 +10599,7 @@
       <c r="H462" s="7"/>
     </row>
     <row r="463" spans="1:8">
-      <c r="A463" s="7"/>
+      <c r="A463" s="6"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
@@ -10583,7 +10640,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="29"/>
+      <c r="B467" s="7"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -10613,7 +10670,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="7"/>
-      <c r="B470" s="7"/>
+      <c r="B470" s="29"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -10623,7 +10680,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="29"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -10633,7 +10690,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
+      <c r="B472" s="29"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -10643,21 +10700,21 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="30"/>
-      <c r="C473" s="31"/>
+      <c r="B473" s="7"/>
+      <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
-      <c r="F473" s="30"/>
+      <c r="F473" s="7"/>
       <c r="G473" s="31"/>
       <c r="H473" s="7"/>
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
-      <c r="C474" s="7"/>
+      <c r="B474" s="30"/>
+      <c r="C474" s="31"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
-      <c r="F474" s="7"/>
+      <c r="F474" s="30"/>
       <c r="G474" s="31"/>
       <c r="H474" s="7"/>
     </row>
@@ -14561,6 +14618,16 @@
       <c r="G864" s="31"/>
       <c r="H864" s="7"/>
     </row>
+    <row r="865" spans="1:8">
+      <c r="A865" s="7"/>
+      <c r="B865" s="7"/>
+      <c r="C865" s="7"/>
+      <c r="D865" s="7"/>
+      <c r="E865" s="7"/>
+      <c r="F865" s="7"/>
+      <c r="G865" s="31"/>
+      <c r="H865" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="297">
   <si>
     <t>Feature</t>
   </si>
@@ -662,9 +662,6 @@
     <t>encodeBase64</t>
   </si>
   <si>
-    <t>colorNames</t>
-  </si>
-  <si>
     <t>digest</t>
   </si>
   <si>
@@ -897,6 +894,21 @@
   </si>
   <si>
     <t>0.04.09</t>
+  </si>
+  <si>
+    <t>display stdout, stderr</t>
+  </si>
+  <si>
+    <t>destroy process on cancel</t>
+  </si>
+  <si>
+    <t>newFileScanner</t>
+  </si>
+  <si>
+    <t>tempFile(prefix, duffix)</t>
+  </si>
+  <si>
+    <t>0.04.10</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1162,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958489"/>
+          <c:w val="0.91978071330958511"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1197,7 +1209,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42029</c:v>
+                  <c:v>42040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,7 +1230,7 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,7 +1277,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42029</c:v>
+                  <c:v>42040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,7 +1298,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,7 +1345,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42029</c:v>
+                  <c:v>42040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,7 +1413,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42029</c:v>
+                  <c:v>42040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,11 +1446,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120201216"/>
-        <c:axId val="120202752"/>
+        <c:axId val="120463360"/>
+        <c:axId val="120464896"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120201216"/>
+        <c:axId val="120463360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120202752"/>
+        <c:crossAx val="120464896"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1487,7 +1499,7 @@
         <c:minorTimeUnit val="years"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120202752"/>
+        <c:axId val="120464896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120201216"/>
+        <c:crossAx val="120463360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1657,7 +1669,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628762"/>
+          <c:y val="0.11628512537628764"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1722,7 +1734,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42029</c:v>
+                  <c:v>42040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,17 +1755,17 @@
                   <c:v>0.70440251572327039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70440251572327039</c:v>
+                  <c:v>0.71651090342679125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120222464"/>
-        <c:axId val="120224000"/>
+        <c:axId val="120488704"/>
+        <c:axId val="120490240"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120222464"/>
+        <c:axId val="120488704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,13 +1773,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120224000"/>
+        <c:crossAx val="120490240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120224000"/>
+        <c:axId val="120490240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1810,7 +1822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120222464"/>
+        <c:crossAx val="120488704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1924,7 +1936,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42029</c:v>
+                  <c:v>42040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,7 +1957,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,7 +2004,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42029</c:v>
+                  <c:v>42040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,11 +2031,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120248960"/>
-        <c:axId val="120275328"/>
+        <c:axId val="120511104"/>
+        <c:axId val="120537472"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120248960"/>
+        <c:axId val="120511104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2043,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yy/m" sourceLinked="0"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120275328"/>
+        <c:crossAx val="120537472"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -2039,7 +2051,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120275328"/>
+        <c:axId val="120537472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120248960"/>
+        <c:crossAx val="120511104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2588,10 +2600,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="C341" sqref="C341"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2645,7 +2657,7 @@
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="4"/>
       <c r="B7" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -2655,7 +2667,7 @@
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="4"/>
       <c r="B8" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -2665,7 +2677,7 @@
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="4"/>
       <c r="B9" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -2675,7 +2687,7 @@
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="4"/>
       <c r="B10" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -2685,7 +2697,7 @@
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2695,7 +2707,7 @@
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="A12" s="4"/>
       <c r="B12" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -2705,7 +2717,7 @@
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -2940,7 +2952,7 @@
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>1</v>
@@ -2949,7 +2961,7 @@
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1">
       <c r="B41" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -2958,7 +2970,7 @@
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1">
       <c r="B42" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>1</v>
@@ -3287,7 +3299,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
@@ -3368,7 +3380,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>1</v>
@@ -3622,7 +3634,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>1</v>
@@ -3631,7 +3643,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>1</v>
@@ -3690,7 +3702,7 @@
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>13</v>
@@ -3699,7 +3711,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1</v>
@@ -3834,7 +3846,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="4"/>
@@ -3868,7 +3880,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>13</v>
@@ -3886,7 +3898,7 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>13</v>
@@ -4430,7 +4442,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>1</v>
@@ -4439,7 +4451,7 @@
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
       <c r="B213" s="23" t="s">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>1</v>
@@ -4448,25 +4460,25 @@
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
       <c r="B214" s="23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" s="6" customFormat="1">
       <c r="B215" s="23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
       <c r="B216" s="23" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>1</v>
@@ -4475,71 +4487,71 @@
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="2:4" s="6" customFormat="1">
+      <c r="B218" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="2:4" s="6" customFormat="1">
+      <c r="B219" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C217" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D217" s="4"/>
-    </row>
-    <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="23"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="4"/>
-    </row>
-    <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="23"/>
-      <c r="C219" s="7"/>
+      <c r="C219" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="23"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="2:4" s="6" customFormat="1">
+      <c r="B221" s="23"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" s="6" customFormat="1">
+      <c r="B222" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C220" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D220" s="4"/>
-    </row>
-    <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D221" s="4"/>
-    </row>
-    <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="C222" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" s="6" customFormat="1">
       <c r="B223" s="23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" s="6" customFormat="1">
       <c r="B224" s="23" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="2:4" s="6" customFormat="1">
       <c r="B225" s="23" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>1</v>
@@ -4548,10 +4560,10 @@
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
       <c r="B226" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D226" s="4"/>
     </row>
@@ -4565,36 +4577,36 @@
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="23"/>
-      <c r="C228" s="7"/>
+      <c r="B228" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
-      <c r="B229" s="23"/>
-      <c r="C229" s="7"/>
+      <c r="B229" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="23"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="2:4" s="6" customFormat="1">
+      <c r="B231" s="23"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="2:4" s="6" customFormat="1">
+      <c r="B232" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D230" s="4"/>
-    </row>
-    <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D231" s="4"/>
-    </row>
-    <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="23" t="s">
-        <v>188</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>1</v>
@@ -4603,117 +4615,117 @@
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
       <c r="B233" s="23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
       <c r="B234" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="2:4" s="6" customFormat="1">
+      <c r="B235" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="2:4" s="6" customFormat="1">
+      <c r="B236" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C236" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D234" s="4"/>
-    </row>
-    <row r="235" spans="2:4" s="6" customFormat="1">
-      <c r="B235" s="23"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="4"/>
-    </row>
-    <row r="236" spans="2:4" s="6" customFormat="1">
-      <c r="B236" s="23"/>
-      <c r="C236" s="7"/>
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="23"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="2:4" s="6" customFormat="1">
+      <c r="B238" s="23"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="2:4" s="6" customFormat="1">
+      <c r="B239" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C237" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D237" s="4"/>
-    </row>
-    <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D238" s="4"/>
-    </row>
-    <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="23" t="s">
-        <v>195</v>
-      </c>
       <c r="C239" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
       <c r="B240" s="23" t="s">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" s="6" customFormat="1">
       <c r="B241" s="23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
       <c r="B242" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="2:4" s="6" customFormat="1">
+      <c r="B243" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="2:4" s="6" customFormat="1">
+      <c r="B244" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C242" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D242" s="4"/>
-    </row>
-    <row r="243" spans="2:4" s="6" customFormat="1">
-      <c r="B243" s="23"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="4"/>
-    </row>
-    <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="23"/>
-      <c r="C244" s="7"/>
+      <c r="C244" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="23"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="2:4" s="6" customFormat="1">
+      <c r="B246" s="23"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="2:4" s="6" customFormat="1">
+      <c r="B247" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D245" s="4"/>
-    </row>
-    <row r="246" spans="2:4" s="6" customFormat="1">
-      <c r="B246" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D246" s="4"/>
-    </row>
-    <row r="247" spans="2:4" s="6" customFormat="1">
-      <c r="B247" s="23" t="s">
-        <v>198</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>1</v>
@@ -4722,16 +4734,16 @@
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
       <c r="B248" s="23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
       <c r="B249" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>1</v>
@@ -4740,7 +4752,7 @@
     </row>
     <row r="250" spans="2:4" s="6" customFormat="1">
       <c r="B250" s="23" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>1</v>
@@ -4748,17 +4760,17 @@
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
-      <c r="B251" s="23" t="s">
-        <v>207</v>
+      <c r="B251" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
-      <c r="B252" s="23" t="s">
-        <v>201</v>
+      <c r="B252" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>1</v>
@@ -4767,7 +4779,7 @@
     </row>
     <row r="253" spans="2:4" s="6" customFormat="1">
       <c r="B253" s="23" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>1</v>
@@ -4776,7 +4788,7 @@
     </row>
     <row r="254" spans="2:4" s="6" customFormat="1">
       <c r="B254" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>1</v>
@@ -4785,7 +4797,7 @@
     </row>
     <row r="255" spans="2:4" s="6" customFormat="1">
       <c r="B255" s="23" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>1</v>
@@ -4794,7 +4806,7 @@
     </row>
     <row r="256" spans="2:4" s="6" customFormat="1">
       <c r="B256" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>1</v>
@@ -4803,7 +4815,7 @@
     </row>
     <row r="257" spans="2:4" s="6" customFormat="1">
       <c r="B257" s="23" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>1</v>
@@ -4812,7 +4824,7 @@
     </row>
     <row r="258" spans="2:4" s="6" customFormat="1">
       <c r="B258" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>1</v>
@@ -4820,18 +4832,26 @@
       <c r="D258" s="4"/>
     </row>
     <row r="259" spans="2:4" s="6" customFormat="1">
-      <c r="B259" s="23"/>
-      <c r="C259" s="7"/>
+      <c r="B259" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" s="6" customFormat="1">
-      <c r="B260" s="23"/>
-      <c r="C260" s="7"/>
+      <c r="B260" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="2:4" s="6" customFormat="1">
-      <c r="B261" s="3" t="s">
-        <v>158</v>
+      <c r="B261" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>1</v>
@@ -4840,7 +4860,7 @@
     </row>
     <row r="262" spans="2:4" s="6" customFormat="1">
       <c r="B262" s="23" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>1</v>
@@ -4848,26 +4868,18 @@
       <c r="D262" s="4"/>
     </row>
     <row r="263" spans="2:4" s="6" customFormat="1">
-      <c r="B263" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B263" s="23"/>
+      <c r="C263" s="7"/>
       <c r="D263" s="4"/>
     </row>
     <row r="264" spans="2:4" s="6" customFormat="1">
-      <c r="B264" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B264" s="23"/>
+      <c r="C264" s="7"/>
       <c r="D264" s="4"/>
     </row>
     <row r="265" spans="2:4" s="6" customFormat="1">
-      <c r="B265" s="23" t="s">
-        <v>287</v>
+      <c r="B265" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>1</v>
@@ -4876,7 +4888,7 @@
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
       <c r="B266" s="23" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>1</v>
@@ -4885,16 +4897,16 @@
     </row>
     <row r="267" spans="2:4" s="6" customFormat="1">
       <c r="B267" s="23" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="23" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>1</v>
@@ -4903,7 +4915,7 @@
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
       <c r="B269" s="23" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>1</v>
@@ -4912,39 +4924,43 @@
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
       <c r="B270" s="23" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="C270" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="2:4" s="6" customFormat="1">
+      <c r="B271" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C271" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D270" s="4"/>
-    </row>
-    <row r="271" spans="2:4" s="6" customFormat="1">
-      <c r="B271" s="23"/>
-      <c r="C271" s="7"/>
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
       <c r="B272" s="23" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
       <c r="B273" s="23" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
       <c r="B274" s="23" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>13</v>
@@ -4952,17 +4968,13 @@
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B275" s="23"/>
+      <c r="C275" s="7"/>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
       <c r="B276" s="23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>13</v>
@@ -4971,7 +4983,7 @@
     </row>
     <row r="277" spans="2:4" s="6" customFormat="1">
       <c r="B277" s="23" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>13</v>
@@ -4979,45 +4991,45 @@
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="23"/>
-      <c r="C278" s="7"/>
+      <c r="B278" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="23"/>
-      <c r="C279" s="7"/>
+      <c r="B279" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="2:4" s="6" customFormat="1">
+      <c r="B281" s="23"/>
+      <c r="C281" s="7"/>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="2:4" s="6" customFormat="1">
+      <c r="B282" s="23"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="2:4" s="6" customFormat="1">
+      <c r="B283" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D280" s="4"/>
-    </row>
-    <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D281" s="4"/>
-    </row>
-    <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D282" s="4"/>
-    </row>
-    <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="23" t="s">
-        <v>225</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>1</v>
@@ -5026,7 +5038,7 @@
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
       <c r="B284" s="23" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>1</v>
@@ -5035,7 +5047,7 @@
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
       <c r="B285" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>1</v>
@@ -5044,7 +5056,7 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>1</v>
@@ -5053,7 +5065,7 @@
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
       <c r="B287" s="23" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>1</v>
@@ -5062,34 +5074,34 @@
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="23" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D288" s="4"/>
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
       <c r="B289" s="23" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="23" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>13</v>
@@ -5107,34 +5119,34 @@
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
       <c r="B293" s="23" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
       <c r="B294" s="23" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
       <c r="B296" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>1</v>
@@ -5143,80 +5155,80 @@
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
       <c r="B297" s="23" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
       <c r="B299" s="23" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C299" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D299" s="4"/>
+    </row>
+    <row r="300" spans="2:4" s="6" customFormat="1">
+      <c r="B300" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C300" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D299" s="4"/>
-    </row>
-    <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="23"/>
-      <c r="C300" s="7"/>
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="23"/>
-      <c r="C301" s="7"/>
+      <c r="B301" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D302" s="4"/>
+    </row>
+    <row r="303" spans="2:4" s="6" customFormat="1">
+      <c r="B303" s="23"/>
+      <c r="C303" s="7"/>
+      <c r="D303" s="4"/>
+    </row>
+    <row r="304" spans="2:4" s="6" customFormat="1">
+      <c r="B304" s="23"/>
+      <c r="C304" s="7"/>
+      <c r="D304" s="4"/>
+    </row>
+    <row r="305" spans="2:4" s="6" customFormat="1">
+      <c r="B305" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C302" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D302" s="4"/>
-    </row>
-    <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D303" s="4"/>
-    </row>
-    <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C304" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D304" s="4"/>
-    </row>
-    <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="23" t="s">
-        <v>240</v>
-      </c>
       <c r="C305" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="23" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>1</v>
@@ -5225,25 +5237,25 @@
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
       <c r="B308" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
       <c r="B309" s="23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>1</v>
@@ -5252,7 +5264,7 @@
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>1</v>
@@ -5261,7 +5273,7 @@
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
       <c r="B311" s="23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>1</v>
@@ -5270,7 +5282,7 @@
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
       <c r="B312" s="23" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>1</v>
@@ -5279,7 +5291,7 @@
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
       <c r="B313" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>1</v>
@@ -5287,18 +5299,26 @@
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
-      <c r="B314" s="23"/>
-      <c r="C314" s="7"/>
+      <c r="B314" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="23"/>
-      <c r="C315" s="7"/>
+      <c r="B315" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="3" t="s">
-        <v>274</v>
+      <c r="B316" s="23" t="s">
+        <v>247</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>1</v>
@@ -5306,26 +5326,18 @@
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B317" s="23"/>
+      <c r="C317" s="7"/>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
-      <c r="B318" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="C318" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B318" s="23"/>
+      <c r="C318" s="7"/>
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="23" t="s">
-        <v>279</v>
+      <c r="B319" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>1</v>
@@ -5334,7 +5346,7 @@
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>1</v>
@@ -5343,7 +5355,7 @@
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
       <c r="B321" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>1</v>
@@ -5352,7 +5364,7 @@
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
       <c r="B322" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>1</v>
@@ -5361,7 +5373,7 @@
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
       <c r="B323" s="23" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>1</v>
@@ -5370,7 +5382,7 @@
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
       <c r="B324" s="23" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>1</v>
@@ -5379,7 +5391,7 @@
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
       <c r="B325" s="23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>1</v>
@@ -5388,7 +5400,7 @@
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
       <c r="B326" s="23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>1</v>
@@ -5396,72 +5408,72 @@
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="23"/>
-      <c r="C327" s="7"/>
+      <c r="B327" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="21"/>
-      <c r="C328" s="7"/>
+      <c r="B328" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D329" s="4"/>
+    </row>
+    <row r="330" spans="2:4" s="6" customFormat="1">
+      <c r="B330" s="23"/>
+      <c r="C330" s="7"/>
+      <c r="D330" s="4"/>
+    </row>
+    <row r="331" spans="2:4" s="6" customFormat="1">
+      <c r="B331" s="21"/>
+      <c r="C331" s="7"/>
+      <c r="D331" s="4"/>
+    </row>
+    <row r="332" spans="2:4" s="6" customFormat="1">
+      <c r="B332" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C329" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D329" s="4"/>
-    </row>
-    <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="23" t="s">
+      <c r="C332" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D332" s="4"/>
+    </row>
+    <row r="333" spans="2:4" s="6" customFormat="1">
+      <c r="B333" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C330" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D330" s="4"/>
-    </row>
-    <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="21" t="s">
+      <c r="C333" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="2:4" s="6" customFormat="1">
+      <c r="B334" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C331" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D331" s="4"/>
-    </row>
-    <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="21" t="s">
+      <c r="C334" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" s="4"/>
+    </row>
+    <row r="335" spans="2:4" s="6" customFormat="1">
+      <c r="B335" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C332" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D332" s="4"/>
-    </row>
-    <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C333" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D333" s="4"/>
-    </row>
-    <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C334" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D334" s="4"/>
-    </row>
-    <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>1</v>
@@ -5470,7 +5482,7 @@
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
       <c r="B336" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>1</v>
@@ -5478,8 +5490,8 @@
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="21" t="s">
-        <v>289</v>
+      <c r="B337" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>1</v>
@@ -5488,7 +5500,7 @@
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
       <c r="B338" s="24" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>1</v>
@@ -5496,8 +5508,8 @@
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="25" t="s">
-        <v>146</v>
+      <c r="B339" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>1</v>
@@ -5505,8 +5517,8 @@
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="25" t="s">
-        <v>147</v>
+      <c r="B340" s="21" t="s">
+        <v>288</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>1</v>
@@ -5515,7 +5527,7 @@
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
       <c r="B341" s="24" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>1</v>
@@ -5524,7 +5536,7 @@
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
       <c r="B342" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>1</v>
@@ -5533,7 +5545,7 @@
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
       <c r="B343" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>1</v>
@@ -5542,7 +5554,7 @@
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
       <c r="B344" s="24" t="s">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>1</v>
@@ -5550,8 +5562,8 @@
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="24" t="s">
-        <v>291</v>
+      <c r="B345" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>1</v>
@@ -5559,8 +5571,8 @@
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="21" t="s">
-        <v>31</v>
+      <c r="B346" s="25" t="s">
+        <v>148</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>1</v>
@@ -5569,7 +5581,7 @@
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
       <c r="B347" s="24" t="s">
-        <v>35</v>
+        <v>289</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>1</v>
@@ -5578,76 +5590,76 @@
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
       <c r="B348" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D348" s="4"/>
+    </row>
+    <row r="349" spans="2:4" s="6" customFormat="1">
+      <c r="B349" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:4" s="6" customFormat="1">
+      <c r="B350" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="2:4" s="6" customFormat="1">
+      <c r="B351" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C348" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D348" s="4"/>
-    </row>
-    <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="20"/>
-      <c r="C349" s="7"/>
-      <c r="D349" s="4"/>
-    </row>
-    <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D350" s="4"/>
-    </row>
-    <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="22" t="s">
-        <v>30</v>
-      </c>
       <c r="C351" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="21"/>
+      <c r="B352" s="20"/>
       <c r="C352" s="7"/>
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="21"/>
-      <c r="C353" s="7"/>
+      <c r="B353" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="3" t="s">
+      <c r="B354" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="2:4" s="6" customFormat="1">
+      <c r="B355" s="21"/>
+      <c r="C355" s="7"/>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="21"/>
+      <c r="C356" s="7"/>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="2:4" s="6" customFormat="1">
+      <c r="B357" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D356" s="4"/>
-    </row>
-    <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="23" t="s">
-        <v>61</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>13</v>
@@ -5656,7 +5668,7 @@
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
       <c r="B358" s="23" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>13</v>
@@ -5664,119 +5676,119 @@
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="23"/>
-      <c r="C359" s="7"/>
+      <c r="B359" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="23"/>
-      <c r="C360" s="7"/>
+      <c r="B360" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="3" t="s">
+      <c r="B361" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="2:4" s="6" customFormat="1">
+      <c r="B362" s="23"/>
+      <c r="C362" s="7"/>
+      <c r="D362" s="4"/>
+    </row>
+    <row r="363" spans="2:4" s="6" customFormat="1">
+      <c r="B363" s="23"/>
+      <c r="C363" s="7"/>
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="2:4" s="6" customFormat="1">
+      <c r="B364" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C361" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="23" t="s">
+      <c r="C364" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D364" s="4"/>
+    </row>
+    <row r="365" spans="2:4" s="6" customFormat="1">
+      <c r="B365" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C362" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D362" s="4"/>
-    </row>
-    <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="23" t="s">
+      <c r="C365" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D365" s="4"/>
+    </row>
+    <row r="366" spans="2:4" s="6" customFormat="1">
+      <c r="B366" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C363" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D363" s="4"/>
-    </row>
-    <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="22"/>
-      <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
-    </row>
-    <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="20"/>
-      <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
-    </row>
-    <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="3" t="s">
+      <c r="C366" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366" s="4"/>
+    </row>
+    <row r="367" spans="2:4" s="6" customFormat="1">
+      <c r="B367" s="22"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="2:4" s="6" customFormat="1">
+      <c r="B368" s="20"/>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="1:4" s="6" customFormat="1">
+      <c r="B369" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C366" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D366" s="4"/>
-    </row>
-    <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="22" t="s">
+      <c r="C369" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="1:4" s="6" customFormat="1">
+      <c r="B370" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C367" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D367" s="4"/>
-    </row>
-    <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="23" t="s">
+      <c r="C370" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="1:4" s="6" customFormat="1">
+      <c r="B371" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C368" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D368" s="4"/>
-    </row>
-    <row r="369" spans="1:4" s="6" customFormat="1">
-      <c r="B369" s="23"/>
-      <c r="C369" s="9"/>
-      <c r="D369" s="4"/>
-    </row>
-    <row r="370" spans="1:4" s="6" customFormat="1">
-      <c r="B370" s="20"/>
-      <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
-    </row>
-    <row r="371" spans="1:4" s="6" customFormat="1">
-      <c r="B371" s="3" t="s">
+      <c r="C371" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="1:4" s="6" customFormat="1">
+      <c r="B372" s="23"/>
+      <c r="C372" s="9"/>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="1:4" s="6" customFormat="1">
+      <c r="B373" s="20"/>
+      <c r="C373" s="4"/>
+      <c r="D373" s="4"/>
+    </row>
+    <row r="374" spans="1:4" s="6" customFormat="1">
+      <c r="B374" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C371" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D371" s="4"/>
-    </row>
-    <row r="372" spans="1:4" s="6" customFormat="1">
-      <c r="B372" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D372" s="4"/>
-    </row>
-    <row r="373" spans="1:4" s="6" customFormat="1">
-      <c r="B373" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D373" s="4"/>
-    </row>
-    <row r="374" spans="1:4" s="6" customFormat="1">
-      <c r="B374" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>13</v>
@@ -5784,74 +5796,101 @@
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="1:4" s="6" customFormat="1">
-      <c r="B375" s="22"/>
-      <c r="C375" s="4"/>
+      <c r="B375" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="1:4" s="6" customFormat="1">
-      <c r="B376" s="22"/>
-      <c r="C376" s="4"/>
+      <c r="B376" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D376" s="4"/>
     </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="11"/>
-      <c r="B377" s="11"/>
-      <c r="C377" s="11"/>
-      <c r="D377" s="2"/>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="B378" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C378" s="6">
-        <f>COUNTIF(C5:C377,"y")</f>
-        <v>224</v>
-      </c>
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="B379" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C379" s="6">
-        <f>COUNTIF(C5:C377,"n")</f>
-        <v>94</v>
-      </c>
-      <c r="D379" s="2"/>
+    <row r="377" spans="1:4" s="6" customFormat="1">
+      <c r="B377" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="1:4" s="6" customFormat="1">
+      <c r="B378" s="22"/>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4"/>
+    </row>
+    <row r="379" spans="1:4" s="6" customFormat="1">
+      <c r="B379" s="22"/>
+      <c r="C379" s="4"/>
+      <c r="D379" s="4"/>
     </row>
     <row r="380" spans="1:4">
-      <c r="B380" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C380" s="7">
-        <f>COUNTIF(C5:C377,"TBD")</f>
-        <v>0</v>
-      </c>
+      <c r="A380" s="11"/>
+      <c r="B380" s="11"/>
+      <c r="C380" s="11"/>
       <c r="D380" s="2"/>
     </row>
     <row r="381" spans="1:4">
       <c r="B381" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" s="6">
+        <f>COUNTIF(C5:C380,"y")</f>
+        <v>230</v>
+      </c>
+      <c r="D381" s="2"/>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="B382" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382" s="6">
+        <f>COUNTIF(C5:C380,"n")</f>
+        <v>91</v>
+      </c>
+      <c r="D382" s="2"/>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="B383" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C383" s="7">
+        <f>COUNTIF(C5:C380,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D383" s="2"/>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="B384" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C381">
-        <f>SUM(C378:C380)</f>
-        <v>318</v>
-      </c>
-      <c r="D381" s="2"/>
-    </row>
-    <row r="382" spans="1:4" ht="18">
-      <c r="B382" s="10"/>
-      <c r="C382" s="10" t="s">
+      <c r="C384">
+        <f>SUM(C381:C383)</f>
+        <v>321</v>
+      </c>
+      <c r="D384" s="2"/>
+    </row>
+    <row r="385" spans="2:4" ht="18">
+      <c r="B385" s="10"/>
+      <c r="C385" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D382" s="42">
-        <f>C378/(C379+C378 + C380)</f>
-        <v>0.70440251572327039</v>
+      <c r="D385" s="42">
+        <f>C381/(C382+C381 + C383)</f>
+        <v>0.71651090342679125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C65338">
+  <conditionalFormatting sqref="C1:C3 C6:C65341">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5878,7 +5917,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5899,7 +5938,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6179,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G50" s="31">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
@@ -6189,13 +6228,13 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="12">
-        <v>42029</v>
+        <v>42040</v>
       </c>
       <c r="B51" s="4">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C51" s="4">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -6204,11 +6243,11 @@
         <v>0</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G51" s="31">
         <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
-        <v>0.70440251572327039</v>
+        <v>0.71651090342679125</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -6253,25 +6292,25 @@
       </c>
       <c r="G54" s="39">
         <f>G51</f>
-        <v>0.70440251572327039</v>
+        <v>0.71651090342679125</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="40">
         <f>SUM(B55:D55)</f>
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B55" s="16">
-        <f>Features!C378</f>
-        <v>224</v>
+        <f>Features!C381</f>
+        <v>230</v>
       </c>
       <c r="C55" s="17">
-        <f>Features!C379</f>
-        <v>94</v>
+        <f>Features!C382</f>
+        <v>91</v>
       </c>
       <c r="D55" s="18">
-        <f>Features!C380</f>
+        <f>Features!C383</f>
         <v>0</v>
       </c>
       <c r="E55" s="19">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="305">
   <si>
     <t>Feature</t>
   </si>
@@ -722,9 +722,6 @@
     <t>line</t>
   </si>
   <si>
-    <t>turn</t>
-  </si>
-  <si>
     <t>mark</t>
   </si>
   <si>
@@ -909,6 +906,33 @@
   </si>
   <si>
     <t>0.04.10</t>
+  </si>
+  <si>
+    <t>sepia()</t>
+  </si>
+  <si>
+    <t>brightness(x)</t>
+  </si>
+  <si>
+    <t>contrast(x)</t>
+  </si>
+  <si>
+    <t>gamma(x)</t>
+  </si>
+  <si>
+    <t>sharpen(x)</t>
+  </si>
+  <si>
+    <t>crop(w, h)</t>
+  </si>
+  <si>
+    <t>rotate(x)</t>
+  </si>
+  <si>
+    <t>flip(x)</t>
+  </si>
+  <si>
+    <t>grayscale()</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1186,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958511"/>
+          <c:w val="0.91978071330958533"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1230,7 +1254,7 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,7 +1322,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1669,7 +1693,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628764"/>
+          <c:y val="0.11628512537628767"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1755,7 +1779,7 @@
                   <c:v>0.70440251572327039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71651090342679125</c:v>
+                  <c:v>0.70516717325227962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,7 +1981,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2600,10 +2624,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D385"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C296" sqref="C296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2657,7 +2681,7 @@
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="4"/>
       <c r="B7" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -2667,7 +2691,7 @@
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="4"/>
       <c r="B8" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -2677,7 +2701,7 @@
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="4"/>
       <c r="B9" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -2687,7 +2711,7 @@
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="4"/>
       <c r="B10" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -2697,7 +2721,7 @@
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2707,7 +2731,7 @@
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="A12" s="4"/>
       <c r="B12" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -2717,7 +2741,7 @@
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -2952,7 +2976,7 @@
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>1</v>
@@ -2961,7 +2985,7 @@
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1">
       <c r="B41" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -2970,7 +2994,7 @@
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1">
       <c r="B42" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>1</v>
@@ -3299,7 +3323,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
@@ -3380,7 +3404,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>1</v>
@@ -3634,7 +3658,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>1</v>
@@ -3643,7 +3667,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>1</v>
@@ -3702,7 +3726,7 @@
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>13</v>
@@ -3711,7 +3735,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1</v>
@@ -3846,7 +3870,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="4"/>
@@ -3880,7 +3904,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>13</v>
@@ -3898,7 +3922,7 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>13</v>
@@ -4442,7 +4466,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>1</v>
@@ -4451,7 +4475,7 @@
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
       <c r="B213" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>1</v>
@@ -4487,7 +4511,7 @@
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>1</v>
@@ -4569,7 +4593,7 @@
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
       <c r="B227" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>1</v>
@@ -4587,7 +4611,7 @@
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
       <c r="B229" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>1</v>
@@ -4688,7 +4712,7 @@
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
       <c r="B242" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>1</v>
@@ -4761,7 +4785,7 @@
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
       <c r="B251" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>1</v>
@@ -4770,7 +4794,7 @@
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
       <c r="B252" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>1</v>
@@ -4888,7 +4912,7 @@
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
       <c r="B266" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>1</v>
@@ -4906,7 +4930,7 @@
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>1</v>
@@ -4915,7 +4939,7 @@
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
       <c r="B269" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>1</v>
@@ -4924,7 +4948,7 @@
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
       <c r="B270" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>1</v>
@@ -4933,7 +4957,7 @@
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
       <c r="B271" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>13</v>
@@ -4942,7 +4966,7 @@
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
       <c r="B272" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>1</v>
@@ -5056,25 +5080,25 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="23" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
       <c r="B287" s="23" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>1</v>
@@ -5083,16 +5107,16 @@
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
       <c r="B289" s="23" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="23" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>1</v>
@@ -5101,7 +5125,7 @@
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="23" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>13</v>
@@ -5110,7 +5134,7 @@
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="23" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>13</v>
@@ -5119,34 +5143,34 @@
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
       <c r="B293" s="23" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
       <c r="B294" s="23" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="23" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
       <c r="B296" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>1</v>
@@ -5155,34 +5179,34 @@
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
       <c r="B297" s="23" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="23" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
       <c r="B299" s="23" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
       <c r="B300" s="23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>13</v>
@@ -5191,7 +5215,7 @@
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
       <c r="B301" s="23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>13</v>
@@ -5200,7 +5224,7 @@
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
       <c r="B302" s="23" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>13</v>
@@ -5208,18 +5232,26 @@
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="23"/>
-      <c r="C303" s="7"/>
+      <c r="B303" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="23"/>
-      <c r="C304" s="7"/>
+      <c r="B304" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="3" t="s">
-        <v>210</v>
+      <c r="B305" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>1</v>
@@ -5228,7 +5260,7 @@
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="23" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>1</v>
@@ -5237,16 +5269,16 @@
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="23" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
       <c r="B308" s="23" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>13</v>
@@ -5255,43 +5287,35 @@
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
       <c r="B309" s="23" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="23" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B311" s="23"/>
+      <c r="C311" s="7"/>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B312" s="23"/>
+      <c r="C312" s="7"/>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="23" t="s">
-        <v>243</v>
+      <c r="B313" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>1</v>
@@ -5300,7 +5324,7 @@
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
       <c r="B314" s="23" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>1</v>
@@ -5309,35 +5333,43 @@
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
       <c r="B315" s="23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
       <c r="B316" s="23" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="23"/>
-      <c r="C317" s="7"/>
+      <c r="B317" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
-      <c r="B318" s="23"/>
-      <c r="C318" s="7"/>
+      <c r="B318" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="3" t="s">
-        <v>273</v>
+      <c r="B319" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>1</v>
@@ -5346,7 +5378,7 @@
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="23" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>1</v>
@@ -5355,7 +5387,7 @@
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
       <c r="B321" s="23" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>1</v>
@@ -5364,7 +5396,7 @@
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
       <c r="B322" s="23" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>1</v>
@@ -5373,7 +5405,7 @@
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
       <c r="B323" s="23" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>1</v>
@@ -5382,7 +5414,7 @@
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
       <c r="B324" s="23" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>1</v>
@@ -5390,26 +5422,18 @@
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B325" s="23"/>
+      <c r="C325" s="7"/>
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="C326" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B326" s="23"/>
+      <c r="C326" s="7"/>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="23" t="s">
-        <v>275</v>
+      <c r="B327" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>1</v>
@@ -5418,7 +5442,7 @@
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
       <c r="B328" s="23" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>1</v>
@@ -5427,26 +5451,34 @@
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
       <c r="B329" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D329" s="4"/>
+    </row>
+    <row r="330" spans="2:4" s="6" customFormat="1">
+      <c r="B330" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="C329" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D329" s="4"/>
-    </row>
-    <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="23"/>
-      <c r="C330" s="7"/>
+      <c r="C330" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="21"/>
-      <c r="C331" s="7"/>
+      <c r="B331" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D331" s="4"/>
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="3" t="s">
-        <v>34</v>
+      <c r="B332" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>1</v>
@@ -5455,97 +5487,89 @@
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
       <c r="B333" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="2:4" s="6" customFormat="1">
+      <c r="B334" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" s="4"/>
+    </row>
+    <row r="335" spans="2:4" s="6" customFormat="1">
+      <c r="B335" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D335" s="4"/>
+    </row>
+    <row r="336" spans="2:4" s="6" customFormat="1">
+      <c r="B336" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D336" s="4"/>
+    </row>
+    <row r="337" spans="2:4" s="6" customFormat="1">
+      <c r="B337" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="2:4" s="6" customFormat="1">
+      <c r="B338" s="23"/>
+      <c r="C338" s="7"/>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="2:4" s="6" customFormat="1">
+      <c r="B339" s="21"/>
+      <c r="C339" s="7"/>
+      <c r="D339" s="4"/>
+    </row>
+    <row r="340" spans="2:4" s="6" customFormat="1">
+      <c r="B340" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D340" s="4"/>
+    </row>
+    <row r="341" spans="2:4" s="6" customFormat="1">
+      <c r="B341" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C333" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D333" s="4"/>
-    </row>
-    <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="21" t="s">
+      <c r="C341" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D341" s="4"/>
+    </row>
+    <row r="342" spans="2:4" s="6" customFormat="1">
+      <c r="B342" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C334" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D334" s="4"/>
-    </row>
-    <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="21" t="s">
+      <c r="C342" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D342" s="4"/>
+    </row>
+    <row r="343" spans="2:4" s="6" customFormat="1">
+      <c r="B343" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D335" s="4"/>
-    </row>
-    <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C336" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D336" s="4"/>
-    </row>
-    <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C337" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D337" s="4"/>
-    </row>
-    <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C338" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D338" s="4"/>
-    </row>
-    <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C339" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D339" s="4"/>
-    </row>
-    <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D340" s="4"/>
-    </row>
-    <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D341" s="4"/>
-    </row>
-    <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D342" s="4"/>
-    </row>
-    <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="25" t="s">
-        <v>147</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>1</v>
@@ -5554,7 +5578,7 @@
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
       <c r="B344" s="24" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>1</v>
@@ -5562,8 +5586,8 @@
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="25" t="s">
-        <v>149</v>
+      <c r="B345" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>1</v>
@@ -5571,8 +5595,8 @@
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="25" t="s">
-        <v>148</v>
+      <c r="B346" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>1</v>
@@ -5581,316 +5605,388 @@
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
       <c r="B347" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D347" s="4"/>
+    </row>
+    <row r="348" spans="2:4" s="6" customFormat="1">
+      <c r="B348" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D348" s="4"/>
+    </row>
+    <row r="349" spans="2:4" s="6" customFormat="1">
+      <c r="B349" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:4" s="6" customFormat="1">
+      <c r="B350" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="2:4" s="6" customFormat="1">
+      <c r="B351" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="2:4" s="6" customFormat="1">
+      <c r="B352" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="2:4" s="6" customFormat="1">
+      <c r="B353" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="2:4" s="6" customFormat="1">
+      <c r="B355" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="C347" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D347" s="4"/>
-    </row>
-    <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D348" s="4"/>
-    </row>
-    <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="21" t="s">
+      <c r="C356" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="2:4" s="6" customFormat="1">
+      <c r="B357" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C349" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D349" s="4"/>
-    </row>
-    <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="24" t="s">
+      <c r="C357" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="2:4" s="6" customFormat="1">
+      <c r="B358" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C350" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D350" s="4"/>
-    </row>
-    <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="24" t="s">
+      <c r="C358" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C351" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D351" s="4"/>
-    </row>
-    <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="20"/>
-      <c r="C352" s="7"/>
-      <c r="D352" s="4"/>
-    </row>
-    <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="21"/>
-      <c r="C355" s="7"/>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="21"/>
-      <c r="C356" s="7"/>
-      <c r="D356" s="4"/>
-    </row>
-    <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C358" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="23" t="s">
-        <v>60</v>
-      </c>
       <c r="C359" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B360" s="20"/>
+      <c r="C360" s="7"/>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
       <c r="B361" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="2:4" s="6" customFormat="1">
+      <c r="B362" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C361" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="23"/>
-      <c r="C362" s="7"/>
+      <c r="C362" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="23"/>
+      <c r="B363" s="21"/>
       <c r="C363" s="7"/>
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B364" s="21"/>
+      <c r="C364" s="7"/>
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="23" t="s">
-        <v>44</v>
+      <c r="B365" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
       <c r="B366" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D366" s="4"/>
+    </row>
+    <row r="367" spans="2:4" s="6" customFormat="1">
+      <c r="B367" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="2:4" s="6" customFormat="1">
+      <c r="B368" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="2:4" s="6" customFormat="1">
+      <c r="B369" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="2:4" s="6" customFormat="1">
+      <c r="B370" s="23"/>
+      <c r="C370" s="7"/>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="2:4" s="6" customFormat="1">
+      <c r="B371" s="23"/>
+      <c r="C371" s="7"/>
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="2:4" s="6" customFormat="1">
+      <c r="B372" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="2:4" s="6" customFormat="1">
+      <c r="B373" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D373" s="4"/>
+    </row>
+    <row r="374" spans="2:4" s="6" customFormat="1">
+      <c r="B374" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C366" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D366" s="4"/>
-    </row>
-    <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="22"/>
-      <c r="C367" s="4"/>
-      <c r="D367" s="4"/>
-    </row>
-    <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="20"/>
-      <c r="C368" s="4"/>
-      <c r="D368" s="4"/>
-    </row>
-    <row r="369" spans="1:4" s="6" customFormat="1">
-      <c r="B369" s="3" t="s">
+      <c r="C374" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D374" s="4"/>
+    </row>
+    <row r="375" spans="2:4" s="6" customFormat="1">
+      <c r="B375" s="22"/>
+      <c r="C375" s="4"/>
+      <c r="D375" s="4"/>
+    </row>
+    <row r="376" spans="2:4" s="6" customFormat="1">
+      <c r="B376" s="20"/>
+      <c r="C376" s="4"/>
+      <c r="D376" s="4"/>
+    </row>
+    <row r="377" spans="2:4" s="6" customFormat="1">
+      <c r="B377" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C369" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D369" s="4"/>
-    </row>
-    <row r="370" spans="1:4" s="6" customFormat="1">
-      <c r="B370" s="22" t="s">
+      <c r="C377" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="2:4" s="6" customFormat="1">
+      <c r="B378" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C370" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D370" s="4"/>
-    </row>
-    <row r="371" spans="1:4" s="6" customFormat="1">
-      <c r="B371" s="23" t="s">
+      <c r="C378" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D378" s="4"/>
+    </row>
+    <row r="379" spans="2:4" s="6" customFormat="1">
+      <c r="B379" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C371" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D371" s="4"/>
-    </row>
-    <row r="372" spans="1:4" s="6" customFormat="1">
-      <c r="B372" s="23"/>
-      <c r="C372" s="9"/>
-      <c r="D372" s="4"/>
-    </row>
-    <row r="373" spans="1:4" s="6" customFormat="1">
-      <c r="B373" s="20"/>
-      <c r="C373" s="4"/>
-      <c r="D373" s="4"/>
-    </row>
-    <row r="374" spans="1:4" s="6" customFormat="1">
-      <c r="B374" s="3" t="s">
+      <c r="C379" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="23"/>
+      <c r="C380" s="9"/>
+      <c r="D380" s="4"/>
+    </row>
+    <row r="381" spans="2:4" s="6" customFormat="1">
+      <c r="B381" s="20"/>
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+    </row>
+    <row r="382" spans="2:4" s="6" customFormat="1">
+      <c r="B382" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C374" s="7" t="s">
+      <c r="C382" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D374" s="4"/>
-    </row>
-    <row r="375" spans="1:4" s="6" customFormat="1">
-      <c r="B375" s="22" t="s">
+      <c r="D382" s="4"/>
+    </row>
+    <row r="383" spans="2:4" s="6" customFormat="1">
+      <c r="B383" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C375" s="7" t="s">
+      <c r="C383" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D375" s="4"/>
-    </row>
-    <row r="376" spans="1:4" s="6" customFormat="1">
-      <c r="B376" s="22" t="s">
+      <c r="D383" s="4"/>
+    </row>
+    <row r="384" spans="2:4" s="6" customFormat="1">
+      <c r="B384" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C376" s="7" t="s">
+      <c r="C384" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D376" s="4"/>
-    </row>
-    <row r="377" spans="1:4" s="6" customFormat="1">
-      <c r="B377" s="22" t="s">
+      <c r="D384" s="4"/>
+    </row>
+    <row r="385" spans="1:4" s="6" customFormat="1">
+      <c r="B385" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="C385" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D377" s="4"/>
-    </row>
-    <row r="378" spans="1:4" s="6" customFormat="1">
-      <c r="B378" s="22"/>
-      <c r="C378" s="4"/>
-      <c r="D378" s="4"/>
-    </row>
-    <row r="379" spans="1:4" s="6" customFormat="1">
-      <c r="B379" s="22"/>
-      <c r="C379" s="4"/>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="11"/>
-      <c r="B380" s="11"/>
-      <c r="C380" s="11"/>
-      <c r="D380" s="2"/>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="B381" s="8" t="s">
+      <c r="D385" s="4"/>
+    </row>
+    <row r="386" spans="1:4" s="6" customFormat="1">
+      <c r="B386" s="22"/>
+      <c r="C386" s="4"/>
+      <c r="D386" s="4"/>
+    </row>
+    <row r="387" spans="1:4" s="6" customFormat="1">
+      <c r="B387" s="22"/>
+      <c r="C387" s="4"/>
+      <c r="D387" s="4"/>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="11"/>
+      <c r="B388" s="11"/>
+      <c r="C388" s="11"/>
+      <c r="D388" s="2"/>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="B389" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C381" s="6">
-        <f>COUNTIF(C5:C380,"y")</f>
-        <v>230</v>
-      </c>
-      <c r="D381" s="2"/>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="B382" s="8" t="s">
+      <c r="C389" s="6">
+        <f>COUNTIF(C5:C388,"y")</f>
+        <v>232</v>
+      </c>
+      <c r="D389" s="2"/>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="B390" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C382" s="6">
-        <f>COUNTIF(C5:C380,"n")</f>
-        <v>91</v>
-      </c>
-      <c r="D382" s="2"/>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="B383" s="8" t="s">
+      <c r="C390" s="6">
+        <f>COUNTIF(C5:C388,"n")</f>
+        <v>97</v>
+      </c>
+      <c r="D390" s="2"/>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="B391" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C383" s="7">
-        <f>COUNTIF(C5:C380,"TBD")</f>
+      <c r="C391" s="7">
+        <f>COUNTIF(C5:C388,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D383" s="2"/>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="B384" s="8" t="s">
+      <c r="D391" s="2"/>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="B392" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C384">
-        <f>SUM(C381:C383)</f>
-        <v>321</v>
-      </c>
-      <c r="D384" s="2"/>
-    </row>
-    <row r="385" spans="2:4" ht="18">
-      <c r="B385" s="10"/>
-      <c r="C385" s="10" t="s">
+      <c r="C392">
+        <f>SUM(C389:C391)</f>
+        <v>329</v>
+      </c>
+      <c r="D392" s="2"/>
+    </row>
+    <row r="393" spans="1:4" ht="18">
+      <c r="B393" s="10"/>
+      <c r="C393" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D385" s="42">
-        <f>C381/(C382+C381 + C383)</f>
-        <v>0.71651090342679125</v>
+      <c r="D393" s="42">
+        <f>C389/(C390+C389 + C391)</f>
+        <v>0.70516717325227962</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C65341">
+  <conditionalFormatting sqref="C1:C3 C6:C65349">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5917,7 +6013,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5938,7 +6034,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6218,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G50" s="31">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
@@ -6231,10 +6327,10 @@
         <v>42040</v>
       </c>
       <c r="B51" s="4">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C51" s="4">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -6243,11 +6339,11 @@
         <v>0</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G51" s="31">
         <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
-        <v>0.71651090342679125</v>
+        <v>0.70516717325227962</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -6292,25 +6388,25 @@
       </c>
       <c r="G54" s="39">
         <f>G51</f>
-        <v>0.71651090342679125</v>
+        <v>0.70516717325227962</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="40">
         <f>SUM(B55:D55)</f>
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B55" s="16">
-        <f>Features!C381</f>
-        <v>230</v>
+        <f>Features!C389</f>
+        <v>232</v>
       </c>
       <c r="C55" s="17">
-        <f>Features!C382</f>
-        <v>91</v>
+        <f>Features!C390</f>
+        <v>97</v>
       </c>
       <c r="D55" s="18">
-        <f>Features!C383</f>
+        <f>Features!C391</f>
         <v>0</v>
       </c>
       <c r="E55" s="19">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="310">
   <si>
     <t>Feature</t>
   </si>
@@ -683,12 +683,6 @@
     <t>JImage(w, h, alpha)</t>
   </si>
   <si>
-    <t>getWidth()</t>
-  </si>
-  <si>
-    <t>getHeight()</t>
-  </si>
-  <si>
     <t>invert()</t>
   </si>
   <si>
@@ -698,12 +692,6 @@
     <t>scale(factor)</t>
   </si>
   <si>
-    <t>setColor(r,g,b)</t>
-  </si>
-  <si>
-    <t>setColor(r,g,b,a)</t>
-  </si>
-  <si>
     <t>setColor(name or #rgb or #rrggbb, or #rrggbbaa)</t>
   </si>
   <si>
@@ -716,9 +704,6 @@
     <t>lineTo(x,y)</t>
   </si>
   <si>
-    <t>setDirection</t>
-  </si>
-  <si>
     <t>line</t>
   </si>
   <si>
@@ -920,9 +905,6 @@
     <t>gamma(x)</t>
   </si>
   <si>
-    <t>sharpen(x)</t>
-  </si>
-  <si>
     <t>crop(w, h)</t>
   </si>
   <si>
@@ -933,6 +915,39 @@
   </si>
   <si>
     <t>grayscale()</t>
+  </si>
+  <si>
+    <t>blur()</t>
+  </si>
+  <si>
+    <t>sharpen()</t>
+  </si>
+  <si>
+    <t>JImageBuilder</t>
+  </si>
+  <si>
+    <t>blur(radius)</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>layer(name)</t>
+  </si>
+  <si>
+    <t>path(name)</t>
+  </si>
+  <si>
+    <t>setColor(r, g, b)</t>
+  </si>
+  <si>
+    <t>setColor(r, g, b, a)</t>
+  </si>
+  <si>
+    <t>width</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1201,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958533"/>
+          <c:w val="0.91978071330958555"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1233,7 +1248,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42040</c:v>
+                  <c:v>42041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,7 +1269,7 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>232</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,7 +1316,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42040</c:v>
+                  <c:v>42041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,7 +1337,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1369,7 +1384,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42040</c:v>
+                  <c:v>42041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1437,7 +1452,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42040</c:v>
+                  <c:v>42041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,7 +1708,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628767"/>
+          <c:y val="0.1162851253762877"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1758,7 +1773,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42040</c:v>
+                  <c:v>42041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1779,7 +1794,7 @@
                   <c:v>0.70440251572327039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70516717325227962</c:v>
+                  <c:v>0.72023809523809523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1960,7 +1975,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42040</c:v>
+                  <c:v>42041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,7 +1996,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,7 +2043,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42040</c:v>
+                  <c:v>42041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2624,10 +2639,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D393"/>
+  <dimension ref="A1:D403"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C296" sqref="C296"/>
+    <sheetView topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2681,7 +2696,7 @@
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="4"/>
       <c r="B7" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -2691,7 +2706,7 @@
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="4"/>
       <c r="B8" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -2701,7 +2716,7 @@
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="4"/>
       <c r="B9" s="23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -2711,7 +2726,7 @@
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="4"/>
       <c r="B10" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -2721,7 +2736,7 @@
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="23" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2731,7 +2746,7 @@
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="A12" s="4"/>
       <c r="B12" s="23" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -2741,7 +2756,7 @@
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -2976,7 +2991,7 @@
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>1</v>
@@ -2985,7 +3000,7 @@
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1">
       <c r="B41" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -2994,7 +3009,7 @@
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1">
       <c r="B42" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>1</v>
@@ -3323,7 +3338,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="24" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
@@ -3404,7 +3419,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="25" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>1</v>
@@ -3658,7 +3673,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>1</v>
@@ -3667,7 +3682,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>1</v>
@@ -3726,7 +3741,7 @@
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="25" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>13</v>
@@ -3735,7 +3750,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="25" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1</v>
@@ -3870,7 +3885,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="44" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="4"/>
@@ -3904,7 +3919,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="44" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>13</v>
@@ -3922,7 +3937,7 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="44" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>13</v>
@@ -4466,7 +4481,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>1</v>
@@ -4475,7 +4490,7 @@
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
       <c r="B213" s="23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>1</v>
@@ -4511,7 +4526,7 @@
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>1</v>
@@ -4593,7 +4608,7 @@
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
       <c r="B227" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>1</v>
@@ -4611,7 +4626,7 @@
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
       <c r="B229" s="23" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>1</v>
@@ -4712,7 +4727,7 @@
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
       <c r="B242" s="23" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>1</v>
@@ -4785,7 +4800,7 @@
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
       <c r="B251" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>1</v>
@@ -4794,7 +4809,7 @@
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
       <c r="B252" s="21" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>1</v>
@@ -4912,7 +4927,7 @@
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
       <c r="B266" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>1</v>
@@ -4930,7 +4945,7 @@
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="23" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>1</v>
@@ -4939,7 +4954,7 @@
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
       <c r="B269" s="23" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>1</v>
@@ -4948,7 +4963,7 @@
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
       <c r="B270" s="23" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>1</v>
@@ -4957,7 +4972,7 @@
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
       <c r="B271" s="23" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>13</v>
@@ -4966,7 +4981,7 @@
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
       <c r="B272" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>1</v>
@@ -5080,16 +5095,16 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="23" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
       <c r="B287" s="23" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>13</v>
@@ -5098,34 +5113,34 @@
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="23" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D288" s="4"/>
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
       <c r="B289" s="23" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="23" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="23" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>13</v>
@@ -5134,16 +5149,16 @@
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
       <c r="B293" s="23" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>1</v>
@@ -5152,7 +5167,7 @@
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
       <c r="B294" s="23" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>1</v>
@@ -5161,7 +5176,7 @@
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="23" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>1</v>
@@ -5170,79 +5185,67 @@
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
       <c r="B296" s="23" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
       <c r="B297" s="23" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="23" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
       <c r="B299" s="23" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
       <c r="B300" s="23" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B301" s="23"/>
+      <c r="C301" s="7"/>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B302" s="23"/>
+      <c r="C302" s="7"/>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B303" s="23"/>
+      <c r="C303" s="7"/>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="23" t="s">
-        <v>296</v>
+      <c r="B304" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>1</v>
@@ -5251,7 +5254,7 @@
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="23" t="s">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>1</v>
@@ -5260,7 +5263,7 @@
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="23" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>1</v>
@@ -5269,7 +5272,7 @@
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="23" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>1</v>
@@ -5278,25 +5281,25 @@
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
       <c r="B308" s="23" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
       <c r="B309" s="23" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="23" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>13</v>
@@ -5304,54 +5307,62 @@
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="23"/>
-      <c r="C311" s="7"/>
+      <c r="B311" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="23"/>
-      <c r="C312" s="7"/>
+      <c r="B312" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="3" t="s">
-        <v>210</v>
+      <c r="B313" s="23" t="s">
+        <v>229</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
       <c r="B314" s="23" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
       <c r="B315" s="23" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
       <c r="B316" s="23" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="23" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>1</v>
@@ -5360,7 +5371,7 @@
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="23" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>1</v>
@@ -5369,16 +5380,16 @@
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
       <c r="B319" s="23" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="23" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>1</v>
@@ -5386,26 +5397,18 @@
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B321" s="23"/>
+      <c r="C321" s="7"/>
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
-      <c r="B322" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B322" s="23"/>
+      <c r="C322" s="7"/>
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="23" t="s">
-        <v>240</v>
+      <c r="B323" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>1</v>
@@ -5414,7 +5417,7 @@
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
       <c r="B324" s="23" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>1</v>
@@ -5422,18 +5425,26 @@
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="23"/>
-      <c r="C325" s="7"/>
+      <c r="B325" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="23"/>
-      <c r="C326" s="7"/>
+      <c r="B326" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="3" t="s">
-        <v>272</v>
+      <c r="B327" s="23" t="s">
+        <v>238</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>1</v>
@@ -5442,7 +5453,7 @@
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
       <c r="B328" s="23" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>1</v>
@@ -5451,7 +5462,7 @@
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
       <c r="B329" s="23" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>1</v>
@@ -5460,7 +5471,7 @@
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
       <c r="B330" s="23" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>1</v>
@@ -5469,7 +5480,7 @@
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
       <c r="B331" s="23" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>1</v>
@@ -5478,7 +5489,7 @@
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
       <c r="B332" s="23" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>1</v>
@@ -5487,7 +5498,7 @@
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
       <c r="B333" s="23" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>1</v>
@@ -5496,7 +5507,7 @@
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
       <c r="B334" s="23" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>1</v>
@@ -5504,45 +5515,45 @@
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="23" t="s">
+      <c r="B335" s="23"/>
+      <c r="C335" s="7"/>
+      <c r="D335" s="4"/>
+    </row>
+    <row r="336" spans="2:4" s="6" customFormat="1">
+      <c r="B336" s="23"/>
+      <c r="C336" s="7"/>
+      <c r="D336" s="4"/>
+    </row>
+    <row r="337" spans="2:4" s="6" customFormat="1">
+      <c r="B337" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="2:4" s="6" customFormat="1">
+      <c r="B338" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C335" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D335" s="4"/>
-    </row>
-    <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="23" t="s">
+      <c r="C338" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="2:4" s="6" customFormat="1">
+      <c r="B339" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="C336" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D336" s="4"/>
-    </row>
-    <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C337" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D337" s="4"/>
-    </row>
-    <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="23"/>
-      <c r="C338" s="7"/>
-      <c r="D338" s="4"/>
-    </row>
-    <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="21"/>
-      <c r="C339" s="7"/>
+      <c r="C339" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="3" t="s">
-        <v>34</v>
+      <c r="B340" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>1</v>
@@ -5551,124 +5562,116 @@
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
       <c r="B341" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D341" s="4"/>
+    </row>
+    <row r="342" spans="2:4" s="6" customFormat="1">
+      <c r="B342" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D342" s="4"/>
+    </row>
+    <row r="343" spans="2:4" s="6" customFormat="1">
+      <c r="B343" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D343" s="4"/>
+    </row>
+    <row r="344" spans="2:4" s="6" customFormat="1">
+      <c r="B344" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="2:4" s="6" customFormat="1">
+      <c r="B345" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D346" s="4"/>
+    </row>
+    <row r="347" spans="2:4" s="6" customFormat="1">
+      <c r="B347" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D347" s="4"/>
+    </row>
+    <row r="348" spans="2:4" s="6" customFormat="1">
+      <c r="B348" s="23"/>
+      <c r="C348" s="7"/>
+      <c r="D348" s="4"/>
+    </row>
+    <row r="349" spans="2:4" s="6" customFormat="1">
+      <c r="B349" s="21"/>
+      <c r="C349" s="7"/>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:4" s="6" customFormat="1">
+      <c r="B350" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="2:4" s="6" customFormat="1">
+      <c r="B351" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C341" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D341" s="4"/>
-    </row>
-    <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="21" t="s">
+      <c r="C351" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="2:4" s="6" customFormat="1">
+      <c r="B352" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C342" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D342" s="4"/>
-    </row>
-    <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="21" t="s">
+      <c r="C352" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="2:4" s="6" customFormat="1">
+      <c r="B353" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C343" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D343" s="4"/>
-    </row>
-    <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="24" t="s">
+      <c r="C353" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="C344" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D344" s="4"/>
-    </row>
-    <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D346" s="4"/>
-    </row>
-    <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D347" s="4"/>
-    </row>
-    <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D348" s="4"/>
-    </row>
-    <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D349" s="4"/>
-    </row>
-    <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D350" s="4"/>
-    </row>
-    <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D351" s="4"/>
-    </row>
-    <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D352" s="4"/>
-    </row>
-    <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="25" t="s">
-        <v>148</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>1</v>
@@ -5677,7 +5680,7 @@
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
       <c r="B355" s="24" t="s">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>1</v>
@@ -5686,7 +5689,7 @@
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
       <c r="B356" s="24" t="s">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>1</v>
@@ -5694,8 +5697,8 @@
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="21" t="s">
-        <v>31</v>
+      <c r="B357" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>1</v>
@@ -5703,8 +5706,8 @@
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="24" t="s">
-        <v>35</v>
+      <c r="B358" s="21" t="s">
+        <v>282</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>1</v>
@@ -5713,104 +5716,120 @@
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
       <c r="B359" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D359" s="4"/>
+    </row>
+    <row r="360" spans="2:4" s="6" customFormat="1">
+      <c r="B360" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D360" s="4"/>
+    </row>
+    <row r="361" spans="2:4" s="6" customFormat="1">
+      <c r="B361" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="2:4" s="6" customFormat="1">
+      <c r="B362" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D362" s="4"/>
+    </row>
+    <row r="363" spans="2:4" s="6" customFormat="1">
+      <c r="B363" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D363" s="4"/>
+    </row>
+    <row r="364" spans="2:4" s="6" customFormat="1">
+      <c r="B364" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D364" s="4"/>
+    </row>
+    <row r="365" spans="2:4" s="6" customFormat="1">
+      <c r="B365" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D365" s="4"/>
+    </row>
+    <row r="366" spans="2:4" s="6" customFormat="1">
+      <c r="B366" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366" s="4"/>
+    </row>
+    <row r="367" spans="2:4" s="6" customFormat="1">
+      <c r="B367" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="2:4" s="6" customFormat="1">
+      <c r="B368" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="2:4" s="6" customFormat="1">
+      <c r="B369" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C359" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="20"/>
-      <c r="C360" s="7"/>
-      <c r="D360" s="4"/>
-    </row>
-    <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D362" s="4"/>
-    </row>
-    <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="21"/>
-      <c r="C363" s="7"/>
-      <c r="D363" s="4"/>
-    </row>
-    <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="21"/>
-      <c r="C364" s="7"/>
-      <c r="D364" s="4"/>
-    </row>
-    <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C365" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D365" s="4"/>
-    </row>
-    <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D366" s="4"/>
-    </row>
-    <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D367" s="4"/>
-    </row>
-    <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C368" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D368" s="4"/>
-    </row>
-    <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="23" t="s">
-        <v>30</v>
-      </c>
       <c r="C369" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="2:4" s="6" customFormat="1">
-      <c r="B370" s="23"/>
+      <c r="B370" s="20"/>
       <c r="C370" s="7"/>
       <c r="D370" s="4"/>
     </row>
     <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="23"/>
-      <c r="C371" s="7"/>
+      <c r="B371" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D371" s="4"/>
     </row>
     <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="3" t="s">
-        <v>62</v>
+      <c r="B372" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>1</v>
@@ -5818,175 +5837,249 @@
       <c r="D372" s="4"/>
     </row>
     <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B373" s="21"/>
+      <c r="C373" s="7"/>
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C374" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B374" s="21"/>
+      <c r="C374" s="7"/>
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="22"/>
-      <c r="C375" s="4"/>
+      <c r="B375" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="20"/>
-      <c r="C376" s="4"/>
+      <c r="B376" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D376" s="4"/>
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="3" t="s">
-        <v>28</v>
+      <c r="B377" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22" t="s">
-        <v>29</v>
+      <c r="B378" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="2:4" s="6" customFormat="1">
       <c r="B379" s="23" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D379" s="4"/>
     </row>
     <row r="380" spans="2:4" s="6" customFormat="1">
       <c r="B380" s="23"/>
-      <c r="C380" s="9"/>
+      <c r="C380" s="7"/>
       <c r="D380" s="4"/>
     </row>
     <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="20"/>
-      <c r="C381" s="4"/>
+      <c r="B381" s="23"/>
+      <c r="C381" s="7"/>
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
       <c r="B382" s="3" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="22" t="s">
-        <v>22</v>
+      <c r="B383" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="22" t="s">
-        <v>23</v>
+      <c r="B384" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D384" s="4"/>
     </row>
     <row r="385" spans="1:4" s="6" customFormat="1">
-      <c r="B385" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B385" s="22"/>
+      <c r="C385" s="4"/>
       <c r="D385" s="4"/>
     </row>
     <row r="386" spans="1:4" s="6" customFormat="1">
-      <c r="B386" s="22"/>
+      <c r="B386" s="20"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
     </row>
     <row r="387" spans="1:4" s="6" customFormat="1">
-      <c r="B387" s="22"/>
-      <c r="C387" s="4"/>
+      <c r="B387" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D387" s="4"/>
     </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="11"/>
-      <c r="B388" s="11"/>
-      <c r="C388" s="11"/>
-      <c r="D388" s="2"/>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="B389" s="8" t="s">
+    <row r="388" spans="1:4" s="6" customFormat="1">
+      <c r="B388" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D388" s="4"/>
+    </row>
+    <row r="389" spans="1:4" s="6" customFormat="1">
+      <c r="B389" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D389" s="4"/>
+    </row>
+    <row r="390" spans="1:4" s="6" customFormat="1">
+      <c r="B390" s="23"/>
+      <c r="C390" s="9"/>
+      <c r="D390" s="4"/>
+    </row>
+    <row r="391" spans="1:4" s="6" customFormat="1">
+      <c r="B391" s="20"/>
+      <c r="C391" s="4"/>
+      <c r="D391" s="4"/>
+    </row>
+    <row r="392" spans="1:4" s="6" customFormat="1">
+      <c r="B392" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D392" s="4"/>
+    </row>
+    <row r="393" spans="1:4" s="6" customFormat="1">
+      <c r="B393" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D393" s="4"/>
+    </row>
+    <row r="394" spans="1:4" s="6" customFormat="1">
+      <c r="B394" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D394" s="4"/>
+    </row>
+    <row r="395" spans="1:4" s="6" customFormat="1">
+      <c r="B395" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D395" s="4"/>
+    </row>
+    <row r="396" spans="1:4" s="6" customFormat="1">
+      <c r="B396" s="22"/>
+      <c r="C396" s="4"/>
+      <c r="D396" s="4"/>
+    </row>
+    <row r="397" spans="1:4" s="6" customFormat="1">
+      <c r="B397" s="22"/>
+      <c r="C397" s="4"/>
+      <c r="D397" s="4"/>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="11"/>
+      <c r="B398" s="11"/>
+      <c r="C398" s="11"/>
+      <c r="D398" s="2"/>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="B399" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C389" s="6">
-        <f>COUNTIF(C5:C388,"y")</f>
-        <v>232</v>
-      </c>
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="B390" s="8" t="s">
+      <c r="C399" s="6">
+        <f>COUNTIF(C5:C398,"y")</f>
+        <v>242</v>
+      </c>
+      <c r="D399" s="2"/>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="B400" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C390" s="6">
-        <f>COUNTIF(C5:C388,"n")</f>
-        <v>97</v>
-      </c>
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="B391" s="8" t="s">
+      <c r="C400" s="6">
+        <f>COUNTIF(C5:C398,"n")</f>
+        <v>94</v>
+      </c>
+      <c r="D400" s="2"/>
+    </row>
+    <row r="401" spans="2:4">
+      <c r="B401" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C391" s="7">
-        <f>COUNTIF(C5:C388,"TBD")</f>
+      <c r="C401" s="7">
+        <f>COUNTIF(C5:C398,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D391" s="2"/>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="B392" s="8" t="s">
+      <c r="D401" s="2"/>
+    </row>
+    <row r="402" spans="2:4">
+      <c r="B402" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C392">
-        <f>SUM(C389:C391)</f>
-        <v>329</v>
-      </c>
-      <c r="D392" s="2"/>
-    </row>
-    <row r="393" spans="1:4" ht="18">
-      <c r="B393" s="10"/>
-      <c r="C393" s="10" t="s">
+      <c r="C402">
+        <f>SUM(C399:C401)</f>
+        <v>336</v>
+      </c>
+      <c r="D402" s="2"/>
+    </row>
+    <row r="403" spans="2:4" ht="18">
+      <c r="B403" s="10"/>
+      <c r="C403" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D393" s="42">
-        <f>C389/(C390+C389 + C391)</f>
-        <v>0.70516717325227962</v>
+      <c r="D403" s="42">
+        <f>C399/(C400+C399 + C401)</f>
+        <v>0.72023809523809523</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C65349">
+  <conditionalFormatting sqref="C1:C3 C6:C65359">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -6013,7 +6106,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6034,7 +6127,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="38" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6314,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G50" s="31">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
@@ -6324,13 +6417,13 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="12">
-        <v>42040</v>
+        <v>42041</v>
       </c>
       <c r="B51" s="4">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C51" s="4">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -6339,11 +6432,11 @@
         <v>0</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G51" s="31">
         <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
-        <v>0.70516717325227962</v>
+        <v>0.72023809523809523</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -6388,25 +6481,25 @@
       </c>
       <c r="G54" s="39">
         <f>G51</f>
-        <v>0.70516717325227962</v>
+        <v>0.72023809523809523</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="40">
         <f>SUM(B55:D55)</f>
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B55" s="16">
-        <f>Features!C389</f>
-        <v>232</v>
+        <f>Features!C399</f>
+        <v>242</v>
       </c>
       <c r="C55" s="17">
-        <f>Features!C390</f>
-        <v>97</v>
+        <f>Features!C400</f>
+        <v>94</v>
       </c>
       <c r="D55" s="18">
-        <f>Features!C391</f>
+        <f>Features!C401</f>
         <v>0</v>
       </c>
       <c r="E55" s="19">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -1269,7 +1269,7 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>242</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,7 +1337,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,7 +1794,7 @@
                   <c:v>0.70440251572327039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72023809523809523</c:v>
+                  <c:v>0.72619047619047616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,7 +1996,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,7 +2642,7 @@
   <dimension ref="A1:D403"/>
   <sheetViews>
     <sheetView topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="D304" sqref="D304"/>
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5107,7 +5107,7 @@
         <v>292</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D287" s="4"/>
     </row>
@@ -5116,7 +5116,7 @@
         <v>293</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D288" s="4"/>
     </row>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C399" s="6">
         <f>COUNTIF(C5:C398,"y")</f>
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D399" s="2"/>
     </row>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="C400" s="6">
         <f>COUNTIF(C5:C398,"n")</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D400" s="2"/>
     </row>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="D403" s="42">
         <f>C399/(C400+C399 + C401)</f>
-        <v>0.72023809523809523</v>
+        <v>0.72619047619047616</v>
       </c>
     </row>
   </sheetData>
@@ -6106,7 +6106,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6420,10 +6420,10 @@
         <v>42041</v>
       </c>
       <c r="B51" s="4">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C51" s="4">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="G51" s="31">
         <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
-        <v>0.72023809523809523</v>
+        <v>0.72619047619047616</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="G54" s="39">
         <f>G51</f>
-        <v>0.72023809523809523</v>
+        <v>0.72619047619047616</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -6492,11 +6492,11 @@
       </c>
       <c r="B55" s="16">
         <f>Features!C399</f>
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C55" s="17">
         <f>Features!C400</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D55" s="18">
         <f>Features!C401</f>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -905,9 +905,6 @@
     <t>gamma(x)</t>
   </si>
   <si>
-    <t>crop(w, h)</t>
-  </si>
-  <si>
     <t>rotate(x)</t>
   </si>
   <si>
@@ -948,6 +945,9 @@
   </si>
   <si>
     <t>width</t>
+  </si>
+  <si>
+    <t>resize(w, h, trim)</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>244</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,7 +1337,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,7 +1794,7 @@
                   <c:v>0.70440251572327039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72619047619047616</c:v>
+                  <c:v>0.72916666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,7 +1996,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,7 +2642,7 @@
   <dimension ref="A1:D403"/>
   <sheetViews>
     <sheetView topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+      <selection activeCell="C296" sqref="C296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>1</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>13</v>
@@ -5140,16 +5140,16 @@
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="23" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>1</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
       <c r="B293" s="23" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>1</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
       <c r="B294" s="23" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>1</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="23" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>1</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
       <c r="B296" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>13</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
       <c r="B299" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>1</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
       <c r="B300" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>1</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
       <c r="B304" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>1</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>1</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>1</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
       <c r="B308" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>1</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
       <c r="B309" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>1</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
       <c r="B315" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>1</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>1</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>1</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>1</v>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C399" s="6">
         <f>COUNTIF(C5:C398,"y")</f>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D399" s="2"/>
     </row>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="C400" s="6">
         <f>COUNTIF(C5:C398,"n")</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D400" s="2"/>
     </row>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="D403" s="42">
         <f>C399/(C400+C399 + C401)</f>
-        <v>0.72619047619047616</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -6106,7 +6106,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6420,10 +6420,10 @@
         <v>42041</v>
       </c>
       <c r="B51" s="4">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C51" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="G51" s="31">
         <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
-        <v>0.72619047619047616</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="G54" s="39">
         <f>G51</f>
-        <v>0.72619047619047616</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -6492,11 +6492,11 @@
       </c>
       <c r="B55" s="16">
         <f>Features!C399</f>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C55" s="17">
         <f>Features!C400</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="18">
         <f>Features!C401</f>

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="318">
   <si>
     <t>Feature</t>
   </si>
@@ -704,9 +704,6 @@
     <t>lineTo(x,y)</t>
   </si>
   <si>
-    <t>line</t>
-  </si>
-  <si>
     <t>mark</t>
   </si>
   <si>
@@ -948,6 +945,33 @@
   </si>
   <si>
     <t>resize(w, h, trim)</t>
+  </si>
+  <si>
+    <t>line(len)</t>
+  </si>
+  <si>
+    <t>line(dx, dy)</t>
+  </si>
+  <si>
+    <t>move(dx, dy);</t>
+  </si>
+  <si>
+    <t>move(dist)</t>
+  </si>
+  <si>
+    <t>draw(name)</t>
+  </si>
+  <si>
+    <t>JImageBuilder(w, h)</t>
+  </si>
+  <si>
+    <t>JImageBuilder(w, h, alpha)</t>
+  </si>
+  <si>
+    <t>JImageBuilder(w, h, bg)</t>
+  </si>
+  <si>
+    <t>closePath()</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1225,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958555"/>
+          <c:w val="0.91978071330958577"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1269,7 +1293,7 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,7 +1361,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,7 +1732,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.1162851253762877"/>
+          <c:y val="0.11628512537628773"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1794,7 +1818,7 @@
                   <c:v>0.70440251572327039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72916666666666663</c:v>
+                  <c:v>0.74127906976744184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,7 +2020,7 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2639,10 +2663,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D403"/>
+  <dimension ref="A1:D411"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="C296" sqref="C296"/>
+    <sheetView topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2696,7 +2720,7 @@
     <row r="7" spans="1:4" s="6" customFormat="1">
       <c r="A7" s="4"/>
       <c r="B7" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -2706,7 +2730,7 @@
     <row r="8" spans="1:4" s="6" customFormat="1">
       <c r="A8" s="4"/>
       <c r="B8" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -2716,7 +2740,7 @@
     <row r="9" spans="1:4" s="6" customFormat="1">
       <c r="A9" s="4"/>
       <c r="B9" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -2726,7 +2750,7 @@
     <row r="10" spans="1:4" s="6" customFormat="1">
       <c r="A10" s="4"/>
       <c r="B10" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -2736,7 +2760,7 @@
     <row r="11" spans="1:4" s="6" customFormat="1">
       <c r="A11" s="4"/>
       <c r="B11" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -2746,7 +2770,7 @@
     <row r="12" spans="1:4" s="6" customFormat="1">
       <c r="A12" s="4"/>
       <c r="B12" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -2756,7 +2780,7 @@
     <row r="13" spans="1:4" s="6" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -2991,7 +3015,7 @@
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1">
       <c r="B40" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>1</v>
@@ -3000,7 +3024,7 @@
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1">
       <c r="B41" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>1</v>
@@ -3009,7 +3033,7 @@
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1">
       <c r="B42" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>1</v>
@@ -3338,7 +3362,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
@@ -3419,7 +3443,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>1</v>
@@ -3673,7 +3697,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>1</v>
@@ -3682,7 +3706,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>1</v>
@@ -3741,7 +3765,7 @@
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>13</v>
@@ -3750,7 +3774,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1</v>
@@ -3885,7 +3909,7 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="4"/>
@@ -3919,7 +3943,7 @@
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
       <c r="B146" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>13</v>
@@ -3937,7 +3961,7 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>13</v>
@@ -4481,7 +4505,7 @@
     </row>
     <row r="212" spans="2:4" s="6" customFormat="1">
       <c r="B212" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>1</v>
@@ -4490,7 +4514,7 @@
     </row>
     <row r="213" spans="2:4" s="6" customFormat="1">
       <c r="B213" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>1</v>
@@ -4526,7 +4550,7 @@
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
       <c r="B217" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>1</v>
@@ -4608,7 +4632,7 @@
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
       <c r="B227" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>1</v>
@@ -4626,7 +4650,7 @@
     </row>
     <row r="229" spans="2:4" s="6" customFormat="1">
       <c r="B229" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>1</v>
@@ -4727,7 +4751,7 @@
     </row>
     <row r="242" spans="2:4" s="6" customFormat="1">
       <c r="B242" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>1</v>
@@ -4800,7 +4824,7 @@
     </row>
     <row r="251" spans="2:4" s="6" customFormat="1">
       <c r="B251" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>1</v>
@@ -4809,7 +4833,7 @@
     </row>
     <row r="252" spans="2:4" s="6" customFormat="1">
       <c r="B252" s="21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>1</v>
@@ -4927,7 +4951,7 @@
     </row>
     <row r="266" spans="2:4" s="6" customFormat="1">
       <c r="B266" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>1</v>
@@ -4945,7 +4969,7 @@
     </row>
     <row r="268" spans="2:4" s="6" customFormat="1">
       <c r="B268" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>1</v>
@@ -4954,7 +4978,7 @@
     </row>
     <row r="269" spans="2:4" s="6" customFormat="1">
       <c r="B269" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>1</v>
@@ -4963,7 +4987,7 @@
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
       <c r="B270" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>1</v>
@@ -4972,7 +4996,7 @@
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
       <c r="B271" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>13</v>
@@ -4981,7 +5005,7 @@
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
       <c r="B272" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>1</v>
@@ -5095,7 +5119,7 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>1</v>
@@ -5104,7 +5128,7 @@
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
       <c r="B287" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>1</v>
@@ -5113,7 +5137,7 @@
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>1</v>
@@ -5131,7 +5155,7 @@
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>13</v>
@@ -5140,7 +5164,7 @@
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>1</v>
@@ -5149,7 +5173,7 @@
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>1</v>
@@ -5158,7 +5182,7 @@
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
       <c r="B293" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>1</v>
@@ -5176,7 +5200,7 @@
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>1</v>
@@ -5185,7 +5209,7 @@
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
       <c r="B296" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>13</v>
@@ -5203,7 +5227,7 @@
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>1</v>
@@ -5212,7 +5236,7 @@
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
       <c r="B299" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>1</v>
@@ -5221,7 +5245,7 @@
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
       <c r="B300" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>1</v>
@@ -5245,7 +5269,7 @@
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
       <c r="B304" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>1</v>
@@ -5254,7 +5278,7 @@
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="23" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>1</v>
@@ -5263,7 +5287,7 @@
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="23" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>1</v>
@@ -5272,7 +5296,7 @@
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="23" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>1</v>
@@ -5281,7 +5305,7 @@
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
       <c r="B308" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>1</v>
@@ -5290,7 +5314,7 @@
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
       <c r="B309" s="23" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>1</v>
@@ -5299,61 +5323,61 @@
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="23" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
       <c r="B311" s="23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
       <c r="B312" s="23" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
       <c r="B313" s="23" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
       <c r="B314" s="23" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
       <c r="B315" s="23" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
       <c r="B316" s="23" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>1</v>
@@ -5362,7 +5386,7 @@
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="23" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>1</v>
@@ -5371,16 +5395,16 @@
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="23" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
       <c r="B319" s="23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>13</v>
@@ -5389,26 +5413,34 @@
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="23" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="23"/>
-      <c r="C321" s="7"/>
+      <c r="B321" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
-      <c r="B322" s="23"/>
-      <c r="C322" s="7"/>
+      <c r="B322" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="3" t="s">
-        <v>210</v>
+      <c r="B323" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>1</v>
@@ -5417,7 +5449,7 @@
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
       <c r="B324" s="23" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>1</v>
@@ -5426,25 +5458,25 @@
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
       <c r="B325" s="23" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
       <c r="B326" s="23" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
       <c r="B327" s="23" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>1</v>
@@ -5453,7 +5485,7 @@
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
       <c r="B328" s="23" t="s">
-        <v>234</v>
+        <v>307</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>1</v>
@@ -5461,26 +5493,18 @@
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B329" s="23"/>
+      <c r="C329" s="7"/>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B330" s="23"/>
+      <c r="C330" s="7"/>
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="23" t="s">
-        <v>237</v>
+      <c r="B331" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>1</v>
@@ -5489,7 +5513,7 @@
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
       <c r="B332" s="23" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>1</v>
@@ -5498,35 +5522,43 @@
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
       <c r="B333" s="23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
       <c r="B334" s="23" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="23"/>
-      <c r="C335" s="7"/>
+      <c r="B335" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="23"/>
-      <c r="C336" s="7"/>
+      <c r="B336" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="3" t="s">
-        <v>267</v>
+      <c r="B337" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>1</v>
@@ -5535,7 +5567,7 @@
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
       <c r="B338" s="23" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>1</v>
@@ -5544,7 +5576,7 @@
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
       <c r="B339" s="23" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>1</v>
@@ -5553,7 +5585,7 @@
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
       <c r="B340" s="23" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>1</v>
@@ -5562,7 +5594,7 @@
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
       <c r="B341" s="23" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>1</v>
@@ -5571,7 +5603,7 @@
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
       <c r="B342" s="23" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>1</v>
@@ -5579,26 +5611,18 @@
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="C343" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B343" s="23"/>
+      <c r="C343" s="7"/>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="C344" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B344" s="23"/>
+      <c r="C344" s="7"/>
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="23" t="s">
-        <v>269</v>
+      <c r="B345" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>1</v>
@@ -5607,7 +5631,7 @@
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
       <c r="B346" s="23" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>1</v>
@@ -5616,26 +5640,34 @@
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
       <c r="B347" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D347" s="4"/>
+    </row>
+    <row r="348" spans="2:4" s="6" customFormat="1">
+      <c r="B348" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="C347" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D347" s="4"/>
-    </row>
-    <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="23"/>
-      <c r="C348" s="7"/>
+      <c r="C348" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="21"/>
-      <c r="C349" s="7"/>
+      <c r="B349" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="3" t="s">
-        <v>34</v>
+      <c r="B350" s="23" t="s">
+        <v>276</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>1</v>
@@ -5644,97 +5676,89 @@
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
       <c r="B351" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="2:4" s="6" customFormat="1">
+      <c r="B352" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="2:4" s="6" customFormat="1">
+      <c r="B353" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="2:4" s="6" customFormat="1">
+      <c r="B355" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="23"/>
+      <c r="C356" s="7"/>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="2:4" s="6" customFormat="1">
+      <c r="B357" s="21"/>
+      <c r="C357" s="7"/>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="2:4" s="6" customFormat="1">
+      <c r="B358" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C351" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D351" s="4"/>
-    </row>
-    <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="21" t="s">
+      <c r="C359" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D359" s="4"/>
+    </row>
+    <row r="360" spans="2:4" s="6" customFormat="1">
+      <c r="B360" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C352" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D352" s="4"/>
-    </row>
-    <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="21" t="s">
+      <c r="C360" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D360" s="4"/>
+    </row>
+    <row r="361" spans="2:4" s="6" customFormat="1">
+      <c r="B361" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D356" s="4"/>
-    </row>
-    <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C358" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D360" s="4"/>
-    </row>
-    <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="25" t="s">
-        <v>147</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>1</v>
@@ -5743,7 +5767,7 @@
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
       <c r="B362" s="24" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>1</v>
@@ -5751,8 +5775,8 @@
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="25" t="s">
-        <v>149</v>
+      <c r="B363" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>1</v>
@@ -5760,8 +5784,8 @@
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="25" t="s">
-        <v>148</v>
+      <c r="B364" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>1</v>
@@ -5770,316 +5794,388 @@
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
       <c r="B365" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D365" s="4"/>
+    </row>
+    <row r="366" spans="2:4" s="6" customFormat="1">
+      <c r="B366" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366" s="4"/>
+    </row>
+    <row r="367" spans="2:4" s="6" customFormat="1">
+      <c r="B367" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="2:4" s="6" customFormat="1">
+      <c r="B368" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="2:4" s="6" customFormat="1">
+      <c r="B369" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="2:4" s="6" customFormat="1">
+      <c r="B370" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="2:4" s="6" customFormat="1">
+      <c r="B371" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="2:4" s="6" customFormat="1">
+      <c r="B372" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="2:4" s="6" customFormat="1">
+      <c r="B373" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D373" s="4"/>
+    </row>
+    <row r="374" spans="2:4" s="6" customFormat="1">
+      <c r="B374" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="C365" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D365" s="4"/>
-    </row>
-    <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D366" s="4"/>
-    </row>
-    <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="21" t="s">
+      <c r="C374" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D374" s="4"/>
+    </row>
+    <row r="375" spans="2:4" s="6" customFormat="1">
+      <c r="B375" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C367" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D367" s="4"/>
-    </row>
-    <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="24" t="s">
+      <c r="C375" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D375" s="4"/>
+    </row>
+    <row r="376" spans="2:4" s="6" customFormat="1">
+      <c r="B376" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C368" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D368" s="4"/>
-    </row>
-    <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="24" t="s">
+      <c r="C376" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D376" s="4"/>
+    </row>
+    <row r="377" spans="2:4" s="6" customFormat="1">
+      <c r="B377" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C369" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D369" s="4"/>
-    </row>
-    <row r="370" spans="2:4" s="6" customFormat="1">
-      <c r="B370" s="20"/>
-      <c r="C370" s="7"/>
-      <c r="D370" s="4"/>
-    </row>
-    <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C371" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D371" s="4"/>
-    </row>
-    <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D372" s="4"/>
-    </row>
-    <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="21"/>
-      <c r="C373" s="7"/>
-      <c r="D373" s="4"/>
-    </row>
-    <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="21"/>
-      <c r="C374" s="7"/>
-      <c r="D374" s="4"/>
-    </row>
-    <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C375" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D375" s="4"/>
-    </row>
-    <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C376" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D376" s="4"/>
-    </row>
-    <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="23" t="s">
-        <v>60</v>
-      </c>
       <c r="C377" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B378" s="20"/>
+      <c r="C378" s="7"/>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="2:4" s="6" customFormat="1">
       <c r="B379" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C379" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="2:4" s="6" customFormat="1">
-      <c r="B380" s="23"/>
-      <c r="C380" s="7"/>
+      <c r="C380" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D380" s="4"/>
     </row>
     <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="23"/>
+      <c r="B381" s="21"/>
       <c r="C381" s="7"/>
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C382" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B382" s="21"/>
+      <c r="C382" s="7"/>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="23" t="s">
-        <v>44</v>
+      <c r="B383" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
       <c r="B384" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D384" s="4"/>
+    </row>
+    <row r="385" spans="2:4" s="6" customFormat="1">
+      <c r="B385" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D385" s="4"/>
+    </row>
+    <row r="386" spans="2:4" s="6" customFormat="1">
+      <c r="B386" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D386" s="4"/>
+    </row>
+    <row r="387" spans="2:4" s="6" customFormat="1">
+      <c r="B387" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" s="4"/>
+    </row>
+    <row r="388" spans="2:4" s="6" customFormat="1">
+      <c r="B388" s="23"/>
+      <c r="C388" s="7"/>
+      <c r="D388" s="4"/>
+    </row>
+    <row r="389" spans="2:4" s="6" customFormat="1">
+      <c r="B389" s="23"/>
+      <c r="C389" s="7"/>
+      <c r="D389" s="4"/>
+    </row>
+    <row r="390" spans="2:4" s="6" customFormat="1">
+      <c r="B390" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D390" s="4"/>
+    </row>
+    <row r="391" spans="2:4" s="6" customFormat="1">
+      <c r="B391" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D391" s="4"/>
+    </row>
+    <row r="392" spans="2:4" s="6" customFormat="1">
+      <c r="B392" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C384" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D384" s="4"/>
-    </row>
-    <row r="385" spans="1:4" s="6" customFormat="1">
-      <c r="B385" s="22"/>
-      <c r="C385" s="4"/>
-      <c r="D385" s="4"/>
-    </row>
-    <row r="386" spans="1:4" s="6" customFormat="1">
-      <c r="B386" s="20"/>
-      <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
-    </row>
-    <row r="387" spans="1:4" s="6" customFormat="1">
-      <c r="B387" s="3" t="s">
+      <c r="C392" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D392" s="4"/>
+    </row>
+    <row r="393" spans="2:4" s="6" customFormat="1">
+      <c r="B393" s="22"/>
+      <c r="C393" s="4"/>
+      <c r="D393" s="4"/>
+    </row>
+    <row r="394" spans="2:4" s="6" customFormat="1">
+      <c r="B394" s="20"/>
+      <c r="C394" s="4"/>
+      <c r="D394" s="4"/>
+    </row>
+    <row r="395" spans="2:4" s="6" customFormat="1">
+      <c r="B395" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C387" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D387" s="4"/>
-    </row>
-    <row r="388" spans="1:4" s="6" customFormat="1">
-      <c r="B388" s="22" t="s">
+      <c r="C395" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D395" s="4"/>
+    </row>
+    <row r="396" spans="2:4" s="6" customFormat="1">
+      <c r="B396" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C388" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D388" s="4"/>
-    </row>
-    <row r="389" spans="1:4" s="6" customFormat="1">
-      <c r="B389" s="23" t="s">
+      <c r="C396" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D396" s="4"/>
+    </row>
+    <row r="397" spans="2:4" s="6" customFormat="1">
+      <c r="B397" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C389" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D389" s="4"/>
-    </row>
-    <row r="390" spans="1:4" s="6" customFormat="1">
-      <c r="B390" s="23"/>
-      <c r="C390" s="9"/>
-      <c r="D390" s="4"/>
-    </row>
-    <row r="391" spans="1:4" s="6" customFormat="1">
-      <c r="B391" s="20"/>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
-    </row>
-    <row r="392" spans="1:4" s="6" customFormat="1">
-      <c r="B392" s="3" t="s">
+      <c r="C397" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D397" s="4"/>
+    </row>
+    <row r="398" spans="2:4" s="6" customFormat="1">
+      <c r="B398" s="23"/>
+      <c r="C398" s="9"/>
+      <c r="D398" s="4"/>
+    </row>
+    <row r="399" spans="2:4" s="6" customFormat="1">
+      <c r="B399" s="20"/>
+      <c r="C399" s="4"/>
+      <c r="D399" s="4"/>
+    </row>
+    <row r="400" spans="2:4" s="6" customFormat="1">
+      <c r="B400" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C392" s="7" t="s">
+      <c r="C400" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D392" s="4"/>
-    </row>
-    <row r="393" spans="1:4" s="6" customFormat="1">
-      <c r="B393" s="22" t="s">
+      <c r="D400" s="4"/>
+    </row>
+    <row r="401" spans="1:4" s="6" customFormat="1">
+      <c r="B401" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C393" s="7" t="s">
+      <c r="C401" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D393" s="4"/>
-    </row>
-    <row r="394" spans="1:4" s="6" customFormat="1">
-      <c r="B394" s="22" t="s">
+      <c r="D401" s="4"/>
+    </row>
+    <row r="402" spans="1:4" s="6" customFormat="1">
+      <c r="B402" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C394" s="7" t="s">
+      <c r="C402" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D394" s="4"/>
-    </row>
-    <row r="395" spans="1:4" s="6" customFormat="1">
-      <c r="B395" s="22" t="s">
+      <c r="D402" s="4"/>
+    </row>
+    <row r="403" spans="1:4" s="6" customFormat="1">
+      <c r="B403" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C395" s="7" t="s">
+      <c r="C403" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D395" s="4"/>
-    </row>
-    <row r="396" spans="1:4" s="6" customFormat="1">
-      <c r="B396" s="22"/>
-      <c r="C396" s="4"/>
-      <c r="D396" s="4"/>
-    </row>
-    <row r="397" spans="1:4" s="6" customFormat="1">
-      <c r="B397" s="22"/>
-      <c r="C397" s="4"/>
-      <c r="D397" s="4"/>
-    </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="11"/>
-      <c r="B398" s="11"/>
-      <c r="C398" s="11"/>
-      <c r="D398" s="2"/>
-    </row>
-    <row r="399" spans="1:4">
-      <c r="B399" s="8" t="s">
+      <c r="D403" s="4"/>
+    </row>
+    <row r="404" spans="1:4" s="6" customFormat="1">
+      <c r="B404" s="22"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+    </row>
+    <row r="405" spans="1:4" s="6" customFormat="1">
+      <c r="B405" s="22"/>
+      <c r="C405" s="4"/>
+      <c r="D405" s="4"/>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="11"/>
+      <c r="B406" s="11"/>
+      <c r="C406" s="11"/>
+      <c r="D406" s="2"/>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="B407" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C399" s="6">
-        <f>COUNTIF(C5:C398,"y")</f>
-        <v>245</v>
-      </c>
-      <c r="D399" s="2"/>
-    </row>
-    <row r="400" spans="1:4">
-      <c r="B400" s="8" t="s">
+      <c r="C407" s="6">
+        <f>COUNTIF(C5:C406,"y")</f>
+        <v>255</v>
+      </c>
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="B408" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C400" s="6">
-        <f>COUNTIF(C5:C398,"n")</f>
-        <v>91</v>
-      </c>
-      <c r="D400" s="2"/>
-    </row>
-    <row r="401" spans="2:4">
-      <c r="B401" s="8" t="s">
+      <c r="C408" s="6">
+        <f>COUNTIF(C5:C406,"n")</f>
+        <v>89</v>
+      </c>
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="B409" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C401" s="7">
-        <f>COUNTIF(C5:C398,"TBD")</f>
+      <c r="C409" s="7">
+        <f>COUNTIF(C5:C406,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D401" s="2"/>
-    </row>
-    <row r="402" spans="2:4">
-      <c r="B402" s="8" t="s">
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="B410" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C402">
-        <f>SUM(C399:C401)</f>
-        <v>336</v>
-      </c>
-      <c r="D402" s="2"/>
-    </row>
-    <row r="403" spans="2:4" ht="18">
-      <c r="B403" s="10"/>
-      <c r="C403" s="10" t="s">
+      <c r="C410">
+        <f>SUM(C407:C409)</f>
+        <v>344</v>
+      </c>
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="1:4" ht="18">
+      <c r="B411" s="10"/>
+      <c r="C411" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D403" s="42">
-        <f>C399/(C400+C399 + C401)</f>
-        <v>0.72916666666666663</v>
+      <c r="D411" s="42">
+        <f>C407/(C408+C407 + C409)</f>
+        <v>0.74127906976744184</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C65359">
+  <conditionalFormatting sqref="C1:C3 C6:C65367">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -6106,7 +6202,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6127,7 +6223,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18">
       <c r="E1" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -6407,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G50" s="31">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
@@ -6420,10 +6516,10 @@
         <v>42041</v>
       </c>
       <c r="B51" s="4">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C51" s="4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -6432,11 +6528,11 @@
         <v>0</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G51" s="31">
         <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
-        <v>0.72916666666666663</v>
+        <v>0.74127906976744184</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -6481,25 +6577,25 @@
       </c>
       <c r="G54" s="39">
         <f>G51</f>
-        <v>0.72916666666666663</v>
+        <v>0.74127906976744184</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="40">
         <f>SUM(B55:D55)</f>
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B55" s="16">
-        <f>Features!C399</f>
-        <v>245</v>
+        <f>Features!C407</f>
+        <v>255</v>
       </c>
       <c r="C55" s="17">
-        <f>Features!C400</f>
-        <v>91</v>
+        <f>Features!C408</f>
+        <v>89</v>
       </c>
       <c r="D55" s="18">
-        <f>Features!C401</f>
+        <f>Features!C409</f>
         <v>0</v>
       </c>
       <c r="E55" s="19">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="320">
   <si>
     <t>Feature</t>
   </si>
@@ -972,6 +972,12 @@
   </si>
   <si>
     <t>closePath()</t>
+  </si>
+  <si>
+    <t>rotate(x, y, a)</t>
+  </si>
+  <si>
+    <t>translate(x, y)</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1231,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330958577"/>
+          <c:w val="0.919780713309586"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1272,7 +1278,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42041</c:v>
+                  <c:v>42047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,7 +1299,7 @@
                   <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>255</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,7 +1346,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42041</c:v>
+                  <c:v>42047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1408,7 +1414,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42041</c:v>
+                  <c:v>42047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,7 +1482,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42041</c:v>
+                  <c:v>42047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,11 +1515,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120463360"/>
-        <c:axId val="120464896"/>
+        <c:axId val="120201216"/>
+        <c:axId val="120202752"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120463360"/>
+        <c:axId val="120201216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120464896"/>
+        <c:crossAx val="120202752"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1562,7 +1568,7 @@
         <c:minorTimeUnit val="years"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120464896"/>
+        <c:axId val="120202752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120463360"/>
+        <c:crossAx val="120201216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1732,7 +1738,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628773"/>
+          <c:y val="0.11628512537628775"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1797,7 +1803,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42041</c:v>
+                  <c:v>42047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,17 +1824,17 @@
                   <c:v>0.70440251572327039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74127906976744184</c:v>
+                  <c:v>0.74277456647398843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120488704"/>
-        <c:axId val="120490240"/>
+        <c:axId val="120226560"/>
+        <c:axId val="120228096"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120488704"/>
+        <c:axId val="120226560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,13 +1842,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120490240"/>
+        <c:crossAx val="120228096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120490240"/>
+        <c:axId val="120228096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1885,7 +1891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120488704"/>
+        <c:crossAx val="120226560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1999,7 +2005,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42041</c:v>
+                  <c:v>42047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,7 +2073,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42041</c:v>
+                  <c:v>42047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,11 +2100,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120511104"/>
-        <c:axId val="120537472"/>
+        <c:axId val="120248960"/>
+        <c:axId val="120275328"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120511104"/>
+        <c:axId val="120248960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2112,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yy/m" sourceLinked="0"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120537472"/>
+        <c:crossAx val="120275328"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -2114,7 +2120,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120537472"/>
+        <c:axId val="120275328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120511104"/>
+        <c:crossAx val="120248960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2663,10 +2669,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D411"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5263,13 +5269,17 @@
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="23"/>
-      <c r="C303" s="7"/>
+      <c r="B303" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="3" t="s">
-        <v>299</v>
+      <c r="B304" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>1</v>
@@ -5278,7 +5288,7 @@
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>1</v>
@@ -5287,7 +5297,7 @@
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>1</v>
@@ -5296,7 +5306,7 @@
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="23" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>1</v>
@@ -5305,7 +5315,7 @@
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
       <c r="B308" s="23" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>1</v>
@@ -5314,7 +5324,7 @@
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
       <c r="B309" s="23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>1</v>
@@ -5323,7 +5333,7 @@
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="23" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>1</v>
@@ -5332,7 +5342,7 @@
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
       <c r="B311" s="23" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>1</v>
@@ -5341,7 +5351,7 @@
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
       <c r="B312" s="23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>1</v>
@@ -5350,7 +5360,7 @@
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
       <c r="B313" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>1</v>
@@ -5359,25 +5369,25 @@
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
       <c r="B314" s="23" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
       <c r="B315" s="23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
       <c r="B316" s="23" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>1</v>
@@ -5386,16 +5396,16 @@
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>13</v>
@@ -5404,7 +5414,7 @@
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
       <c r="B319" s="23" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>13</v>
@@ -5413,16 +5423,16 @@
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
       <c r="B321" s="23" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>1</v>
@@ -5431,7 +5441,7 @@
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
       <c r="B322" s="23" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>1</v>
@@ -5440,7 +5450,7 @@
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
       <c r="B323" s="23" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>1</v>
@@ -5485,16 +5495,20 @@
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
       <c r="B328" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D328" s="4"/>
+    </row>
+    <row r="329" spans="2:4" s="6" customFormat="1">
+      <c r="B329" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C328" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D328" s="4"/>
-    </row>
-    <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="23"/>
-      <c r="C329" s="7"/>
+      <c r="C329" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
@@ -5503,16 +5517,12 @@
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C331" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B331" s="23"/>
+      <c r="C331" s="7"/>
       <c r="D331" s="4"/>
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="23" t="s">
+      <c r="B332" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C332" s="7" t="s">
@@ -5522,16 +5532,16 @@
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
       <c r="B333" s="23" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
       <c r="B334" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>13</v>
@@ -5540,16 +5550,16 @@
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
       <c r="B335" s="23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
       <c r="B336" s="23" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>1</v>
@@ -5558,7 +5568,7 @@
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
       <c r="B337" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>1</v>
@@ -5567,7 +5577,7 @@
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
       <c r="B338" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>1</v>
@@ -5576,7 +5586,7 @@
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
       <c r="B339" s="23" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>1</v>
@@ -5585,7 +5595,7 @@
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
       <c r="B340" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>1</v>
@@ -5594,7 +5604,7 @@
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
       <c r="B341" s="23" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>1</v>
@@ -5603,16 +5613,20 @@
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
       <c r="B342" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D342" s="4"/>
+    </row>
+    <row r="343" spans="2:4" s="6" customFormat="1">
+      <c r="B343" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C342" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D342" s="4"/>
-    </row>
-    <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="23"/>
-      <c r="C343" s="7"/>
+      <c r="C343" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
@@ -5621,17 +5635,13 @@
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="23"/>
+      <c r="C345" s="7"/>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="23" t="s">
-        <v>273</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>1</v>
@@ -5640,7 +5650,7 @@
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
       <c r="B347" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>1</v>
@@ -5649,7 +5659,7 @@
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
       <c r="B348" s="23" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>1</v>
@@ -5658,7 +5668,7 @@
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
       <c r="B349" s="23" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>1</v>
@@ -5667,7 +5677,7 @@
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
       <c r="B350" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>1</v>
@@ -5676,7 +5686,7 @@
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
       <c r="B351" s="23" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>1</v>
@@ -5685,7 +5695,7 @@
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
       <c r="B352" s="23" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>1</v>
@@ -5694,7 +5704,7 @@
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
       <c r="B353" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>1</v>
@@ -5703,7 +5713,7 @@
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
       <c r="B354" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>1</v>
@@ -5712,44 +5722,44 @@
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
       <c r="B355" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="C355" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="23"/>
-      <c r="C356" s="7"/>
+      <c r="C356" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="21"/>
+      <c r="B357" s="23"/>
       <c r="C357" s="7"/>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="3" t="s">
+      <c r="B358" s="21"/>
+      <c r="C358" s="7"/>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C358" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="23" t="s">
+      <c r="C359" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D359" s="4"/>
+    </row>
+    <row r="360" spans="2:4" s="6" customFormat="1">
+      <c r="B360" s="23" t="s">
         <v>144</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="21" t="s">
-        <v>145</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>1</v>
@@ -5758,16 +5768,16 @@
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
       <c r="B361" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="2:4" s="6" customFormat="1">
+      <c r="B362" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>1</v>
@@ -5776,7 +5786,7 @@
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
       <c r="B363" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>1</v>
@@ -5785,7 +5795,7 @@
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
       <c r="B364" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>1</v>
@@ -5794,34 +5804,34 @@
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
       <c r="B365" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D365" s="4"/>
+    </row>
+    <row r="366" spans="2:4" s="6" customFormat="1">
+      <c r="B366" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C365" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D365" s="4"/>
-    </row>
-    <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="21" t="s">
+      <c r="C366" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366" s="4"/>
+    </row>
+    <row r="367" spans="2:4" s="6" customFormat="1">
+      <c r="B367" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C366" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D366" s="4"/>
-    </row>
-    <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="24" t="s">
+      <c r="C367" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D367" s="4"/>
+    </row>
+    <row r="368" spans="2:4" s="6" customFormat="1">
+      <c r="B368" s="24" t="s">
         <v>32</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D367" s="4"/>
-    </row>
-    <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="25" t="s">
-        <v>146</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>1</v>
@@ -5830,25 +5840,25 @@
     </row>
     <row r="369" spans="2:4" s="6" customFormat="1">
       <c r="B369" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D369" s="4"/>
+    </row>
+    <row r="370" spans="2:4" s="6" customFormat="1">
+      <c r="B370" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C369" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D369" s="4"/>
-    </row>
-    <row r="370" spans="2:4" s="6" customFormat="1">
-      <c r="B370" s="24" t="s">
+      <c r="C370" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="2:4" s="6" customFormat="1">
+      <c r="B371" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D370" s="4"/>
-    </row>
-    <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="25" t="s">
-        <v>149</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>1</v>
@@ -5857,16 +5867,16 @@
     </row>
     <row r="372" spans="2:4" s="6" customFormat="1">
       <c r="B372" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="2:4" s="6" customFormat="1">
+      <c r="B373" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D372" s="4"/>
-    </row>
-    <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="24" t="s">
-        <v>282</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>1</v>
@@ -5875,25 +5885,25 @@
     </row>
     <row r="374" spans="2:4" s="6" customFormat="1">
       <c r="B374" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D374" s="4"/>
+    </row>
+    <row r="375" spans="2:4" s="6" customFormat="1">
+      <c r="B375" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="C374" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D374" s="4"/>
-    </row>
-    <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="21" t="s">
+      <c r="C375" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D375" s="4"/>
+    </row>
+    <row r="376" spans="2:4" s="6" customFormat="1">
+      <c r="B376" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="C375" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D375" s="4"/>
-    </row>
-    <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="24" t="s">
-        <v>35</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>1</v>
@@ -5902,39 +5912,43 @@
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
       <c r="B377" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="2:4" s="6" customFormat="1">
+      <c r="B378" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C377" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D377" s="4"/>
-    </row>
-    <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="20"/>
-      <c r="C378" s="7"/>
+      <c r="C378" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="23" t="s">
+      <c r="B379" s="20"/>
+      <c r="C379" s="7"/>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C379" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="2:4" s="6" customFormat="1">
-      <c r="B380" s="22" t="s">
+      <c r="C380" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D380" s="4"/>
+    </row>
+    <row r="381" spans="2:4" s="6" customFormat="1">
+      <c r="B381" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C380" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D380" s="4"/>
-    </row>
-    <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="21"/>
-      <c r="C381" s="7"/>
+      <c r="C381" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
@@ -5943,17 +5957,13 @@
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="3" t="s">
+      <c r="B383" s="21"/>
+      <c r="C383" s="7"/>
+      <c r="D383" s="4"/>
+    </row>
+    <row r="384" spans="2:4" s="6" customFormat="1">
+      <c r="B384" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D383" s="4"/>
-    </row>
-    <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="23" t="s">
-        <v>59</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>13</v>
@@ -5962,7 +5972,7 @@
     </row>
     <row r="385" spans="2:4" s="6" customFormat="1">
       <c r="B385" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>13</v>
@@ -5971,7 +5981,7 @@
     </row>
     <row r="386" spans="2:4" s="6" customFormat="1">
       <c r="B386" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>13</v>
@@ -5980,7 +5990,7 @@
     </row>
     <row r="387" spans="2:4" s="6" customFormat="1">
       <c r="B387" s="23" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>13</v>
@@ -5988,8 +5998,12 @@
       <c r="D387" s="4"/>
     </row>
     <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="23"/>
-      <c r="C388" s="7"/>
+      <c r="B388" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
@@ -5998,17 +6012,13 @@
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
-      <c r="B390" s="3" t="s">
+      <c r="B390" s="23"/>
+      <c r="C390" s="7"/>
+      <c r="D390" s="4"/>
+    </row>
+    <row r="391" spans="2:4" s="6" customFormat="1">
+      <c r="B391" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C390" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D390" s="4"/>
-    </row>
-    <row r="391" spans="2:4" s="6" customFormat="1">
-      <c r="B391" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>1</v>
@@ -6017,72 +6027,72 @@
     </row>
     <row r="392" spans="2:4" s="6" customFormat="1">
       <c r="B392" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D392" s="4"/>
+    </row>
+    <row r="393" spans="2:4" s="6" customFormat="1">
+      <c r="B393" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C392" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D392" s="4"/>
-    </row>
-    <row r="393" spans="2:4" s="6" customFormat="1">
-      <c r="B393" s="22"/>
-      <c r="C393" s="4"/>
+      <c r="C393" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D393" s="4"/>
     </row>
     <row r="394" spans="2:4" s="6" customFormat="1">
-      <c r="B394" s="20"/>
+      <c r="B394" s="22"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
     </row>
     <row r="395" spans="2:4" s="6" customFormat="1">
-      <c r="B395" s="3" t="s">
+      <c r="B395" s="20"/>
+      <c r="C395" s="4"/>
+      <c r="D395" s="4"/>
+    </row>
+    <row r="396" spans="2:4" s="6" customFormat="1">
+      <c r="B396" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C395" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D395" s="4"/>
-    </row>
-    <row r="396" spans="2:4" s="6" customFormat="1">
-      <c r="B396" s="22" t="s">
+      <c r="C396" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D396" s="4"/>
+    </row>
+    <row r="397" spans="2:4" s="6" customFormat="1">
+      <c r="B397" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C396" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D396" s="4"/>
-    </row>
-    <row r="397" spans="2:4" s="6" customFormat="1">
-      <c r="B397" s="23" t="s">
+      <c r="C397" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D397" s="4"/>
+    </row>
+    <row r="398" spans="2:4" s="6" customFormat="1">
+      <c r="B398" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C397" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D397" s="4"/>
-    </row>
-    <row r="398" spans="2:4" s="6" customFormat="1">
-      <c r="B398" s="23"/>
-      <c r="C398" s="9"/>
+      <c r="C398" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="D398" s="4"/>
     </row>
     <row r="399" spans="2:4" s="6" customFormat="1">
-      <c r="B399" s="20"/>
-      <c r="C399" s="4"/>
+      <c r="B399" s="23"/>
+      <c r="C399" s="9"/>
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
-      <c r="B400" s="3" t="s">
+      <c r="B400" s="20"/>
+      <c r="C400" s="4"/>
+      <c r="D400" s="4"/>
+    </row>
+    <row r="401" spans="1:4" s="6" customFormat="1">
+      <c r="B401" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C400" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D400" s="4"/>
-    </row>
-    <row r="401" spans="1:4" s="6" customFormat="1">
-      <c r="B401" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>13</v>
@@ -6091,7 +6101,7 @@
     </row>
     <row r="402" spans="1:4" s="6" customFormat="1">
       <c r="B402" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>13</v>
@@ -6100,7 +6110,7 @@
     </row>
     <row r="403" spans="1:4" s="6" customFormat="1">
       <c r="B403" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>13</v>
@@ -6108,8 +6118,12 @@
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="1:4" s="6" customFormat="1">
-      <c r="B404" s="22"/>
-      <c r="C404" s="4"/>
+      <c r="B404" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D404" s="4"/>
     </row>
     <row r="405" spans="1:4" s="6" customFormat="1">
@@ -6117,65 +6131,70 @@
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="11"/>
-      <c r="B406" s="11"/>
-      <c r="C406" s="11"/>
-      <c r="D406" s="2"/>
+    <row r="406" spans="1:4" s="6" customFormat="1">
+      <c r="B406" s="22"/>
+      <c r="C406" s="4"/>
+      <c r="D406" s="4"/>
     </row>
     <row r="407" spans="1:4">
-      <c r="B407" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C407" s="6">
-        <f>COUNTIF(C5:C406,"y")</f>
-        <v>255</v>
-      </c>
+      <c r="A407" s="11"/>
+      <c r="B407" s="11"/>
+      <c r="C407" s="11"/>
       <c r="D407" s="2"/>
     </row>
     <row r="408" spans="1:4">
       <c r="B408" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C408" s="6">
-        <f>COUNTIF(C5:C406,"n")</f>
-        <v>89</v>
+        <f>COUNTIF(C5:C407,"y")</f>
+        <v>257</v>
       </c>
       <c r="D408" s="2"/>
     </row>
     <row r="409" spans="1:4">
       <c r="B409" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C409" s="7">
-        <f>COUNTIF(C5:C406,"TBD")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C409" s="6">
+        <f>COUNTIF(C5:C407,"n")</f>
+        <v>89</v>
       </c>
       <c r="D409" s="2"/>
     </row>
     <row r="410" spans="1:4">
       <c r="B410" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C410" s="7">
+        <f>COUNTIF(C5:C407,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="B411" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C410">
-        <f>SUM(C407:C409)</f>
-        <v>344</v>
-      </c>
-      <c r="D410" s="2"/>
-    </row>
-    <row r="411" spans="1:4" ht="18">
-      <c r="B411" s="10"/>
-      <c r="C411" s="10" t="s">
+      <c r="C411">
+        <f>SUM(C408:C410)</f>
+        <v>346</v>
+      </c>
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" spans="1:4" ht="18">
+      <c r="B412" s="10"/>
+      <c r="C412" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D411" s="42">
-        <f>C407/(C408+C407 + C409)</f>
-        <v>0.74127906976744184</v>
+      <c r="D412" s="42">
+        <f>C408/(C409+C408 + C410)</f>
+        <v>0.74277456647398843</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C3 C6:C65367">
+  <conditionalFormatting sqref="C1:C3 C6:C65368">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -6202,7 +6221,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6513,10 +6532,10 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="12">
-        <v>42041</v>
+        <v>42047</v>
       </c>
       <c r="B51" s="4">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C51" s="4">
         <v>89</v>
@@ -6532,7 +6551,7 @@
       </c>
       <c r="G51" s="31">
         <f t="shared" ref="G51" si="2">B51/SUM(B51:E51)</f>
-        <v>0.74127906976744184</v>
+        <v>0.74277456647398843</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -6577,25 +6596,25 @@
       </c>
       <c r="G54" s="39">
         <f>G51</f>
-        <v>0.74127906976744184</v>
+        <v>0.74277456647398843</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="40">
         <f>SUM(B55:D55)</f>
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B55" s="16">
-        <f>Features!C407</f>
-        <v>255</v>
+        <f>Features!C408</f>
+        <v>257</v>
       </c>
       <c r="C55" s="17">
-        <f>Features!C408</f>
+        <f>Features!C409</f>
         <v>89</v>
       </c>
       <c r="D55" s="18">
-        <f>Features!C409</f>
+        <f>Features!C410</f>
         <v>0</v>
       </c>
       <c r="E55" s="19">

--- a/Feature Matrix.xlsx
+++ b/Feature Matrix.xlsx
@@ -1231,7 +1231,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.919780713309586"/>
+          <c:w val="0.91978071330958622"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1278,7 +1278,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42047</c:v>
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,7 +1346,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42047</c:v>
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,7 +1414,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42047</c:v>
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,7 +1482,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42047</c:v>
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1515,11 +1515,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120201216"/>
-        <c:axId val="120202752"/>
+        <c:axId val="119677312"/>
+        <c:axId val="119678848"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120201216"/>
+        <c:axId val="119677312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120202752"/>
+        <c:crossAx val="119678848"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1568,7 +1568,7 @@
         <c:minorTimeUnit val="years"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120202752"/>
+        <c:axId val="119678848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120201216"/>
+        <c:crossAx val="119677312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1738,7 +1738,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26068972147712305"/>
-          <c:y val="0.11628512537628775"/>
+          <c:y val="0.11628512537628778"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1803,7 +1803,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42047</c:v>
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,11 +1830,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120226560"/>
-        <c:axId val="120228096"/>
+        <c:axId val="119706752"/>
+        <c:axId val="119708288"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120226560"/>
+        <c:axId val="119706752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,13 +1842,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120228096"/>
+        <c:crossAx val="119708288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120228096"/>
+        <c:axId val="119708288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1891,7 +1891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120226560"/>
+        <c:crossAx val="119706752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2005,7 +2005,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42047</c:v>
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,7 +2073,7 @@
                   <c:v>42029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42047</c:v>
+                  <c:v>42155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2100,11 +2100,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="120248960"/>
-        <c:axId val="120275328"/>
+        <c:axId val="119725056"/>
+        <c:axId val="119730944"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="120248960"/>
+        <c:axId val="119725056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,7 +2112,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yy/m" sourceLinked="0"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120275328"/>
+        <c:crossAx val="119730944"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -2120,7 +2120,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="120275328"/>
+        <c:axId val="119730944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120248960"/>
+        <c:crossAx val="119725056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6221,7 +6221,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E2"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="12">
-        <v>42047</v>
+        <v>42155</v>
       </c>
       <c r="B51" s="4">
         <v>257</v>
